--- a/city-metro-visualization/data/上海/metro_adj_stations.xlsx
+++ b/city-metro-visualization/data/上海/metro_adj_stations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="939">
   <si>
     <t>station_name</t>
   </si>
@@ -100,6 +100,9 @@
     <t>下南路</t>
   </si>
   <si>
+    <t>下沙</t>
+  </si>
+  <si>
     <t>世博会博物馆</t>
   </si>
   <si>
@@ -169,6 +172,9 @@
     <t>丰庄</t>
   </si>
   <si>
+    <t>丰翔路</t>
+  </si>
+  <si>
     <t>临平路</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
     <t>佘山</t>
   </si>
   <si>
+    <t>元江路</t>
+  </si>
+  <si>
     <t>兆丰路</t>
   </si>
   <si>
@@ -253,6 +262,9 @@
     <t>北蔡</t>
   </si>
   <si>
+    <t>华东理工大学</t>
+  </si>
+  <si>
     <t>华夏东路</t>
   </si>
   <si>
@@ -265,6 +277,9 @@
     <t>华宁路</t>
   </si>
   <si>
+    <t>华泾西</t>
+  </si>
+  <si>
     <t>华鹏路</t>
   </si>
   <si>
@@ -274,6 +289,9 @@
     <t>南京西路</t>
   </si>
   <si>
+    <t>南大路</t>
+  </si>
+  <si>
     <t>南浦大桥</t>
   </si>
   <si>
@@ -292,6 +310,15 @@
     <t>友谊路</t>
   </si>
   <si>
+    <t>双柏路</t>
+  </si>
+  <si>
+    <t>双江路</t>
+  </si>
+  <si>
+    <t>古浪路</t>
+  </si>
+  <si>
     <t>台儿庄路</t>
   </si>
   <si>
@@ -304,6 +331,12 @@
     <t>后滩</t>
   </si>
   <si>
+    <t>吴中路</t>
+  </si>
+  <si>
+    <t>周浦</t>
+  </si>
+  <si>
     <t>周浦东</t>
   </si>
   <si>
@@ -337,6 +370,9 @@
     <t>四平路</t>
   </si>
   <si>
+    <t>国帆路</t>
+  </si>
+  <si>
     <t>国权路</t>
   </si>
   <si>
@@ -346,6 +382,9 @@
     <t>场中路</t>
   </si>
   <si>
+    <t>基隆路</t>
+  </si>
+  <si>
     <t>塘桥</t>
   </si>
   <si>
@@ -391,6 +430,9 @@
     <t>奉贤新城</t>
   </si>
   <si>
+    <t>姚虹路</t>
+  </si>
+  <si>
     <t>威宁路</t>
   </si>
   <si>
@@ -451,6 +493,9 @@
     <t>康新公路</t>
   </si>
   <si>
+    <t>康桥</t>
+  </si>
+  <si>
     <t>延吉中路</t>
   </si>
   <si>
@@ -535,6 +580,12 @@
     <t>春申路</t>
   </si>
   <si>
+    <t>景西路</t>
+  </si>
+  <si>
+    <t>曙建路</t>
+  </si>
+  <si>
     <t>曲阜路</t>
   </si>
   <si>
@@ -553,6 +604,9 @@
     <t>朱家角</t>
   </si>
   <si>
+    <t>朱梅路</t>
+  </si>
+  <si>
     <t>李子园</t>
   </si>
   <si>
@@ -595,6 +649,12 @@
     <t>桃浦新村</t>
   </si>
   <si>
+    <t>梅岭北路</t>
+  </si>
+  <si>
+    <t>武威东路</t>
+  </si>
+  <si>
     <t>武威路</t>
   </si>
   <si>
@@ -619,6 +679,9 @@
     <t>水城路</t>
   </si>
   <si>
+    <t>永德路</t>
+  </si>
+  <si>
     <t>汇臻路</t>
   </si>
   <si>
@@ -661,6 +724,9 @@
     <t>沈杜公路</t>
   </si>
   <si>
+    <t>沈梅路</t>
+  </si>
+  <si>
     <t>泗泾</t>
   </si>
   <si>
@@ -763,6 +829,9 @@
     <t>祁华路</t>
   </si>
   <si>
+    <t>祁安路</t>
+  </si>
+  <si>
     <t>祁连山南路</t>
   </si>
   <si>
@@ -772,15 +841,27 @@
     <t>秀沿路</t>
   </si>
   <si>
+    <t>紫竹高新区</t>
+  </si>
+  <si>
     <t>紫藤路</t>
   </si>
   <si>
+    <t>繁荣路</t>
+  </si>
+  <si>
+    <t>红宝石路</t>
+  </si>
+  <si>
     <t>罗南新村</t>
   </si>
   <si>
     <t>罗山路</t>
   </si>
   <si>
+    <t>罗秀路</t>
+  </si>
+  <si>
     <t>美兰湖</t>
   </si>
   <si>
@@ -805,6 +886,9 @@
     <t>航中路</t>
   </si>
   <si>
+    <t>航头</t>
+  </si>
+  <si>
     <t>航头东</t>
   </si>
   <si>
@@ -859,6 +943,9 @@
     <t>虹桥路</t>
   </si>
   <si>
+    <t>虹梅南路</t>
+  </si>
+  <si>
     <t>虹梅路</t>
   </si>
   <si>
@@ -952,12 +1039,18 @@
     <t>铁力路</t>
   </si>
   <si>
+    <t>铜川路</t>
+  </si>
+  <si>
     <t>银都路</t>
   </si>
   <si>
     <t>锦江乐园</t>
   </si>
   <si>
+    <t>锦秋路</t>
+  </si>
+  <si>
     <t>锦绣路</t>
   </si>
   <si>
@@ -973,6 +1066,9 @@
     <t>长清路</t>
   </si>
   <si>
+    <t>长风公园</t>
+  </si>
+  <si>
     <t>闵瑞路</t>
   </si>
   <si>
@@ -988,6 +1084,9 @@
     <t>陈春路</t>
   </si>
   <si>
+    <t>陈翔公路</t>
+  </si>
+  <si>
     <t>陕西南路</t>
   </si>
   <si>
@@ -1024,6 +1123,12 @@
     <t>马陆</t>
   </si>
   <si>
+    <t>高桥</t>
+  </si>
+  <si>
+    <t>高桥西</t>
+  </si>
+  <si>
     <t>高科西路</t>
   </si>
   <si>
@@ -1036,6 +1141,9 @@
     <t>鹤沙航城</t>
   </si>
   <si>
+    <t>鹤涛路</t>
+  </si>
+  <si>
     <t>黄兴公园</t>
   </si>
   <si>
@@ -1096,7 +1204,7 @@
     <t>{'常熟路': 0.77, '衡山路': 0.43}</t>
   </si>
   <si>
-    <t>{'南陈路': 0.95}</t>
+    <t>{'南陈路': 0.95, '锦秋路': 0.68}</t>
   </si>
   <si>
     <t>{'上海体育场': 0.75, '上海体育馆': 0.56, '漕溪路': 0.39}</t>
@@ -1177,7 +1285,7 @@
     <t>{'大世界': 0.74, '新闸路': 0.91}</t>
   </si>
   <si>
-    <t>{'宋园路': 0.82}</t>
+    <t>{'姚虹路': 0.86, '宋园路': 0.82, '红宝石路': 0.53}</t>
   </si>
   <si>
     <t>{'灵岩南路': 0.98}</t>
@@ -1204,6 +1312,9 @@
     <t>{'自然博物馆': 0.77}</t>
   </si>
   <si>
+    <t>{'祁安路': 0.96}</t>
+  </si>
+  <si>
     <t>{'小南门': 0.94}</t>
   </si>
   <si>
@@ -1213,9 +1324,18 @@
     <t>{'五莲路': 0.95, '金桥路': 0.85}</t>
   </si>
   <si>
+    <t>{'曙建路': 0.9}</t>
+  </si>
+  <si>
+    <t>{'高桥西': 0.96}</t>
+  </si>
+  <si>
     <t>{'四平路': 0.93, '国权路': 0.87}</t>
   </si>
   <si>
+    <t>{'姚虹路': 0.83}</t>
+  </si>
+  <si>
     <t>{'东昌路': 0.34}</t>
   </si>
   <si>
@@ -1234,12 +1354,18 @@
     <t>{'提篮桥': 0.9}</t>
   </si>
   <si>
+    <t>{'外高桥保税区北': 0.51}</t>
+  </si>
+  <si>
     <t>{'上海儿童医学中心': 0.85, '蓝村路': 0.88}</t>
   </si>
   <si>
     <t>{'爱国路': 0.83}</t>
   </si>
   <si>
+    <t>{'基隆路': 0.51}</t>
+  </si>
+  <si>
     <t>{'人民广场': 0.74, '老西门': 1.0, '豫园': 0.78, '黄陂南路': 0.76}</t>
   </si>
   <si>
@@ -1249,19 +1375,25 @@
     <t>{'赤峰路': 0.91}</t>
   </si>
   <si>
+    <t>{'长风公园': 0.63}</t>
+  </si>
+  <si>
     <t>{'提篮桥': 0.77, '杨树浦路': 0.77}</t>
   </si>
   <si>
     <t>{'南京东路': 0.67, '四川北路': 0.93}</t>
   </si>
   <si>
+    <t>{'伊犁路': 0.86, '吴中路': 0.83, '宋园路': 0.76}</t>
+  </si>
+  <si>
     <t>{'市光路': 0.88}</t>
   </si>
   <si>
     <t>{'江浦公园': 0.94}</t>
   </si>
   <si>
-    <t>{'伊犁路': 0.82, '虹桥路': 0.84}</t>
+    <t>{'伊犁路': 0.82, '姚虹路': 0.76, '虹桥路': 0.84}</t>
   </si>
   <si>
     <t>{'东宝兴路': 1.0, '中兴路': 0.72, '四川北路': 0.75}</t>
@@ -1324,6 +1456,9 @@
     <t>{'长寿路': 0.89}</t>
   </si>
   <si>
+    <t>{'双柏路': 0.9}</t>
+  </si>
+  <si>
     <t>{'新闸路': 0.54}</t>
   </si>
   <si>
@@ -1336,6 +1471,12 @@
     <t>{'金海湖': 0.92}</t>
   </si>
   <si>
+    <t>{'罗秀路': 0.82}</t>
+  </si>
+  <si>
+    <t>{'武威东路': 0.75}</t>
+  </si>
+  <si>
     <t>{'大连路': 0.77}</t>
   </si>
   <si>
@@ -1348,6 +1489,12 @@
     <t>{'桂林公园': 0.88}</t>
   </si>
   <si>
+    <t>{'铜川路': 0.87}</t>
+  </si>
+  <si>
+    <t>{'李子园': 0.75}</t>
+  </si>
+  <si>
     <t>{'隆德路': 0.78}</t>
   </si>
   <si>
@@ -1357,6 +1504,9 @@
     <t>{'北洋泾路': 0.91, '源深体育中心': 0.9}</t>
   </si>
   <si>
+    <t>{'红宝石路': 0.59}</t>
+  </si>
+  <si>
     <t>{'东城一路': 0.92}</t>
   </si>
   <si>
@@ -1408,9 +1558,24 @@
     <t>{'复兴岛': 0.83, '隆昌路': 0.91}</t>
   </si>
   <si>
+    <t>{'铜川路': 0.96}</t>
+  </si>
+  <si>
+    <t>{'锦秋路': 0.81}</t>
+  </si>
+  <si>
+    <t>{'南大路': 0.96}</t>
+  </si>
+  <si>
     <t>{'龙柏新村': 0.97}</t>
   </si>
   <si>
+    <t>{'伊犁路': 0.53, '水城路': 0.59}</t>
+  </si>
+  <si>
+    <t>{'朱梅路': 0.82}</t>
+  </si>
+  <si>
     <t>{'中华艺术宫': 0.75, '云台路': 0.69, '成山路': 0.88, '长清路': 0.79}</t>
   </si>
   <si>
@@ -1480,6 +1645,12 @@
     <t>{'金吉路': 0.97}</t>
   </si>
   <si>
+    <t>{'梅岭北路': 0.87, '真如': 0.96}</t>
+  </si>
+  <si>
+    <t>{'上海大学': 0.68, '祁华路': 0.81}</t>
+  </si>
+  <si>
     <t>{'下南路': 0.92}</t>
   </si>
   <si>
@@ -1489,6 +1660,9 @@
     <t>{'世博大道': 0.98, '成山路': 0.9, '耀华路': 0.79}</t>
   </si>
   <si>
+    <t>{'大渡河路': 0.63}</t>
+  </si>
+  <si>
     <t>{'三鲁公路': 0.95, '浦航路': 0.77}</t>
   </si>
   <si>
@@ -1513,6 +1687,9 @@
     <t>{'打浦桥': 0.89, '新天地': 0.79, '陆家浜路': 0.88}</t>
   </si>
   <si>
+    <t>{'双江路': 0.96}</t>
+  </si>
+  <si>
     <t>{'云台路': 0.98}</t>
   </si>
   <si>
@@ -1555,7 +1732,7 @@
     <t>{'三林': 1.15, '上南路': 1.63, '华夏西路': 0.89, '浦三路': 1.6, '灵岩南路': 2.65, '高青路': 1.65}</t>
   </si>
   <si>
-    <t>{'五角场': 1.79, '国权路': 2.67, '嫩江路': 2.25, '市光路': 2.48, '新江湾城': 1.7, '殷高东路': 0.96, '殷高西路': 2.36, '江湾体育场': 1.1, '江湾镇': 2.37, '翔殷路': 2.42, '长江南路': 2.64}</t>
+    <t>{'五角场': 1.79, '国帆路': 2.99, '国权路': 2.67, '嫩江路': 2.25, '市光路': 2.48, '新江湾城': 1.7, '殷高东路': 0.96, '殷高西路': 2.36, '江湾体育场': 1.1, '江湾镇': 2.37, '翔殷路': 2.42, '长江南路': 2.64}</t>
   </si>
   <si>
     <t>{'东城一路': 2.89, '沈杜公路': 1.56, '浦航路': 1.71, '联航路': 2.52, '闵瑞路': 0.95}</t>
@@ -1564,13 +1741,13 @@
     <t>{'三林': 0.83, '三林东': 1.63, '东方体育中心': 2.51, '东明路': 2.66, '凌兆新村': 1.79, '华夏西路': 0.8, '成山路': 2.59, '杨思': 1.8, '灵岩南路': 1.03, '高青路': 1.52}</t>
   </si>
   <si>
-    <t>{'上海大学': 1.97, '南陈路': 1.16, '场中路': 1.35, '大场镇': 2.53}</t>
-  </si>
-  <si>
-    <t>{'上海体育馆': 0.66, '上海图书馆': 2.49, '上海游泳馆': 0.75, '东安路': 1.23, '云锦路': 2.56, '交通大学': 2.01, '嘉善路': 2.52, '大木桥路': 2.1, '宜山路': 1.56, '徐家汇': 1.26, '桂林路': 2.7, '漕宝路': 2.16, '漕溪路': 1.1, '肇嘉浜路': 1.66, '虹桥路': 2.53, '衡山路': 2.12, '龙华': 1.69, '龙华中路': 1.3, '龙漕路': 1.8}</t>
-  </si>
-  <si>
-    <t>{'上海体育场': 0.66, '上海图书馆': 2.87, '上海游泳馆': 0.56, '东安路': 1.89, '云锦路': 2.71, '交通大学': 2.17, '大木桥路': 2.76, '宋园路': 2.85, '宜山路': 1.07, '徐家汇': 1.39, '桂林公园': 2.44, '桂林路': 2.05, '漕宝路': 1.66, '漕溪路': 0.68, '石龙路': 2.82, '肇嘉浜路': 2.21, '虹桥路': 2.27, '衡山路': 2.56, '龙华': 1.86, '龙华中路': 1.87, '龙漕路': 1.63}</t>
+    <t>{'上海大学': 1.97, '丰翔路': 2.74, '南陈路': 1.16, '场中路': 1.35, '大场镇': 2.53, '锦秋路': 2.61}</t>
+  </si>
+  <si>
+    <t>{'上海体育馆': 0.66, '上海图书馆': 2.49, '上海游泳馆': 0.75, '东安路': 1.23, '云锦路': 2.56, '交通大学': 2.01, '吴中路': 2.86, '嘉善路': 2.52, '大木桥路': 2.1, '宜山路': 1.56, '徐家汇': 1.26, '桂林路': 2.7, '漕宝路': 2.16, '漕溪路': 1.1, '肇嘉浜路': 1.66, '虹桥路': 2.53, '衡山路': 2.12, '龙华': 1.69, '龙华中路': 1.3, '龙漕路': 1.8}</t>
+  </si>
+  <si>
+    <t>{'上海体育场': 0.66, '上海图书馆': 2.87, '上海游泳馆': 0.56, '东安路': 1.89, '云锦路': 2.71, '交通大学': 2.17, '吴中路': 2.32, '大木桥路': 2.76, '宋园路': 2.85, '宜山路': 1.07, '徐家汇': 1.39, '桂林公园': 2.44, '桂林路': 2.05, '漕宝路': 1.66, '漕溪路': 0.68, '石龙路': 2.82, '肇嘉浜路': 2.21, '虹桥路': 2.27, '衡山路': 2.56, '龙华': 1.86, '龙华中路': 1.87, '龙漕路': 1.63}</t>
   </si>
   <si>
     <t>{'上海科技馆': 2.64, '世纪公园': 2.7, '世纪大道': 2.85, '临沂新村': 1.29, '南浦大桥': 2.33, '塘桥': 0.85, '小南门': 2.82, '杨高南路': 1.75, '浦电路(4号线)': 2.27, '浦电路(6号线)': 1.95, '芳华路': 2.77, '蓝村路': 1.01, '锦绣路': 2.35, '高科西路': 2.34}</t>
@@ -1579,19 +1756,19 @@
     <t>{'北新泾': 2.96, '水城路': 2.51, '紫藤路': 2.31, '虹桥1号航站楼': 1.98, '龙柏新村': 1.5, '龙溪路': 1.22}</t>
   </si>
   <si>
-    <t>{'上海游泳馆': 2.94, '桂林公园': 1.7, '桂林路': 2.52, '漕宝路': 1.56, '漕溪路': 2.59, '石龙路': 1.31, '虹漕路': 2.13, '锦江乐园': 2.05, '龙华': 2.97, '龙漕路': 2.14, '龙耀路': 2.88}</t>
+    <t>{'上海游泳馆': 2.94, '华东理工大学': 1.32, '桂林公园': 1.7, '桂林路': 2.52, '漕宝路': 1.56, '漕溪路': 2.59, '石龙路': 1.31, '罗秀路': 2.62, '虹漕路': 2.13, '锦江乐园': 2.05, '龙华': 2.97, '龙漕路': 2.14, '龙耀路': 2.88}</t>
   </si>
   <si>
     <t>{'上海体育场': 2.49, '上海体育馆': 2.87, '东安路': 2.15, '中山公园': 2.94, '交通大学': 1.08, '南京西路': 2.85, '嘉善路': 1.66, '大木桥路': 2.37, '宜山路': 2.87, '常熟路': 0.77, '延安西路': 2.6, '徐家汇': 1.58, '打浦桥': 2.32, '昌平路': 2.87, '江苏路': 1.9, '淮海中路': 2.36, '肇嘉浜路': 1.1, '虹桥路': 2.52, '衡山路': 0.43, '陕西南路': 1.58, '静安寺': 1.69, '龙华中路': 2.94}</t>
   </si>
   <si>
-    <t>{'上大路': 1.97, '南陈路': 0.95, '祁华路': 1.47}</t>
+    <t>{'上大路': 1.97, '丰翔路': 1.57, '南大路': 2.53, '南陈路': 0.95, '祁华路': 1.47, '锦秋路': 0.68}</t>
   </si>
   <si>
     <t>{'兆丰路': 2.92, '安亭': 1.82, '昌吉东路': 2.08}</t>
   </si>
   <si>
-    <t>{'上海体育场': 0.75, '上海体育馆': 0.56, '上海南站': 2.94, '东安路': 1.83, '云锦路': 2.15, '交通大学': 2.63, '大木桥路': 2.66, '宜山路': 1.6, '徐家汇': 1.86, '桂林公园': 2.47, '桂林路': 2.27, '漕宝路': 1.43, '漕溪路': 0.39, '石龙路': 2.36, '肇嘉浜路': 2.41, '虹桥路': 2.83, '衡山路': 2.86, '龙华': 1.31, '龙华中路': 1.58, '龙漕路': 1.11, '龙耀路': 2.77}</t>
+    <t>{'上海体育场': 0.75, '上海体育馆': 0.56, '上海南站': 2.94, '东安路': 1.83, '云锦路': 2.15, '交通大学': 2.63, '吴中路': 2.79, '大木桥路': 2.66, '宜山路': 1.6, '徐家汇': 1.86, '桂林公园': 2.47, '桂林路': 2.27, '漕宝路': 1.43, '漕溪路': 0.39, '石龙路': 2.36, '肇嘉浜路': 2.41, '虹桥路': 2.83, '衡山路': 2.86, '龙华': 1.31, '龙华中路': 1.58, '龙漕路': 1.11, '龙耀路': 2.77}</t>
   </si>
   <si>
     <t>{'东宝兴路': 2.4, '中兴路': 1.13, '中山北路': 1.04, '中潭路': 1.7, '人民广场': 2.49, '南京东路': 2.84, '南京西路': 2.21, '四川北路': 2.51, '天潼路': 2.42, '宝山路': 1.76, '延长路': 2.46, '新闸路': 1.58, '昌平路': 2.29, '曲阜路': 1.53, '汉中路': 0.86, '江宁路': 1.38, '自然博物馆': 1.52, '西藏北路': 1.85, '镇坪路': 2.7, '长寿路': 2.11}</t>
@@ -1600,7 +1777,7 @@
     <t>{'上海儿童医学中心': 2.64, '世纪公园': 1.21, '世纪大道': 1.97, '北洋泾路': 2.38, '商城路': 2.96, '塘桥': 2.65, '杨高中路': 1.05, '民生路': 1.9, '浦电路(4号线)': 1.24, '浦电路(6号线)': 1.46, '源深体育中心': 1.83, '花木路': 1.94, '芳华路': 2.91, '芳甸路': 1.97, '蓝村路': 1.79, '龙阳路': 2.11}</t>
   </si>
   <si>
-    <t>{'大华三路': 2.44, '岚皋路': 2.12, '新村路': 2.07, '李子园': 1.26, '枫桥路': 2.52, '真如': 1.45, '祁连山路': 2.57}</t>
+    <t>{'古浪路': 2.6, '大华三路': 2.44, '岚皋路': 2.12, '新村路': 2.07, '李子园': 1.26, '枫桥路': 2.52, '梅岭北路': 2.23, '武威东路': 1.71, '真如': 1.45, '祁连山路': 2.57, '铜川路': 1.38}</t>
   </si>
   <si>
     <t>{'嘉定新城': 2.69, '白银路': 2.36}</t>
@@ -1612,6 +1789,9 @@
     <t>{'东明路': 2.89, '临沂新村': 2.72, '北蔡': 1.13, '华鹏路': 1.34, '杨高南路': 1.71, '芳华路': 1.8, '莲溪路': 2.74, '锦绣路': 0.92, '陈春路': 1.74, '高科西路': 2.97}</t>
   </si>
   <si>
+    <t>{'航头': 2.02, '航头东': 2.72, '鹤涛路': 1.96}</t>
+  </si>
+  <si>
     <t>{'世博大道': 1.66, '东安路': 2.65, '中华艺术宫': 1.79, '云台路': 2.48, '南浦大桥': 2.11, '后滩': 2.95, '嘉善路': 2.07, '大木桥路': 1.79, '小南门': 2.68, '打浦桥': 1.57, '新天地': 2.18, '淮海中路': 3.0, '耀华路': 2.45, '老西门': 2.39, '肇嘉浜路': 2.99, '西藏南路': 0.9, '长清路': 2.64, '陆家浜路': 1.64, '陕西南路': 2.92, '马当路': 1.39, '高科西路': 2.99, '鲁班路': 0.64, '黄陂南路': 2.91, '龙华中路': 2.79}</t>
   </si>
   <si>
@@ -1663,7 +1843,7 @@
     <t>{'世博会博物馆': 1.79, '世博大道': 0.93, '东明路': 2.16, '临沂新村': 2.37, '云台路': 0.73, '南浦大桥': 2.65, '后滩': 2.4, '成山路': 1.63, '杨思': 2.69, '杨高南路': 3.0, '耀华路': 0.75, '西藏南路': 1.9, '长清路': 1.32, '高科西路': 1.54, '鲁班路': 2.35}</t>
   </si>
   <si>
-    <t>{'上海图书馆': 2.94, '交通大学': 2.55, '伊犁路': 2.4, '大渡河路': 2.54, '威宁路': 2.73, '娄山关路': 1.35, '宋园路': 2.41, '延安西路': 0.93, '曹杨路': 2.38, '枫桥路': 2.69, '武宁路': 2.3, '江苏路': 1.44, '虹桥路': 2.32, '金沙江路': 1.58, '隆德路': 1.58, '静安寺': 2.95}</t>
+    <t>{'上海图书馆': 2.94, '交通大学': 2.55, '伊犁路': 2.4, '大渡河路': 2.54, '威宁路': 2.73, '娄山关路': 1.35, '宋园路': 2.41, '延安西路': 0.93, '曹杨路': 2.38, '枫桥路': 2.69, '武宁路': 2.3, '江苏路': 1.44, '红宝石路': 2.71, '虹桥路': 2.32, '金沙江路': 1.58, '长风公园': 2.08, '隆德路': 1.58, '静安寺': 2.95}</t>
   </si>
   <si>
     <t>{'上海火车站': 1.04, '上海马戏城': 2.43, '东宝兴路': 2.0, '中兴路': 1.13, '中潭路': 1.8, '四川北路': 2.5, '天潼路': 2.77, '宝山路': 1.82, '延长路': 1.47, '新闸路': 2.43, '曲阜路': 2.19, '汉中路': 1.89, '江宁路': 2.12, '海伦路': 2.8, '自然博物馆': 2.51, '虹口足球场': 2.35, '西藏北路': 1.04, '长寿路': 2.82}</t>
@@ -1681,6 +1861,9 @@
     <t>{'淞虹路': 2.74, '真北路': 2.79, '祁连山南路': 1.28, '金沙江西路': 1.91}</t>
   </si>
   <si>
+    <t>{'上大路': 2.74, '上海大学': 1.57, '南大路': 1.01, '南陈路': 2.25, '古浪路': 2.81, '祁华路': 1.71, '祁安路': 1.89, '锦秋路': 1.33}</t>
+  </si>
+  <si>
     <t>{'东宝兴路': 1.95, '南京东路': 2.96, '同济大学': 2.42, '四川北路': 1.85, '四平路': 1.56, '国际客运中心': 1.22, '大连路': 1.22, '天潼路': 2.57, '宝山路': 2.54, '提篮桥': 1.0, '曲阳路': 1.96, '杨树浦路': 1.86, '江浦公园': 2.22, '江浦路': 2.3, '浦东大道': 2.93, '海伦路': 1.15, '虹口足球场': 2.36, '赤峰路': 2.85, '邮电新村': 1.04, '陆家嘴': 2.53, '鞍山新村': 1.62}</t>
   </si>
   <si>
@@ -1711,18 +1894,21 @@
     <t>{'三门路': 1.79, '同济大学': 1.94, '四平路': 2.86, '国权路': 1.07, '嫩江路': 2.49, '延吉中路': 2.2, '殷高东路': 2.74, '江浦路': 2.59, '江湾体育场': 0.71, '江湾镇': 2.93, '翔殷路': 1.82, '鞍山新村': 2.8, '黄兴公园': 1.81, '黄兴路': 2.51}</t>
   </si>
   <si>
-    <t>{'上海体育场': 2.01, '上海体育馆': 2.17, '上海图书馆': 1.08, '上海游泳馆': 2.63, '东安路': 2.26, '中山公园': 2.55, '嘉善路': 2.42, '大木桥路': 2.82, '宋园路': 2.29, '宜山路': 1.89, '常熟路': 1.82, '延安西路': 1.92, '徐家汇': 0.78, '江苏路': 2.07, '漕溪路': 2.85, '肇嘉浜路': 1.46, '虹桥路': 1.47, '衡山路': 1.09, '陕西南路': 2.66, '静安寺': 2.54, '龙华中路': 2.91}</t>
+    <t>{'上海体育场': 2.01, '上海体育馆': 2.17, '上海图书馆': 1.08, '上海游泳馆': 2.63, '东安路': 2.26, '中山公园': 2.55, '吴中路': 2.69, '嘉善路': 2.42, '大木桥路': 2.82, '姚虹路': 2.96, '宋园路': 2.29, '宜山路': 1.89, '常熟路': 1.82, '延安西路': 1.92, '徐家汇': 0.78, '江苏路': 2.07, '漕溪路': 2.85, '肇嘉浜路': 1.46, '虹桥路': 1.47, '衡山路': 1.09, '陕西南路': 2.66, '静安寺': 2.54, '龙华中路': 2.91}</t>
   </si>
   <si>
     <t>{'上海火车站': 2.49, '中兴路': 2.35, '南京东路': 1.08, '南京西路': 1.48, '四川北路': 2.31, '国际客运中心': 2.92, '大世界': 0.74, '天潼路': 1.41, '宝山路': 2.09, '小南门': 2.83, '新天地': 1.83, '新闸路': 0.91, '曲阜路': 1.11, '汉中路': 1.86, '淮海中路': 1.72, '老西门': 1.74, '自然博物馆': 1.28, '豫园': 1.3, '陆家嘴': 2.65, '陆家浜路': 2.56, '陕西南路': 2.5, '静安寺': 2.95, '马当路': 2.59, '黄陂南路': 1.13}</t>
   </si>
   <si>
-    <t>{'中山公园': 2.4, '威宁路': 2.38, '娄山关路': 1.37, '宋园路': 0.82, '宜山路': 2.6, '延安西路': 1.73, '桂林路': 3.0, '水城路': 1.11, '虹桥路': 1.62, '龙溪路': 2.32}</t>
+    <t>{'中山公园': 2.4, '吴中路': 1.63, '姚虹路': 0.86, '威宁路': 2.38, '娄山关路': 1.37, '宋园路': 0.82, '宜山路': 2.6, '延安西路': 1.73, '桂林路': 3.0, '水城路': 1.11, '红宝石路': 0.53, '虹桥路': 1.62, '龙溪路': 2.32}</t>
   </si>
   <si>
     <t>{'洞泾': 2.18}</t>
   </si>
   <si>
+    <t>{'北桥': 2.86, '双柏路': 2.47, '永德路': 2.84, '颛桥': 2.9}</t>
+  </si>
+  <si>
     <t>{'上海汽车城': 2.92, '安亭': 1.11}</t>
   </si>
   <si>
@@ -1747,13 +1933,13 @@
     <t>{'华夏东路': 2.04, '唐镇': 1.66}</t>
   </si>
   <si>
-    <t>{'东川路': 0.97, '北桥': 2.16, '华宁路': 2.93, '江川路': 2.43, '金平路': 1.8}</t>
-  </si>
-  <si>
-    <t>{'上海动物园': 2.96, '大渡河路': 2.59, '威宁路': 1.27, '娄山关路': 2.92, '水城路': 2.56, '淞虹路': 1.39, '真北路': 1.92, '祁连山南路': 2.45, '龙溪路': 2.51}</t>
-  </si>
-  <si>
-    <t>{'剑川路': 2.16, '颛桥': 2.56}</t>
+    <t>{'东川路': 0.97, '北桥': 2.16, '华宁路': 2.93, '永德路': 2.9, '江川路': 2.43, '金平路': 1.8}</t>
+  </si>
+  <si>
+    <t>{'上海动物园': 2.96, '大渡河路': 2.59, '威宁路': 1.27, '娄山关路': 2.92, '水城路': 2.56, '淞虹路': 1.39, '真北路': 1.92, '祁连山南路': 2.45, '长风公园': 2.38, '龙溪路': 2.51}</t>
+  </si>
+  <si>
+    <t>{'元江路': 2.86, '剑川路': 2.16, '颛桥': 2.56}</t>
   </si>
   <si>
     <t>{'上海科技馆': 2.38, '世纪大道': 2.66, '云山路': 2.31, '德平路': 1.33, '杨高中路': 1.34, '民生路': 0.91, '浦电路(4号线)': 2.69, '源深体育中心': 1.81, '芳甸路': 1.0, '蓝天路': 2.45}</t>
@@ -1762,6 +1948,9 @@
     <t>{'下南路': 1.13, '华夏中路': 3.0, '华鹏路': 2.46, '杨高南路': 2.69, '芳华路': 1.45, '莲溪路': 1.84, '锦绣路': 1.41, '陈春路': 0.81, '龙阳路': 2.66}</t>
   </si>
   <si>
+    <t>{'上海南站': 1.32, '朱梅路': 2.2, '桂林公园': 2.84, '漕宝路': 2.88, '石龙路': 2.16, '罗秀路': 1.4, '莲花路': 2.82, '虹漕路': 2.96, '锦江乐园': 1.43}</t>
+  </si>
+  <si>
     <t>{'创新中路': 2.04, '川沙': 1.97}</t>
   </si>
   <si>
@@ -1774,6 +1963,9 @@
     <t>{'东川路': 2.63, '剑川路': 2.93, '文井路': 1.45, '江川路': 2.7, '金平路': 1.48, '闵行开发区': 2.55}</t>
   </si>
   <si>
+    <t>{'景西路': 2.54, '朱梅路': 1.24, '罗秀路': 2.06, '虹梅南路': 1.25}</t>
+  </si>
+  <si>
     <t>{'下南路': 1.34, '东明路': 1.55, '临沂新村': 2.1, '云台路': 2.57, '北蔡': 2.46, '成山路': 2.95, '杨高南路': 1.26, '芳华路': 2.92, '锦绣路': 1.8, '陈春路': 2.97, '高科西路': 1.91, '高青路': 2.09}</t>
   </si>
   <si>
@@ -1783,10 +1975,16 @@
     <t>{'上海图书馆': 2.85, '上海火车站': 2.21, '中兴路': 2.74, '人民广场': 1.48, '南京东路': 2.52, '大世界': 1.86, '天潼路': 2.64, '宝山路': 2.87, '常熟路': 2.09, '打浦桥': 2.75, '新天地': 2.08, '新闸路': 1.23, '昌平路': 1.71, '曲阜路': 1.77, '武宁路': 2.85, '汉中路': 1.34, '江宁路': 2.16, '江苏路': 2.98, '淮海中路': 1.15, '老西门': 2.57, '自然博物馆': 0.77, '豫园': 2.62, '长寿路': 2.4, '陕西南路': 1.64, '静安寺': 1.51, '马当路': 2.8, '黄陂南路': 1.49}</t>
   </si>
   <si>
+    <t>{'上海大学': 2.53, '丰翔路': 1.01, '古浪路': 1.96, '武威东路': 2.81, '武威路': 2.9, '祁华路': 2.65, '祁安路': 0.96, '锦秋路': 2.35}</t>
+  </si>
+  <si>
     <t>{'上海儿童医学中心': 2.33, '世博会博物馆': 2.11, '中华艺术宫': 2.65, '临沂新村': 2.35, '云台路': 2.92, '商城路': 2.89, '塘桥': 1.81, '大世界': 2.84, '小南门': 0.94, '打浦桥': 2.96, '新天地': 2.49, '老西门': 1.91, '蓝村路': 2.68, '西藏南路': 1.21, '豫园': 2.44, '陆家浜路': 1.34, '马当路': 2.14, '高科西路': 2.71, '鲁班路': 2.56, '黄陂南路': 2.97}</t>
   </si>
   <si>
-    <t>{'上大路': 1.16, '上海大学': 0.95, '场中路': 2.42, '祁华路': 2.4}</t>
+    <t>{'陈翔公路': 1.89}</t>
+  </si>
+  <si>
+    <t>{'上大路': 1.16, '上海大学': 0.95, '丰翔路': 2.25, '场中路': 2.42, '祁华路': 2.4, '锦秋路': 1.63}</t>
   </si>
   <si>
     <t>{'东陆路': 2.23, '云山路': 1.97, '五莲路': 0.95, '台儿庄路': 1.57, '巨峰路': 1.92, '德平路': 2.94, '杨高北路': 2.41, '蓝天路': 2.64, '金桥': 2.36, '金桥路': 0.85}</t>
@@ -1798,6 +1996,15 @@
     <t>{'宝杨路': 1.03, '水产路': 2.78, '铁力路': 1.48}</t>
   </si>
   <si>
+    <t>{'元江路': 2.47, '景西路': 1.86, '曙建路': 0.9, '虹梅南路': 2.54, '颛桥': 2.61}</t>
+  </si>
+  <si>
+    <t>{'国帆路': 2.92, '高桥': 2.24, '高桥西': 0.96}</t>
+  </si>
+  <si>
+    <t>{'上海西站': 2.6, '丰翔路': 2.81, '南大路': 1.96, '场中路': 2.92, '大场镇': 2.49, '李子园': 1.77, '武威东路': 1.02, '武威路': 2.78, '祁安路': 1.02, '祁连山路': 2.13, '行知路': 2.78}</t>
+  </si>
+  <si>
     <t>{'云山路': 2.36, '五莲路': 2.32, '博兴路': 1.57, '蓝天路': 2.27, '金桥': 1.59, '金桥路': 1.56}</t>
   </si>
   <si>
@@ -1810,6 +2017,12 @@
     <t>{'世博会博物馆': 2.95, '世博大道': 1.57, '东安路': 2.76, '东方体育中心': 2.15, '中华艺术宫': 2.4, '云台路': 2.78, '云锦路': 1.57, '大木桥路': 2.66, '成山路': 2.14, '杨思': 2.23, '耀华路': 2.12, '长清路': 1.36, '龙华': 1.98, '龙华中路': 2.07, '龙漕路': 2.81, '龙耀路': 1.9}</t>
   </si>
   <si>
+    <t>{'上海体育场': 2.86, '上海体育馆': 2.32, '上海游泳馆': 2.79, '交通大学': 2.69, '伊犁路': 1.63, '姚虹路': 0.83, '娄山关路': 2.86, '宋园路': 1.09, '宜山路': 1.31, '延安西路': 2.56, '徐家汇': 2.42, '桂林公园': 2.28, '桂林路': 1.4, '水城路': 2.46, '漕宝路': 2.78, '漕河泾开发区': 2.33, '漕溪路': 2.62, '红宝石路': 1.96, '虹桥路': 1.39, '虹漕路': 2.54}</t>
+  </si>
+  <si>
+    <t>{'康桥': 2.34, '沈梅路': 2.72, '繁荣路': 1.25}</t>
+  </si>
+  <si>
     <t>{'康新公路': 2.47}</t>
   </si>
   <si>
@@ -1843,13 +2056,19 @@
     <t>{'东宝兴路': 2.62, '临平路': 1.56, '五角场': 2.86, '同济大学': 0.93, '国权路': 1.79, '国际客运中心': 2.77, '大柏树': 2.37, '大连路': 2.18, '提篮桥': 2.43, '曲阳路': 1.0, '杨树浦路': 2.96, '江浦公园': 2.4, '江浦路': 1.61, '海伦路': 2.12, '虹口足球场': 2.16, '赤峰路': 1.94, '邮电新村': 0.98, '鞍山新村': 0.8, '黄兴路': 2.59}</t>
   </si>
   <si>
+    <t>{'三门路': 2.99, '双江路': 2.92, '市光路': 2.6, '张华浜': 2.46, '新江湾城': 1.39, '殷高东路': 2.09, '淞发路': 1.36, '长江南路': 2.24}</t>
+  </si>
+  <si>
     <t>{'三门路': 2.67, '五角场': 1.07, '同济大学': 0.87, '四平路': 1.79, '大柏树': 2.55, '延吉中路': 2.37, '曲阳路': 2.29, '江浦路': 1.78, '江湾体育场': 1.7, '江湾镇': 2.98, '翔殷路': 2.72, '赤峰路': 2.77, '邮电新村': 2.75, '鞍山新村': 1.78, '黄兴公园': 2.32, '黄兴路': 2.1}</t>
   </si>
   <si>
     <t>{'东宝兴路': 2.02, '东昌路': 2.5, '中兴路': 2.79, '临平路': 1.22, '人民广场': 2.92, '南京东路': 1.86, '商城路': 2.8, '四川北路': 1.34, '四平路': 2.77, '大连路': 1.66, '天潼路': 1.65, '宝山路': 2.08, '提篮桥': 0.9, '曲阜路': 2.68, '杨树浦路': 1.82, '江浦公园': 2.91, '浦东大道': 2.31, '海伦路': 1.36, '虹口足球场': 2.97, '豫园': 2.69, '邮电新村': 2.07, '陆家嘴': 1.39, '鞍山新村': 2.79}</t>
   </si>
   <si>
-    <t>{'上大路': 1.35, '南陈路': 2.42, '大场镇': 1.18, '行知路': 2.21}</t>
+    <t>{'上大路': 1.35, '南陈路': 2.42, '古浪路': 2.92, '大场镇': 1.18, '行知路': 2.21}</t>
+  </si>
+  <si>
+    <t>{'外高桥保税区北': 0.51, '港城路': 1.5, '航津路': 1.8, '高桥': 2.61}</t>
   </si>
   <si>
     <t>{'上海儿童医学中心': 0.85, '上海科技馆': 2.65, '世纪大道': 2.25, '东昌路': 2.63, '临沂新村': 1.85, '南浦大桥': 1.81, '商城路': 2.29, '小南门': 2.09, '杨高南路': 2.54, '浦电路(4号线)': 1.89, '浦电路(6号线)': 1.52, '源深体育中心': 3.0, '蓝村路': 0.88, '西藏南路': 2.9, '高科西路': 2.8}</t>
@@ -1861,7 +2080,7 @@
     <t>{'春申路': 2.61, '莘庄': 1.31, '莲花路': 1.46, '虹莘路': 2.2, '顾戴路': 2.23}</t>
   </si>
   <si>
-    <t>{'港城路': 1.29, '航津路': 1.54}</t>
+    <t>{'基隆路': 0.51, '港城路': 1.29, '航津路': 1.54, '高桥': 2.34}</t>
   </si>
   <si>
     <t>{'五洲大道': 2.44, '洲海路': 1.58, '航津路': 1.71}</t>
@@ -1873,7 +2092,7 @@
     <t>{'上海西站': 2.44, '上海马戏城': 2.84, '中潭路': 2.76, '大场镇': 2.23, '岚皋路': 1.99, '新村路': 1.12, '真如': 2.99, '行知路': 1.22}</t>
   </si>
   <si>
-    <t>{'上大路': 2.53, '场中路': 1.18, '大华三路': 2.23, '行知路': 1.04}</t>
+    <t>{'上大路': 2.53, '古浪路': 2.49, '场中路': 1.18, '大华三路': 2.23, '行知路': 1.04}</t>
   </si>
   <si>
     <t>{'上海体育场': 2.1, '上海体育馆': 2.76, '上海图书馆': 2.37, '上海游泳馆': 2.66, '世博会博物馆': 1.79, '世博大道': 2.36, '东安路': 0.87, '交通大学': 2.82, '后滩': 2.66, '嘉善路': 1.0, '常熟路': 2.55, '徐家汇': 2.52, '打浦桥': 1.46, '新天地': 2.73, '淮海中路': 2.92, '肇嘉浜路': 1.38, '衡山路': 1.98, '西藏南路': 2.65, '陆家浜路': 2.93, '陕西南路': 2.38, '马当路': 2.17, '鲁班路': 1.27, '龙华': 2.57, '龙华中路': 1.28}</t>
@@ -1882,7 +2101,7 @@
     <t>{'同济大学': 2.35, '四平路': 2.37, '国权路': 2.55, '曲阳路': 1.62, '江湾镇': 1.8, '虹口足球场': 2.04, '赤峰路': 0.91, '邮电新村': 2.55}</t>
   </si>
   <si>
-    <t>{'中山公园': 2.54, '北新泾': 2.59, '威宁路': 2.0, '娄山关路': 2.47, '曹杨路': 2.37, '枫桥路': 1.97, '真北路': 1.19, '真如': 2.44, '祁连山南路': 2.66, '金沙江路': 1.78, '隆德路': 2.77}</t>
+    <t>{'中山公园': 2.54, '北新泾': 2.59, '威宁路': 2.0, '娄山关路': 2.47, '曹杨路': 2.37, '枫桥路': 1.97, '梅岭北路': 1.27, '真北路': 1.19, '真如': 2.44, '祁连山南路': 2.66, '金沙江路': 1.78, '铜川路': 2.13, '长风公园': 0.63, '隆德路': 2.77}</t>
   </si>
   <si>
     <t>{'东昌路': 2.75, '临平路': 1.22, '同济大学': 2.76, '四川北路': 2.82, '四平路': 2.18, '国际客运中心': 1.66, '宁国路': 2.18, '提篮桥': 0.77, '曲阳路': 2.94, '杨树浦路': 0.77, '江浦公园': 1.25, '江浦路': 1.96, '浦东大道': 2.09, '海伦路': 2.32, '邮电新村': 2.13, '陆家嘴': 2.42, '鞍山新村': 1.73, '黄兴路': 2.74}</t>
@@ -1897,10 +2116,13 @@
     <t>{'望园路': 2.34, '金海湖': 1.69}</t>
   </si>
   <si>
-    <t>{'中山公园': 2.73, '伊犁路': 2.38, '北新泾': 1.27, '大渡河路': 2.0, '娄山关路': 1.65, '延安西路': 2.89, '水城路': 1.78, '淞虹路': 2.66, '真北路': 2.0, '龙溪路': 2.38}</t>
-  </si>
-  <si>
-    <t>{'中山公园': 1.35, '伊犁路': 1.37, '北新泾': 2.92, '大渡河路': 2.47, '威宁路': 1.65, '宋园路': 1.8, '延安西路': 1.25, '水城路': 1.72, '江苏路': 2.73, '虹桥路': 2.2, '金沙江路': 2.47, '隆德路': 2.84, '龙溪路': 2.95}</t>
+    <t>{'交通大学': 2.96, '伊犁路': 0.86, '吴中路': 0.83, '娄山关路': 2.2, '宋园路': 0.76, '宜山路': 2.02, '延安西路': 2.24, '徐家汇': 2.9, '桂林公园': 3.0, '桂林路': 2.15, '水城路': 1.63, '漕河泾开发区': 2.47, '红宝石路': 1.12, '虹桥路': 1.5, '龙溪路': 2.56}</t>
+  </si>
+  <si>
+    <t>{'中山公园': 2.73, '伊犁路': 2.38, '北新泾': 1.27, '大渡河路': 2.0, '娄山关路': 1.65, '延安西路': 2.89, '水城路': 1.78, '淞虹路': 2.66, '真北路': 2.0, '红宝石路': 2.08, '长风公园': 1.52, '龙溪路': 2.38}</t>
+  </si>
+  <si>
+    <t>{'中山公园': 1.35, '伊犁路': 1.37, '北新泾': 2.92, '吴中路': 2.86, '大渡河路': 2.47, '姚虹路': 2.2, '威宁路': 1.65, '宋园路': 1.8, '延安西路': 1.25, '水城路': 1.72, '江苏路': 2.73, '红宝石路': 1.49, '虹桥路': 2.2, '金沙江路': 2.47, '长风公园': 1.84, '隆德路': 2.84, '龙溪路': 2.95}</t>
   </si>
   <si>
     <t>{'三门路': 2.25, '五角场': 2.49, '市光路': 0.88, '延吉中路': 2.93, '新江湾城': 2.82, '殷高东路': 2.51, '江湾体育场': 2.12, '翔殷路': 1.09, '黄兴公园': 2.16}</t>
@@ -1915,10 +2137,10 @@
     <t>{'上海汽车城': 1.82, '兆丰路': 1.11}</t>
   </si>
   <si>
-    <t>{'上海体育馆': 2.85, '中山公园': 2.41, '交通大学': 2.29, '伊犁路': 0.82, '娄山关路': 1.8, '宜山路': 1.81, '延安西路': 1.53, '徐家汇': 2.36, '桂林路': 2.48, '水城路': 1.91, '虹桥路': 0.84}</t>
-  </si>
-  <si>
-    <t>{'上海体育场': 1.56, '上海体育馆': 1.07, '上海图书馆': 2.87, '上海游泳馆': 1.6, '东安路': 2.67, '交通大学': 1.89, '伊犁路': 2.6, '宋园路': 1.81, '延安西路': 2.72, '徐家汇': 1.33, '桂林公园': 2.31, '桂林路': 1.59, '漕宝路': 2.12, '漕溪路': 1.54, '肇嘉浜路': 2.61, '虹桥路': 1.35, '虹漕路': 2.98, '衡山路': 2.7, '龙华': 2.91, '龙华中路': 2.86, '龙漕路': 2.52}</t>
+    <t>{'上海体育馆': 2.85, '中山公园': 2.41, '交通大学': 2.29, '伊犁路': 0.82, '吴中路': 1.09, '姚虹路': 0.76, '娄山关路': 1.8, '宜山路': 1.81, '延安西路': 1.53, '徐家汇': 2.36, '桂林路': 2.48, '水城路': 1.91, '红宝石路': 1.33, '虹桥路': 0.84}</t>
+  </si>
+  <si>
+    <t>{'上海体育场': 1.56, '上海体育馆': 1.07, '上海图书馆': 2.87, '上海游泳馆': 1.6, '东安路': 2.67, '交通大学': 1.89, '伊犁路': 2.6, '吴中路': 1.31, '姚虹路': 2.02, '宋园路': 1.81, '延安西路': 2.72, '徐家汇': 1.33, '桂林公园': 2.31, '桂林路': 1.59, '漕宝路': 2.12, '漕溪路': 1.54, '肇嘉浜路': 2.61, '虹桥路': 1.35, '虹漕路': 2.98, '衡山路': 2.7, '龙华': 2.91, '龙华中路': 2.86, '龙漕路': 2.52}</t>
   </si>
   <si>
     <t>{'共富新村': 1.64, '友谊西路': 1.34, '富锦路': 2.59}</t>
@@ -1936,7 +2158,7 @@
     <t>{'上海儿童医学中心': 2.82, '世博会博物馆': 2.68, '东昌路': 2.45, '人民广场': 2.83, '南京东路': 2.7, '南浦大桥': 0.94, '商城路': 2.26, '塘桥': 2.09, '大世界': 2.15, '新天地': 2.21, '浦电路(6号线)': 2.94, '老西门': 1.41, '蓝村路': 2.84, '西藏南路': 1.86, '豫园': 1.6, '陆家嘴': 2.4, '陆家浜路': 1.3, '马当路': 2.17, '鲁班路': 2.96, '黄陂南路': 2.47}</t>
   </si>
   <si>
-    <t>{'上海西站': 2.12, '中潭路': 1.82, '大华三路': 1.99, '新村路': 0.87, '曹杨路': 1.92, '枫桥路': 1.88, '武宁路': 2.56, '江宁路': 2.55, '真如': 1.52, '金沙江路': 2.82, '镇坪路': 1.32, '长寿路': 2.31, '隆德路': 2.86}</t>
+    <t>{'上海西站': 2.12, '中潭路': 1.82, '大华三路': 1.99, '新村路': 0.87, '曹杨路': 1.92, '枫桥路': 1.88, '梅岭北路': 2.79, '武宁路': 2.56, '江宁路': 2.55, '真如': 1.52, '金沙江路': 2.82, '铜川路': 2.44, '镇坪路': 1.32, '长寿路': 2.31, '隆德路': 2.86}</t>
   </si>
   <si>
     <t>{'凌空路': 2.55, '华夏东路': 1.97}</t>
@@ -1945,7 +2167,7 @@
     <t>{'东陆路': 0.9, '东靖路': 1.11, '五洲大道': 2.43, '五莲路': 0.96, '博兴路': 1.92, '复兴岛': 2.57, '杨高北路': 1.39, '金京路': 2.58, '金桥路': 2.7}</t>
   </si>
   <si>
-    <t>{'三门路': 2.48, '嫩江路': 0.88, '新江湾城': 2.46, '殷高东路': 2.39, '江湾体育场': 2.71, '翔殷路': 1.97}</t>
+    <t>{'三门路': 2.48, '国帆路': 2.6, '嫩江路': 0.88, '新江湾城': 2.46, '殷高东路': 2.39, '江湾体育场': 2.71, '翔殷路': 1.97}</t>
   </si>
   <si>
     <t>{'上海图书馆': 0.77, '东安路': 2.58, '交通大学': 1.82, '南京西路': 2.09, '嘉善路': 1.62, '大木桥路': 2.55, '徐家汇': 2.34, '打浦桥': 2.02, '新天地': 2.5, '昌平路': 2.33, '武宁路': 2.92, '江苏路': 1.92, '淮海中路': 1.64, '肇嘉浜路': 1.57, '自然博物馆': 2.84, '衡山路': 1.03, '陕西南路': 0.93, '静安寺': 1.1, '马当路': 2.71, '鲁班路': 2.94, '黄陂南路': 2.52}</t>
@@ -1957,16 +2179,19 @@
     <t>{'周浦东': 2.47, '秀沿路': 1.98}</t>
   </si>
   <si>
+    <t>{'周浦': 2.34, '御桥': 2.65, '秀沿路': 2.98}</t>
+  </si>
+  <si>
     <t>{'五角场': 2.2, '同济大学': 2.81, '国权路': 2.37, '复兴岛': 2.65, '嫩江路': 2.93, '宁国路': 2.23, '江浦公园': 2.87, '江浦路': 2.18, '江湾体育场': 2.7, '爱国路': 1.94, '翔殷路': 1.85, '隆昌路': 1.75, '鞍山新村': 2.94, '黄兴公园': 0.78, '黄兴路': 1.25}</t>
   </si>
   <si>
-    <t>{'上海图书馆': 2.6, '中山公园': 0.93, '交通大学': 1.92, '伊犁路': 1.73, '威宁路': 2.89, '娄山关路': 1.25, '宋园路': 1.53, '宜山路': 2.72, '徐家汇': 2.46, '水城路': 2.61, '江苏路': 1.76, '虹桥路': 1.39, '衡山路': 2.85, '金沙江路': 2.52, '隆德路': 2.4}</t>
+    <t>{'上海图书馆': 2.6, '中山公园': 0.93, '交通大学': 1.92, '伊犁路': 1.73, '吴中路': 2.56, '姚虹路': 2.24, '威宁路': 2.89, '娄山关路': 1.25, '宋园路': 1.53, '宜山路': 2.72, '徐家汇': 2.46, '水城路': 2.61, '江苏路': 1.76, '红宝石路': 2.16, '虹桥路': 1.39, '衡山路': 2.85, '金沙江路': 2.52, '长风公园': 2.71, '隆德路': 2.4}</t>
   </si>
   <si>
     <t>{'上海火车站': 2.46, '上海马戏城': 0.97, '东宝兴路': 2.7, '中兴路': 2.43, '中山北路': 1.47, '中潭路': 2.34, '宝山路': 3.0, '汶水路': 2.37, '虹口足球场': 2.26, '西藏北路': 1.57, '赤峰路': 2.79}</t>
   </si>
   <si>
-    <t>{'水产路': 2.77, '淞发路': 1.44, '淞滨路': 1.54, '长江南路': 2.97}</t>
+    <t>{'国帆路': 2.46, '水产路': 2.77, '淞发路': 1.44, '淞滨路': 1.54, '长江南路': 2.97}</t>
   </si>
   <si>
     <t>{'中科路': 2.79, '学林路': 1.54, '广兰路': 2.56}</t>
@@ -1978,7 +2203,7 @@
     <t>{'上海马戏城': 2.99, '共康路': 1.38, '汶水路': 1.57, '通河新村': 2.81}</t>
   </si>
   <si>
-    <t>{'上海体育场': 1.26, '上海体育馆': 1.39, '上海图书馆': 1.58, '上海游泳馆': 1.86, '东安路': 1.79, '交通大学': 0.78, '嘉善路': 2.42, '大木桥路': 2.52, '宋园路': 2.36, '宜山路': 1.33, '常熟路': 2.34, '延安西路': 2.46, '桂林路': 2.9, '江苏路': 2.85, '漕溪路': 2.07, '肇嘉浜路': 1.35, '虹桥路': 1.54, '衡山路': 1.37, '龙华': 2.95, '龙华中路': 2.31, '龙漕路': 2.97}</t>
+    <t>{'上海体育场': 1.26, '上海体育馆': 1.39, '上海图书馆': 1.58, '上海游泳馆': 1.86, '东安路': 1.79, '交通大学': 0.78, '吴中路': 2.42, '嘉善路': 2.42, '大木桥路': 2.52, '姚虹路': 2.9, '宋园路': 2.36, '宜山路': 1.33, '常熟路': 2.34, '延安西路': 2.46, '桂林路': 2.9, '江苏路': 2.85, '漕溪路': 2.07, '肇嘉浜路': 1.35, '虹桥路': 1.54, '衡山路': 1.37, '龙华': 2.95, '龙华中路': 2.31, '龙漕路': 2.97}</t>
   </si>
   <si>
     <t>{'虹桥2号航站楼': 2.66, '虹桥火车站': 1.98, '蟠龙路': 1.97, '诸光路': 0.69}</t>
@@ -1990,7 +2215,7 @@
     <t>{'徐泾北城': 1.21, '蟠龙路': 2.52}</t>
   </si>
   <si>
-    <t>{'华夏中路': 2.28, '罗山路': 2.18, '莲溪路': 1.29, '陈春路': 2.24}</t>
+    <t>{'华夏中路': 2.28, '康桥': 2.65, '罗山路': 2.18, '莲溪路': 1.29, '陈春路': 2.24}</t>
   </si>
   <si>
     <t>{'云山路': 0.98, '北洋泾路': 1.33, '博兴路': 2.94, '杨高中路': 2.48, '民生路': 2.24, '芳甸路': 1.61, '蓝天路': 1.39, '金桥路': 2.12}</t>
@@ -2011,10 +2236,10 @@
     <t>{'世博会博物馆': 2.18, '人民广场': 1.83, '南京东路': 2.58, '南京西路': 2.08, '南浦大桥': 2.49, '嘉善路': 2.04, '大世界': 1.27, '大木桥路': 2.73, '小南门': 2.21, '常熟路': 2.5, '打浦桥': 1.28, '新闸路': 2.54, '曲阜路': 2.91, '淮海中路': 1.1, '老西门': 0.87, '自然博物馆': 2.54, '西藏南路': 2.11, '豫园': 1.73, '陆家浜路': 1.16, '陕西南路': 1.57, '静安寺': 2.85, '马当路': 0.79, '鲁班路': 1.91, '黄陂南路': 0.73}</t>
   </si>
   <si>
-    <t>{'上海西站': 2.07, '中潭路': 2.03, '大华三路': 1.12, '岚皋路': 0.87, '曹杨路': 2.78, '枫桥路': 2.68, '真如': 2.08, '行知路': 2.34, '镇坪路': 2.07, '长寿路': 2.96}</t>
-  </si>
-  <si>
-    <t>{'三门路': 1.7, '嫩江路': 2.82, '市光路': 2.46, '殷高东路': 0.75, '殷高西路': 2.3, '江湾体育场': 2.76, '淞发路': 1.95, '长江南路': 1.52}</t>
+    <t>{'上海西站': 2.07, '中潭路': 2.03, '大华三路': 1.12, '岚皋路': 0.87, '曹杨路': 2.78, '枫桥路': 2.68, '真如': 2.08, '行知路': 2.34, '铜川路': 2.84, '镇坪路': 2.07, '长寿路': 2.96}</t>
+  </si>
+  <si>
+    <t>{'三门路': 1.7, '国帆路': 1.39, '嫩江路': 2.82, '市光路': 2.46, '殷高东路': 0.75, '殷高西路': 2.3, '江湾体育场': 2.76, '淞发路': 1.95, '长江南路': 1.52}</t>
   </si>
   <si>
     <t>{'上海火车站': 1.58, '东宝兴路': 2.65, '中兴路': 1.65, '中山北路': 2.43, '人民广场': 0.91, '南京东路': 1.57, '南京西路': 1.23, '四川北路': 2.15, '大世界': 1.64, '天潼路': 1.49, '宝山路': 1.65, '新天地': 2.54, '昌平路': 2.48, '曲阜路': 0.54, '汉中路': 0.98, '江宁路': 2.31, '淮海中路': 2.04, '老西门': 2.62, '自然博物馆': 0.59, '西藏北路': 2.8, '豫园': 2.18, '长寿路': 2.85, '陕西南路': 2.73, '静安寺': 2.69, '黄陂南路': 1.81}</t>
@@ -2032,13 +2257,19 @@
     <t>{'外环路': 2.61, '莘庄': 1.44, '银都路': 1.08}</t>
   </si>
   <si>
+    <t>{'华泾西': 2.54, '双柏路': 1.86, '曙建路': 1.02, '虹梅南路': 1.43, '银都路': 2.95}</t>
+  </si>
+  <si>
+    <t>{'双柏路': 0.9, '景西路': 1.02, '虹梅南路': 2.06, '银都路': 2.64}</t>
+  </si>
+  <si>
     <t>{'上海火车站': 1.53, '东宝兴路': 2.12, '中兴路': 1.24, '中山北路': 2.19, '人民广场': 1.11, '南京东路': 1.33, '南京西路': 1.77, '四川北路': 1.62, '国际客运中心': 2.68, '大世界': 1.84, '天潼路': 1.05, '宝山路': 1.12, '新天地': 2.91, '新闸路': 0.54, '昌平路': 2.91, '汉中路': 1.22, '江宁路': 2.55, '海伦路': 2.5, '淮海中路': 2.54, '老西门': 2.84, '自然博物馆': 1.09, '西藏北路': 2.37, '豫园': 2.21, '陆家嘴': 2.96, '黄陂南路': 2.18}</t>
   </si>
   <si>
     <t>{'东宝兴路': 2.12, '临平路': 1.96, '同济大学': 1.57, '四川北路': 2.8, '四平路': 1.0, '国权路': 2.29, '大柏树': 1.62, '大连路': 2.94, '提篮桥': 2.96, '江浦路': 2.59, '海伦路': 1.93, '虹口足球场': 1.27, '西藏北路': 2.57, '赤峰路': 0.98, '邮电新村': 0.94, '鞍山新村': 1.8}</t>
   </si>
   <si>
-    <t>{'中山公园': 2.38, '中潭路': 2.79, '大渡河路': 2.37, '岚皋路': 1.92, '新村路': 2.78, '昌平路': 2.45, '枫桥路': 0.66, '武宁路': 1.34, '江宁路': 2.64, '江苏路': 2.43, '真如': 1.62, '金沙江路': 0.92, '镇坪路': 1.39, '长寿路': 1.96, '隆德路': 1.13}</t>
+    <t>{'中山公园': 2.38, '中潭路': 2.79, '大渡河路': 2.37, '岚皋路': 1.92, '新村路': 2.78, '昌平路': 2.45, '枫桥路': 0.66, '梅岭北路': 2.01, '武宁路': 1.34, '江宁路': 2.64, '江苏路': 2.43, '真如': 1.62, '金沙江路': 0.92, '铜川路': 2.34, '镇坪路': 1.39, '长寿路': 1.96, '长风公园': 2.51, '隆德路': 1.13}</t>
   </si>
   <si>
     <t>{'民雷路': 1.46, '顾唐路': 2.59}</t>
@@ -2050,7 +2281,10 @@
     <t>{'东方绿舟': 2.81}</t>
   </si>
   <si>
-    <t>{'上海西站': 1.26, '武威路': 2.55, '真如': 2.61, '祁连山路': 1.36}</t>
+    <t>{'华东理工大学': 2.2, '华泾西': 1.24, '罗秀路': 0.82, '虹梅南路': 2.31, '锦江乐园': 3.0}</t>
+  </si>
+  <si>
+    <t>{'上海西站': 1.26, '古浪路': 1.77, '梅岭北路': 2.97, '武威东路': 0.75, '武威路': 2.55, '真如': 2.61, '祁安路': 2.55, '祁连山路': 1.36, '铜川路': 2.14}</t>
   </si>
   <si>
     <t>{'三林': 2.63, '上南路': 1.8, '世博大道': 2.57, '东方体育中心': 1.51, '东明路': 2.1, '中华艺术宫': 2.69, '云台路': 2.45, '凌兆新村': 2.23, '华夏西路': 2.36, '后滩': 2.23, '成山路': 1.11, '灵岩南路': 1.39, '耀华路': 1.94, '长清路': 1.58, '高青路': 2.13}</t>
@@ -2080,25 +2314,31 @@
     <t>{'松江体育中心': 1.59, '松江大学城': 2.64}</t>
   </si>
   <si>
-    <t>{'上海西站': 2.52, '中山公园': 2.69, '大渡河路': 1.97, '岚皋路': 1.88, '新村路': 2.68, '曹杨路': 0.66, '武宁路': 2.0, '江苏路': 3.0, '真北路': 3.0, '真如': 1.07, '金沙江路': 1.11, '镇坪路': 1.82, '长寿路': 2.56, '隆德路': 1.71}</t>
-  </si>
-  <si>
-    <t>{'上海体育馆': 2.44, '上海南站': 1.7, '上海游泳馆': 2.47, '东兰路': 2.92, '宜山路': 2.31, '桂林路': 0.88, '漕宝路': 1.29, '漕河泾开发区': 2.12, '漕溪路': 2.09, '石龙路': 2.46, '虹梅路': 2.26, '虹漕路': 0.93, '锦江乐园': 2.8, '龙漕路': 2.37}</t>
-  </si>
-  <si>
-    <t>{'上海体育场': 2.7, '上海体育馆': 2.05, '上海南站': 2.52, '上海游泳馆': 2.27, '伊犁路': 3.0, '宋园路': 2.48, '宜山路': 1.59, '徐家汇': 2.9, '桂林公园': 0.88, '漕宝路': 1.6, '漕河泾开发区': 1.99, '漕溪路': 1.95, '虹桥路': 2.54, '虹梅路': 2.55, '虹漕路': 1.39, '龙漕路': 2.57}</t>
+    <t>{'上海西站': 2.52, '中山公园': 2.69, '大渡河路': 1.97, '岚皋路': 1.88, '新村路': 2.68, '曹杨路': 0.66, '梅岭北路': 1.38, '武宁路': 2.0, '江苏路': 3.0, '真北路': 3.0, '真如': 1.07, '金沙江路': 1.11, '铜川路': 1.68, '镇坪路': 1.82, '长寿路': 2.56, '长风公园': 2.26, '隆德路': 1.71}</t>
+  </si>
+  <si>
+    <t>{'上海体育馆': 2.44, '上海南站': 1.7, '上海游泳馆': 2.47, '东兰路': 2.92, '华东理工大学': 2.84, '吴中路': 2.28, '姚虹路': 3.0, '宜山路': 2.31, '桂林路': 0.88, '漕宝路': 1.29, '漕河泾开发区': 2.12, '漕溪路': 2.09, '石龙路': 2.46, '虹梅路': 2.26, '虹漕路': 0.93, '锦江乐园': 2.8, '龙漕路': 2.37}</t>
+  </si>
+  <si>
+    <t>{'上海体育场': 2.7, '上海体育馆': 2.05, '上海南站': 2.52, '上海游泳馆': 2.27, '伊犁路': 3.0, '吴中路': 1.4, '姚虹路': 2.15, '宋园路': 2.48, '宜山路': 1.59, '徐家汇': 2.9, '桂林公园': 0.88, '漕宝路': 1.6, '漕河泾开发区': 1.99, '漕溪路': 1.95, '虹桥路': 2.54, '虹梅路': 2.55, '虹漕路': 1.39, '龙漕路': 2.57}</t>
   </si>
   <si>
     <t>{'武威路': 1.53, '祁连山路': 2.74}</t>
   </si>
   <si>
-    <t>{'李子园': 2.55, '桃浦新村': 1.53, '祁连山路': 1.21}</t>
+    <t>{'上海西站': 2.23, '大渡河路': 1.27, '岚皋路': 2.79, '曹杨路': 2.01, '李子园': 2.97, '枫桥路': 1.38, '真北路': 1.86, '真如': 1.31, '祁连山南路': 2.88, '金沙江路': 1.96, '铜川路': 0.87, '长风公园': 1.86, '隆德路': 2.88}</t>
+  </si>
+  <si>
+    <t>{'上海西站': 1.71, '南大路': 2.81, '古浪路': 1.02, '李子园': 0.75, '武威路': 2.53, '祁安路': 1.86, '祁连山路': 1.52, '铜川路': 2.83}</t>
+  </si>
+  <si>
+    <t>{'南大路': 2.9, '古浪路': 2.78, '李子园': 2.55, '桃浦新村': 1.53, '武威东路': 2.53, '祁安路': 2.53, '祁连山路': 1.21}</t>
   </si>
   <si>
     <t>{'中山公园': 2.3, '中潭路': 2.46, '南京西路': 2.85, '岚皋路': 2.56, '常熟路': 2.92, '昌平路': 1.15, '曹杨路': 1.34, '枫桥路': 2.0, '汉中路': 2.81, '江宁路': 1.75, '江苏路': 1.55, '真如': 2.87, '金沙江路': 1.67, '镇坪路': 1.34, '长寿路': 1.03, '隆德路': 0.78, '静安寺': 1.95}</t>
   </si>
   <si>
-    <t>{'三门路': 0.96, '五角场': 2.74, '嫩江路': 2.51, '市光路': 2.39, '新江湾城': 0.75, '殷高西路': 2.09, '江湾体育场': 2.04, '江湾镇': 2.74, '淞发路': 2.67, '长江南路': 1.85}</t>
+    <t>{'三门路': 0.96, '五角场': 2.74, '国帆路': 2.09, '嫩江路': 2.51, '市光路': 2.39, '新江湾城': 0.75, '殷高西路': 2.09, '江湾体育场': 2.04, '江湾镇': 2.74, '淞发路': 2.67, '长江南路': 1.85}</t>
   </si>
   <si>
     <t>{'三门路': 2.36, '新江湾城': 2.3, '殷高东路': 2.09, '江湾镇': 1.61, '长江南路': 1.48}</t>
@@ -2113,7 +2353,10 @@
     <t>{'友谊路': 2.78, '宝杨路': 1.76, '张华浜': 2.77, '淞滨路': 1.23}</t>
   </si>
   <si>
-    <t>{'上海动物园': 2.51, '伊犁路': 1.11, '北新泾': 2.56, '威宁路': 1.78, '娄山关路': 1.72, '宋园路': 1.91, '延安西路': 2.61, '虹桥路': 2.72, '龙溪路': 1.29}</t>
+    <t>{'上海动物园': 2.51, '伊犁路': 1.11, '北新泾': 2.56, '吴中路': 2.46, '姚虹路': 1.63, '威宁路': 1.78, '娄山关路': 1.72, '宋园路': 1.91, '延安西路': 2.61, '红宝石路': 0.59, '虹桥路': 2.72, '长风公园': 3.0, '龙溪路': 1.29}</t>
+  </si>
+  <si>
+    <t>{'元江路': 2.84, '剑川路': 2.9, '紫竹高新区': 1.88}</t>
   </si>
   <si>
     <t>{'东城一路': 0.92, '浦航路': 1.84, '闵瑞路': 2.58}</t>
@@ -2158,6 +2401,9 @@
     <t>{'三鲁公路': 1.56, '江月路': 2.56, '浦航路': 2.86, '联航路': 1.36, '闵瑞路': 2.28}</t>
   </si>
   <si>
+    <t>{'周浦': 2.72, '繁荣路': 1.53, '鹤涛路': 2.25}</t>
+  </si>
+  <si>
     <t>{'佘山': 2.18}</t>
   </si>
   <si>
@@ -2191,7 +2437,7 @@
     <t>{'浦东国际机场': 2.12}</t>
   </si>
   <si>
-    <t>{'张华浜': 1.44, '新江湾城': 1.95, '殷高东路': 2.67, '淞滨路': 2.96, '长江南路': 1.68}</t>
+    <t>{'国帆路': 1.36, '张华浜': 1.44, '新江湾城': 1.95, '殷高东路': 2.67, '淞滨路': 2.96, '长江南路': 1.68}</t>
   </si>
   <si>
     <t>{'宝杨路': 2.99, '张华浜': 1.54, '水产路': 1.23, '淞发路': 2.96}</t>
@@ -2203,7 +2449,7 @@
     <t>{'上海图书馆': 2.36, '世博会博物馆': 3.0, '人民广场': 1.72, '南京东路': 2.75, '南京西路': 1.15, '嘉善路': 1.97, '大世界': 1.6, '大木桥路': 2.92, '常熟路': 1.64, '打浦桥': 1.6, '新天地': 1.1, '新闸路': 2.04, '昌平路': 2.56, '曲阜路': 2.54, '汉中路': 2.46, '老西门': 1.84, '肇嘉浜路': 2.69, '自然博物馆': 1.81, '衡山路': 2.46, '豫园': 2.34, '陆家浜路': 2.26, '陕西南路': 0.79, '静安寺': 1.77, '马当路': 1.7, '鲁班路': 2.55, '黄陂南路': 0.88}</t>
   </si>
   <si>
-    <t>{'外高桥保税区北': 1.29, '航津路': 2.68}</t>
+    <t>{'基隆路': 1.5, '外高桥保税区北': 1.29, '航津路': 2.68, '高桥': 1.12, '高桥西': 2.42}</t>
   </si>
   <si>
     <t>{'上海科技馆': 1.83, '世纪大道': 0.85, '东昌路': 1.81, '北洋泾路': 1.81, '商城路': 1.77, '塘桥': 3.0, '杨树浦路': 2.68, '杨高中路': 1.47, '民生路': 0.9, '浦东大道': 1.64, '浦电路(4号线)': 1.22, '浦电路(6号线)': 1.53, '芳甸路': 2.27, '蓝村路': 2.46}</t>
@@ -2212,13 +2458,13 @@
     <t>{'临港大道': 2.54}</t>
   </si>
   <si>
-    <t>{'上海体育场': 2.16, '上海体育馆': 1.66, '上海南站': 1.56, '上海游泳馆': 1.43, '云锦路': 2.42, '宜山路': 2.12, '桂林公园': 1.29, '桂林路': 1.6, '漕溪路': 1.06, '石龙路': 1.5, '虹漕路': 2.2, '龙华': 1.95, '龙华中路': 2.85, '龙漕路': 1.08, '龙耀路': 2.7}</t>
-  </si>
-  <si>
-    <t>{'东兰路': 1.74, '合川路': 1.32, '桂林公园': 2.12, '桂林路': 1.99, '虹梅路': 1.15, '虹漕路': 1.42, '龙柏新村': 2.69}</t>
-  </si>
-  <si>
-    <t>{'上海体育场': 1.1, '上海体育馆': 0.68, '上海南站': 2.59, '上海游泳馆': 0.39, '东安路': 2.22, '云锦路': 2.23, '交通大学': 2.85, '宜山路': 1.54, '徐家汇': 2.07, '桂林公园': 2.09, '桂林路': 1.95, '漕宝路': 1.06, '石龙路': 2.14, '肇嘉浜路': 2.76, '虹桥路': 2.85, '虹漕路': 3.0, '龙华': 1.46, '龙华中路': 1.94, '龙漕路': 0.99, '龙耀路': 2.77}</t>
+    <t>{'上海体育场': 2.16, '上海体育馆': 1.66, '上海南站': 1.56, '上海游泳馆': 1.43, '云锦路': 2.42, '华东理工大学': 2.88, '吴中路': 2.78, '宜山路': 2.12, '桂林公园': 1.29, '桂林路': 1.6, '漕溪路': 1.06, '石龙路': 1.5, '虹漕路': 2.2, '龙华': 1.95, '龙华中路': 2.85, '龙漕路': 1.08, '龙耀路': 2.7}</t>
+  </si>
+  <si>
+    <t>{'东兰路': 1.74, '合川路': 1.32, '吴中路': 2.33, '姚虹路': 2.47, '桂林公园': 2.12, '桂林路': 1.99, '虹梅路': 1.15, '虹漕路': 1.42, '龙柏新村': 2.69}</t>
+  </si>
+  <si>
+    <t>{'上海体育场': 1.1, '上海体育馆': 0.68, '上海南站': 2.59, '上海游泳馆': 0.39, '东安路': 2.22, '云锦路': 2.23, '交通大学': 2.85, '吴中路': 2.62, '宜山路': 1.54, '徐家汇': 2.07, '桂林公园': 2.09, '桂林路': 1.95, '漕宝路': 1.06, '石龙路': 2.14, '肇嘉浜路': 2.76, '虹桥路': 2.85, '虹漕路': 3.0, '龙华': 1.46, '龙华中路': 1.94, '龙漕路': 0.99, '龙耀路': 2.77}</t>
   </si>
   <si>
     <t>{'青浦新城': 2.74}</t>
@@ -2242,36 +2488,51 @@
     <t>{'上海赛车场': 2.36, '嘉定新城': 1.9}</t>
   </si>
   <si>
-    <t>{'丰庄': 2.79, '北新泾': 1.92, '大渡河路': 1.19, '威宁路': 2.0, '枫桥路': 3.0, '淞虹路': 2.64, '祁连山南路': 1.52, '金沙江路': 2.97}</t>
-  </si>
-  <si>
-    <t>{'上海西站': 1.45, '大华三路': 2.99, '大渡河路': 2.44, '岚皋路': 1.52, '新村路': 2.08, '曹杨路': 1.62, '李子园': 2.61, '枫桥路': 1.07, '武宁路': 2.87, '金沙江路': 2.16, '镇坪路': 2.2, '隆德路': 2.74}</t>
-  </si>
-  <si>
-    <t>{'上海体育馆': 2.82, '上海南站': 1.31, '上海游泳馆': 2.36, '云锦路': 1.74, '桂林公园': 2.46, '漕宝路': 1.5, '漕溪路': 2.14, '龙华': 1.88, '龙漕路': 1.28, '龙耀路': 1.58}</t>
-  </si>
-  <si>
-    <t>{'上海大学': 1.47, '南陈路': 2.4, '顾村公园': 2.48}</t>
-  </si>
-  <si>
-    <t>{'丰庄': 1.28, '北新泾': 2.45, '大渡河路': 2.66, '淞虹路': 2.28, '真北路': 1.52}</t>
-  </si>
-  <si>
-    <t>{'上海西站': 2.57, '李子园': 1.36, '桃浦新村': 2.74, '武威路': 1.21}</t>
-  </si>
-  <si>
-    <t>{'康新公路': 1.98, '罗山路': 1.75}</t>
+    <t>{'丰庄': 2.79, '北新泾': 1.92, '大渡河路': 1.19, '威宁路': 2.0, '枫桥路': 3.0, '梅岭北路': 1.86, '淞虹路': 2.64, '祁连山南路': 1.52, '金沙江路': 2.97, '铜川路': 2.51, '长风公园': 1.51}</t>
+  </si>
+  <si>
+    <t>{'上海西站': 1.45, '大华三路': 2.99, '大渡河路': 2.44, '岚皋路': 1.52, '新村路': 2.08, '曹杨路': 1.62, '李子园': 2.61, '枫桥路': 1.07, '梅岭北路': 1.31, '武宁路': 2.87, '金沙江路': 2.16, '铜川路': 0.96, '镇坪路': 2.2, '长风公园': 2.92, '隆德路': 2.74}</t>
+  </si>
+  <si>
+    <t>{'上海体育馆': 2.82, '上海南站': 1.31, '上海游泳馆': 2.36, '云锦路': 1.74, '华东理工大学': 2.16, '桂林公园': 2.46, '漕宝路': 1.5, '漕溪路': 2.14, '龙华': 1.88, '龙漕路': 1.28, '龙耀路': 1.58}</t>
+  </si>
+  <si>
+    <t>{'上海大学': 1.47, '丰翔路': 1.71, '南大路': 2.65, '南陈路': 2.4, '锦秋路': 0.81, '顾村公园': 2.48}</t>
+  </si>
+  <si>
+    <t>{'丰翔路': 1.89, '南大路': 0.96, '古浪路': 1.02, '李子园': 2.55, '武威东路': 1.86, '武威路': 2.53, '祁连山路': 2.36}</t>
+  </si>
+  <si>
+    <t>{'丰庄': 1.28, '北新泾': 2.45, '大渡河路': 2.66, '梅岭北路': 2.88, '淞虹路': 2.28, '真北路': 1.52}</t>
+  </si>
+  <si>
+    <t>{'上海西站': 2.57, '古浪路': 2.13, '李子园': 1.36, '桃浦新村': 2.74, '武威东路': 1.52, '武威路': 1.21, '祁安路': 2.36}</t>
+  </si>
+  <si>
+    <t>{'康新公路': 1.98, '康桥': 2.98, '罗山路': 1.75}</t>
+  </si>
+  <si>
+    <t>{'永德路': 1.88}</t>
   </si>
   <si>
     <t>{'七宝': 2.18, '上海动物园': 2.31, '东兰路': 3.0, '合川路': 1.93, '星中路': 1.34, '航中路': 1.02, '虹桥1号航站楼': 2.93, '龙柏新村': 0.97}</t>
   </si>
   <si>
+    <t>{'周浦': 1.25, '沈梅路': 1.53}</t>
+  </si>
+  <si>
+    <t>{'中山公园': 2.71, '伊犁路': 0.53, '吴中路': 1.96, '姚虹路': 1.12, '威宁路': 2.08, '娄山关路': 1.49, '宋园路': 1.33, '延安西路': 2.16, '水城路': 0.59, '虹桥路': 2.14, '龙溪路': 1.81}</t>
+  </si>
+  <si>
     <t>{'潘广路': 2.75, '美兰湖': 1.62}</t>
   </si>
   <si>
     <t>{'中科路': 2.98, '华夏中路': 2.68, '御桥': 2.18, '秀沿路': 1.75}</t>
   </si>
   <si>
+    <t>{'上海南站': 2.62, '华东理工大学': 1.4, '华泾西': 2.06, '朱梅路': 0.82, '锦江乐园': 2.38}</t>
+  </si>
+  <si>
     <t>{'罗南新村': 1.62}</t>
   </si>
   <si>
@@ -2296,10 +2557,13 @@
     <t>{'七宝': 1.27, '中春路': 2.45, '合川路': 2.8, '星中路': 1.53, '紫藤路': 1.02, '虹桥1号航站楼': 2.98, '龙柏新村': 1.92}</t>
   </si>
   <si>
-    <t>{'鹤沙航城': 2.61}</t>
-  </si>
-  <si>
-    <t>{'外高桥保税区北': 1.54, '外高桥保税区南': 1.71, '洲海路': 2.61, '港城路': 2.68}</t>
+    <t>{'下沙': 2.02, '航头东': 2.83}</t>
+  </si>
+  <si>
+    <t>{'下沙': 2.72, '航头': 2.83, '鹤沙航城': 2.61}</t>
+  </si>
+  <si>
+    <t>{'基隆路': 1.8, '外高桥保税区北': 1.54, '外高桥保税区南': 1.71, '洲海路': 2.61, '港城路': 2.68}</t>
   </si>
   <si>
     <t>{'三林': 2.99, '凌兆新村': 2.6, '浦江镇': 2.62}</t>
@@ -2323,7 +2587,7 @@
     <t>{'下南路': 2.74, '北蔡': 1.84, '华夏中路': 1.75, '御桥': 1.29, '陈春路': 1.04}</t>
   </si>
   <si>
-    <t>{'东兰路': 2.96, '外环路': 1.46, '莘庄': 2.76, '虹莘路': 2.27, '锦江乐园': 1.65, '顾戴路': 1.53}</t>
+    <t>{'东兰路': 2.96, '华东理工大学': 2.82, '外环路': 1.46, '莘庄': 2.76, '虹莘路': 2.27, '锦江乐园': 1.65, '顾戴路': 1.53}</t>
   </si>
   <si>
     <t>{'奉浦大道': 2.74, '西渡': 2.76}</t>
@@ -2347,13 +2611,16 @@
     <t>{'徐泾东': 1.98, '虹桥1号航站楼': 2.72, '虹桥2号航站楼': 0.7, '诸光路': 2.48}</t>
   </si>
   <si>
-    <t>{'上海体育场': 2.53, '上海体育馆': 2.27, '上海图书馆': 2.52, '上海游泳馆': 2.83, '中山公园': 2.32, '交通大学': 1.47, '伊犁路': 1.62, '娄山关路': 2.2, '宋园路': 0.84, '宜山路': 1.35, '延安西路': 1.39, '徐家汇': 1.54, '桂林路': 2.54, '水城路': 2.72, '江苏路': 2.71, '漕溪路': 2.85, '肇嘉浜路': 2.8, '衡山路': 2.56}</t>
+    <t>{'上海体育场': 2.53, '上海体育馆': 2.27, '上海图书馆': 2.52, '上海游泳馆': 2.83, '中山公园': 2.32, '交通大学': 1.47, '伊犁路': 1.62, '吴中路': 1.39, '姚虹路': 1.5, '娄山关路': 2.2, '宋园路': 0.84, '宜山路': 1.35, '延安西路': 1.39, '徐家汇': 1.54, '桂林路': 2.54, '水城路': 2.72, '江苏路': 2.71, '漕溪路': 2.85, '红宝石路': 2.14, '肇嘉浜路': 2.8, '衡山路': 2.56}</t>
+  </si>
+  <si>
+    <t>{'华泾西': 1.25, '双柏路': 2.54, '景西路': 1.43, '曙建路': 2.06, '朱梅路': 2.31}</t>
   </si>
   <si>
     <t>{'东兰路': 0.71, '合川路': 1.37, '星中路': 2.71, '桂林公园': 2.26, '桂林路': 2.55, '漕河泾开发区': 1.15, '虹漕路': 1.33, '锦江乐园': 2.58, '顾戴路': 2.22}</t>
   </si>
   <si>
-    <t>{'上海南站': 2.13, '东兰路': 1.99, '合川路': 2.47, '宜山路': 2.98, '桂林公园': 0.93, '桂林路': 1.39, '漕宝路': 2.2, '漕河泾开发区': 1.42, '漕溪路': 3.0, '虹梅路': 1.33, '锦江乐园': 2.45}</t>
+    <t>{'上海南站': 2.13, '东兰路': 1.99, '华东理工大学': 2.96, '合川路': 2.47, '吴中路': 2.54, '宜山路': 2.98, '桂林公园': 0.93, '桂林路': 1.39, '漕宝路': 2.2, '漕河泾开发区': 1.42, '漕溪路': 3.0, '虹梅路': 1.33, '锦江乐园': 2.45}</t>
   </si>
   <si>
     <t>{'七莘路': 1.82, '东兰路': 2.32, '外环路': 2.2, '星中路': 2.54, '莘庄': 2.96, '莲花路': 2.27, '顾戴路': 1.16}</t>
@@ -2362,7 +2629,7 @@
     <t>{'徐泾东': 1.97, '徐盈路': 2.52, '诸光路': 1.49}</t>
   </si>
   <si>
-    <t>{'上海马戏城': 2.96, '场中路': 2.21, '大华三路': 1.22, '大场镇': 1.04, '新村路': 2.34, '汶水路': 2.86}</t>
+    <t>{'上海马戏城': 2.96, '古浪路': 2.78, '场中路': 2.21, '大华三路': 1.22, '大场镇': 1.04, '新村路': 2.34, '汶水路': 2.86}</t>
   </si>
   <si>
     <t>{'上海体育场': 2.12, '上海体育馆': 2.56, '上海图书馆': 0.43, '上海游泳馆': 2.86, '东安路': 1.72, '交通大学': 1.09, '嘉善路': 1.37, '大木桥路': 1.98, '宜山路': 2.7, '常熟路': 1.03, '延安西路': 2.85, '徐家汇': 1.37, '打浦桥': 2.13, '江苏路': 2.32, '淮海中路': 2.46, '肇嘉浜路': 0.67, '虹桥路': 2.56, '陕西南路': 1.66, '静安寺': 2.06, '马当路': 2.98, '鲁班路': 2.79, '龙华中路': 2.51}</t>
@@ -2413,7 +2680,7 @@
     <t>{'丰庄': 1.91, '金运路': 1.51}</t>
   </si>
   <si>
-    <t>{'中山公园': 1.58, '大渡河路': 1.78, '娄山关路': 2.47, '岚皋路': 2.82, '延安西路': 2.52, '昌平路': 2.81, '曹杨路': 0.92, '枫桥路': 1.11, '武宁路': 1.67, '江苏路': 2.1, '真北路': 2.97, '真如': 2.16, '镇坪路': 2.25, '长寿路': 2.58, '隆德路': 1.01}</t>
+    <t>{'中山公园': 1.58, '大渡河路': 1.78, '娄山关路': 2.47, '岚皋路': 2.82, '延安西路': 2.52, '昌平路': 2.81, '曹杨路': 0.92, '枫桥路': 1.11, '梅岭北路': 1.96, '武宁路': 1.67, '江苏路': 2.1, '真北路': 2.97, '真如': 2.16, '铜川路': 2.58, '镇坪路': 2.25, '长寿路': 2.58, '长风公园': 1.74, '隆德路': 1.01}</t>
   </si>
   <si>
     <t>{'奉贤新城': 1.69, '望园路': 0.92, '环城东路': 2.81}</t>
@@ -2431,10 +2698,16 @@
     <t>{'友谊路': 1.48, '宝杨路': 2.26, '江杨北路': 2.02}</t>
   </si>
   <si>
-    <t>{'春申路': 1.08, '莘庄': 2.47, '颛桥': 2.72}</t>
-  </si>
-  <si>
-    <t>{'上海南站': 2.05, '东兰路': 2.6, '桂林公园': 2.8, '莲花路': 1.65, '虹梅路': 2.58, '虹漕路': 2.45, '顾戴路': 2.12}</t>
+    <t>{'上海西站': 1.38, '大渡河路': 2.13, '岚皋路': 2.44, '新村路': 2.84, '曹杨路': 2.34, '李子园': 2.14, '枫桥路': 1.68, '梅岭北路': 0.87, '武威东路': 2.83, '真北路': 2.51, '真如': 0.96, '金沙江路': 2.58, '长风公园': 2.72}</t>
+  </si>
+  <si>
+    <t>{'春申路': 1.08, '景西路': 2.95, '曙建路': 2.64, '莘庄': 2.47, '颛桥': 2.72}</t>
+  </si>
+  <si>
+    <t>{'上海南站': 2.05, '东兰路': 2.6, '华东理工大学': 1.43, '朱梅路': 3.0, '桂林公园': 2.8, '罗秀路': 2.38, '莲花路': 1.65, '虹梅路': 2.58, '虹漕路': 2.45, '顾戴路': 2.12}</t>
+  </si>
+  <si>
+    <t>{'上大路': 2.61, '上海大学': 0.68, '丰翔路': 1.33, '南大路': 2.35, '南陈路': 1.63, '祁华路': 0.81, '顾村公园': 2.84}</t>
   </si>
   <si>
     <t>{'上海儿童医学中心': 2.35, '下南路': 0.92, '世纪公园': 2.64, '临沂新村': 2.31, '北蔡': 1.41, '华鹏路': 1.8, '杨高南路': 1.42, '芳华路': 1.14, '蓝村路': 2.93, '陈春路': 2.2, '高科西路': 2.88, '龙阳路': 2.44}</t>
@@ -2446,12 +2719,15 @@
     <t>{'上海火车站': 2.11, '中山北路': 2.82, '中潭路': 1.55, '南京西路': 2.4, '岚皋路': 2.31, '新村路': 2.96, '新闸路': 2.85, '昌平路': 0.89, '曹杨路': 1.96, '枫桥路': 2.56, '武宁路': 1.03, '汉中路': 1.95, '江宁路': 0.73, '江苏路': 2.39, '自然博物馆': 2.34, '金沙江路': 2.58, '镇坪路': 1.01, '隆德路': 1.81, '静安寺': 2.12}</t>
   </si>
   <si>
-    <t>{'三门路': 2.64, '张华浜': 2.97, '新江湾城': 1.52, '殷高东路': 1.85, '殷高西路': 1.48, '淞发路': 1.68}</t>
+    <t>{'三门路': 2.64, '国帆路': 2.24, '张华浜': 2.97, '新江湾城': 1.52, '殷高东路': 1.85, '殷高西路': 1.48, '淞发路': 1.68}</t>
   </si>
   <si>
     <t>{'世博会博物馆': 2.64, '世博大道': 0.98, '东方体育中心': 2.45, '东明路': 2.21, '中华艺术宫': 1.32, '云台路': 1.48, '云锦路': 2.92, '后滩': 1.36, '成山路': 0.9, '杨思': 1.58, '灵岩南路': 2.96, '耀华路': 0.79, '高科西路': 2.45, '鲁班路': 3.0}</t>
   </si>
   <si>
+    <t>{'中山公园': 2.08, '北新泾': 2.38, '大渡河路': 0.63, '威宁路': 1.52, '娄山关路': 1.84, '延安西路': 2.71, '曹杨路': 2.51, '枫桥路': 2.26, '梅岭北路': 1.86, '水城路': 3.0, '真北路': 1.51, '真如': 2.92, '金沙江路': 1.74, '铜川路': 2.72, '隆德路': 2.65}</t>
+  </si>
+  <si>
     <t>{'三鲁公路': 0.95, '东城一路': 1.96, '汇臻路': 2.58, '沈杜公路': 2.28, '浦航路': 0.77}</t>
   </si>
   <si>
@@ -2467,10 +2743,13 @@
     <t>{'下南路': 1.74, '北蔡': 0.81, '华夏中路': 2.42, '华鹏路': 2.97, '御桥': 2.24, '芳华路': 2.16, '莲溪路': 1.04, '锦绣路': 2.2}</t>
   </si>
   <si>
+    <t>{'南翔': 1.89}</t>
+  </si>
+  <si>
     <t>{'上海图书馆': 1.58, '世博会博物馆': 2.92, '东安路': 2.73, '交通大学': 2.66, '人民广场': 2.5, '南京西路': 1.64, '嘉善路': 1.38, '大世界': 2.37, '大木桥路': 2.38, '常熟路': 0.93, '打浦桥': 1.36, '新天地': 1.57, '新闸路': 2.73, '昌平路': 2.57, '汉中路': 2.97, '江苏路': 2.74, '淮海中路': 0.79, '老西门': 2.42, '肇嘉浜路': 1.93, '自然博物馆': 2.39, '衡山路': 1.66, '陆家浜路': 2.63, '静安寺': 1.48, '马当路': 1.87, '鲁班路': 2.36, '黄陂南路': 1.62}</t>
   </si>
   <si>
-    <t>{'中山公园': 1.58, '大渡河路': 2.77, '娄山关路': 2.84, '岚皋路': 2.86, '延安西路': 2.4, '昌平路': 1.85, '曹杨路': 1.13, '枫桥路': 1.71, '武宁路': 0.78, '江宁路': 2.54, '江苏路': 1.31, '真如': 2.74, '金沙江路': 1.01, '镇坪路': 1.86, '长寿路': 1.81, '静安寺': 2.31}</t>
+    <t>{'中山公园': 1.58, '大渡河路': 2.77, '娄山关路': 2.84, '岚皋路': 2.86, '延安西路': 2.4, '昌平路': 1.85, '曹杨路': 1.13, '枫桥路': 1.71, '梅岭北路': 2.88, '武宁路': 0.78, '江宁路': 2.54, '江苏路': 1.31, '真如': 2.74, '金沙江路': 1.01, '镇坪路': 1.86, '长寿路': 1.81, '长风公园': 2.65, '静安寺': 2.31}</t>
   </si>
   <si>
     <t>{'复兴岛': 1.7, '宁国路': 1.39, '延吉中路': 1.75, '江浦公园': 2.32, '江浦路': 2.5, '爱国路': 0.91, '黄兴公园': 2.49, '黄兴路': 1.6}</t>
@@ -2491,10 +2770,10 @@
     <t>{'七莘路': 2.98, '东兰路': 1.66, '合川路': 2.93, '外环路': 2.23, '星中路': 2.9, '莲花路': 1.53, '虹梅路': 2.22, '虹莘路': 1.16, '锦江乐园': 2.12}</t>
   </si>
   <si>
-    <t>{'刘行': 1.76, '潘广路': 2.72, '祁华路': 2.48}</t>
-  </si>
-  <si>
-    <t>{'北桥': 2.56, '银都路': 2.72}</t>
+    <t>{'刘行': 1.76, '潘广路': 2.72, '祁华路': 2.48, '锦秋路': 2.84}</t>
+  </si>
+  <si>
+    <t>{'元江路': 2.9, '北桥': 2.56, '双柏路': 2.61, '银都路': 2.72}</t>
   </si>
   <si>
     <t>{'世博会博物馆': 1.39, '东安路': 2.97, '人民广场': 2.59, '南京西路': 2.8, '南浦大桥': 2.14, '嘉善路': 1.74, '大世界': 1.97, '大木桥路': 2.17, '小南门': 2.17, '常熟路': 2.71, '打浦桥': 0.89, '新天地': 0.79, '淮海中路': 1.7, '老西门': 1.23, '肇嘉浜路': 2.81, '衡山路': 2.98, '西藏南路': 1.44, '豫园': 2.25, '陆家浜路': 0.88, '陕西南路': 1.87, '鲁班路': 1.16, '黄陂南路': 1.52}</t>
@@ -2503,6 +2782,12 @@
     <t>{'嘉定新城': 2.44}</t>
   </si>
   <si>
+    <t>{'双江路': 2.24, '基隆路': 2.61, '外高桥保税区北': 2.34, '港城路': 1.12, '高桥西': 1.31}</t>
+  </si>
+  <si>
+    <t>{'双江路': 0.96, '港城路': 2.42, '高桥': 1.31}</t>
+  </si>
+  <si>
     <t>{'上海儿童医学中心': 2.34, '下南路': 2.97, '世博会博物馆': 2.99, '世博大道': 2.45, '东明路': 1.46, '中华艺术宫': 1.54, '临沂新村': 1.05, '云台路': 0.98, '华鹏路': 1.91, '南浦大桥': 2.71, '塘桥': 2.8, '成山路': 2.11, '杨高南路': 1.46, '耀华路': 1.66, '西藏南路': 2.64, '锦绣路': 2.88, '长清路': 2.45, '高青路': 2.93}</t>
   </si>
   <si>
@@ -2512,7 +2797,10 @@
     <t>{'世博会博物馆': 0.64, '世博大道': 2.02, '东安路': 2.14, '中华艺术宫': 2.35, '南浦大桥': 2.56, '嘉善路': 1.43, '大木桥路': 1.27, '小南门': 2.96, '常熟路': 2.94, '打浦桥': 1.0, '新天地': 1.91, '淮海中路': 2.55, '耀华路': 2.95, '老西门': 2.35, '肇嘉浜路': 2.37, '衡山路': 2.79, '西藏南路': 1.4, '长清路': 3.0, '陆家浜路': 1.74, '陕西南路': 2.36, '马当路': 1.16, '黄陂南路': 2.62, '龙华中路': 2.43}</t>
   </si>
   <si>
-    <t>{'航头东': 2.61}</t>
+    <t>{'航头东': 2.61, '鹤涛路': 2.5}</t>
+  </si>
+  <si>
+    <t>{'下沙': 1.96, '沈梅路': 2.25, '鹤沙航城': 2.5}</t>
   </si>
   <si>
     <t>{'五角场': 1.81, '同济大学': 2.96, '国权路': 2.32, '嫩江路': 2.16, '宁国路': 2.98, '延吉中路': 0.78, '江浦路': 2.68, '江湾体育场': 2.15, '爱国路': 2.52, '翔殷路': 1.08, '隆昌路': 2.49, '黄兴路': 1.9}</t>
@@ -2533,7 +2821,7 @@
     <t>{'上海动物园': 1.5, '合川路': 1.78, '星中路': 2.09, '漕河泾开发区': 2.69, '紫藤路': 0.97, '航中路': 1.92, '虹桥1号航站楼': 2.72, '龙溪路': 2.15}</t>
   </si>
   <si>
-    <t>{'上海动物园': 1.22, '伊犁路': 2.32, '北新泾': 2.51, '威宁路': 2.38, '娄山关路': 2.95, '水城路': 1.29, '龙柏新村': 2.15}</t>
+    <t>{'上海动物园': 1.22, '伊犁路': 2.32, '北新泾': 2.51, '姚虹路': 2.56, '威宁路': 2.38, '娄山关路': 2.95, '水城路': 1.29, '红宝石路': 1.81, '龙柏新村': 2.15}</t>
   </si>
   <si>
     <t>{'上海体育场': 1.8, '上海体育馆': 1.63, '上海南站': 2.14, '上海游泳馆': 1.11, '东安路': 2.58, '云锦路': 1.38, '后滩': 2.81, '宜山路': 2.52, '徐家汇': 2.97, '桂林公园': 2.37, '桂林路': 2.57, '漕宝路': 1.08, '漕溪路': 0.99, '石龙路': 1.28, '龙华': 0.89, '龙华中路': 2.0, '龙耀路': 1.82}</t>
@@ -2900,7 +3188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E346"/>
+  <dimension ref="A1:E382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2931,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2948,13 +3236,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2965,13 +3253,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2982,13 +3270,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2999,13 +3287,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3016,13 +3304,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3033,13 +3321,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3050,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3067,13 +3355,13 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3084,13 +3372,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3101,13 +3389,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="D12">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3118,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3135,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3152,13 +3440,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="D15">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3166,16 +3454,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3186,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3203,13 +3491,13 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3220,13 +3508,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="D19">
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3237,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D20">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3254,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3271,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3288,13 +3576,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="D23">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3305,13 +3593,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3319,16 +3607,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3339,13 +3627,13 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3353,16 +3641,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3370,16 +3658,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3387,16 +3675,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3407,13 +3695,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3421,16 +3709,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3438,16 +3726,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>539</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3455,16 +3743,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3472,16 +3760,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3492,13 +3780,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3506,16 +3794,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>543</v>
+        <v>602</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3523,16 +3811,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3540,16 +3828,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>545</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3557,16 +3845,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>350</v>
+        <v>411</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>546</v>
+        <v>605</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3574,16 +3862,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3591,16 +3879,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3608,16 +3896,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3625,16 +3913,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="D43">
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>550</v>
+        <v>609</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3645,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>551</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3662,13 +3950,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>552</v>
+        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3679,13 +3967,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>553</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3696,13 +3984,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>554</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3710,16 +3998,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D48">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>555</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3730,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>556</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3744,16 +4032,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>557</v>
+        <v>616</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3764,13 +4052,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>558</v>
+        <v>617</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3781,13 +4069,13 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>350</v>
+        <v>618</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3795,16 +4083,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>559</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3812,16 +4100,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>560</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3829,16 +4117,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="D55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>561</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3846,16 +4134,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>562</v>
+        <v>621</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3866,13 +4154,13 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="D57">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>563</v>
+        <v>622</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3880,16 +4168,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D58">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>564</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3897,16 +4185,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="D59">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>565</v>
+        <v>624</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3914,16 +4202,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="D60">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>566</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3934,13 +4222,13 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>567</v>
+        <v>626</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3948,16 +4236,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>350</v>
+        <v>422</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>568</v>
+        <v>627</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3965,16 +4253,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>569</v>
+        <v>628</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3985,13 +4273,13 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>570</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4002,13 +4290,13 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>571</v>
+        <v>630</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4019,13 +4307,13 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>572</v>
+        <v>631</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4033,16 +4321,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>573</v>
+        <v>632</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4053,13 +4341,13 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>574</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4067,16 +4355,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>575</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4084,16 +4372,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>576</v>
+        <v>635</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4101,16 +4389,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>577</v>
+        <v>636</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4118,16 +4406,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>578</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4138,13 +4426,13 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>579</v>
+        <v>638</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4152,16 +4440,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>580</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4169,16 +4457,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>581</v>
+        <v>640</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4189,13 +4477,13 @@
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>582</v>
+        <v>641</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4203,16 +4491,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>583</v>
+        <v>642</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4220,16 +4508,16 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>584</v>
+        <v>643</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4240,13 +4528,13 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>585</v>
+        <v>644</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4257,13 +4545,13 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D80">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>586</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4271,16 +4559,16 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D81">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>587</v>
+        <v>646</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4288,16 +4576,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="D82">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>588</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4305,16 +4593,16 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>589</v>
+        <v>648</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4325,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>350</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4339,16 +4627,16 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>590</v>
+        <v>650</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4356,16 +4644,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E86" t="s">
-        <v>591</v>
+        <v>651</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4373,16 +4661,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>350</v>
+        <v>431</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>592</v>
+        <v>652</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4390,16 +4678,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>593</v>
+        <v>653</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4407,16 +4695,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>350</v>
+        <v>433</v>
       </c>
       <c r="D89">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>594</v>
+        <v>654</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4427,13 +4715,13 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>595</v>
+        <v>655</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4441,16 +4729,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="D91">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>596</v>
+        <v>656</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4458,16 +4746,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="D92">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>597</v>
+        <v>657</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4478,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>598</v>
+        <v>658</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4495,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>599</v>
+        <v>659</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4509,16 +4797,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>350</v>
+        <v>436</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>600</v>
+        <v>660</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4529,13 +4817,13 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="D96">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>601</v>
+        <v>661</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4543,16 +4831,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="D97">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>602</v>
+        <v>662</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4563,13 +4851,13 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E98" t="s">
-        <v>603</v>
+        <v>663</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4580,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>604</v>
+        <v>664</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4594,16 +4882,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>350</v>
+        <v>438</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>605</v>
+        <v>665</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4614,13 +4902,13 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>606</v>
+        <v>666</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4628,16 +4916,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="D102">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E102" t="s">
-        <v>607</v>
+        <v>667</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4645,16 +4933,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="D103">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>608</v>
+        <v>668</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4662,16 +4950,16 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D104">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>609</v>
+        <v>669</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4679,16 +4967,16 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D105">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>610</v>
+        <v>670</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4699,13 +4987,13 @@
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>611</v>
+        <v>671</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4713,16 +5001,16 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="D107">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>612</v>
+        <v>672</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4730,16 +5018,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E108" t="s">
-        <v>613</v>
+        <v>673</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4750,13 +5038,13 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>614</v>
+        <v>674</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4767,13 +5055,13 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>615</v>
+        <v>675</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4784,13 +5072,13 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>616</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4798,16 +5086,16 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="D112">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>617</v>
+        <v>677</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4815,16 +5103,16 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>350</v>
+        <v>442</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E113" t="s">
-        <v>618</v>
+        <v>678</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4832,16 +5120,16 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>350</v>
+        <v>443</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>619</v>
+        <v>679</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4849,16 +5137,16 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="D115">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E115" t="s">
-        <v>620</v>
+        <v>680</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4869,13 +5157,13 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>621</v>
+        <v>681</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4883,16 +5171,16 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>350</v>
+        <v>445</v>
       </c>
       <c r="D117">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E117" t="s">
-        <v>622</v>
+        <v>682</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4900,16 +5188,16 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="D118">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4917,16 +5205,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="D119">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>624</v>
+        <v>684</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4934,16 +5222,16 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>350</v>
+        <v>447</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E120" t="s">
-        <v>625</v>
+        <v>685</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4951,16 +5239,16 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>350</v>
+        <v>448</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>626</v>
+        <v>686</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4971,13 +5259,13 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D122">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>627</v>
+        <v>687</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4985,16 +5273,16 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>350</v>
+        <v>449</v>
       </c>
       <c r="D123">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>628</v>
+        <v>688</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5002,16 +5290,16 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="D124">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>629</v>
+        <v>689</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5019,16 +5307,16 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E125" t="s">
-        <v>630</v>
+        <v>690</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5036,16 +5324,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="D126">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E126" t="s">
-        <v>631</v>
+        <v>691</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5056,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>632</v>
+        <v>692</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5073,13 +5361,13 @@
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="D128">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E128" t="s">
-        <v>633</v>
+        <v>693</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5087,16 +5375,16 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="D129">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E129" t="s">
-        <v>634</v>
+        <v>694</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5104,16 +5392,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E130" t="s">
-        <v>635</v>
+        <v>695</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5121,16 +5409,16 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="D131">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E131" t="s">
-        <v>636</v>
+        <v>696</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5138,16 +5426,16 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>350</v>
+        <v>455</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E132" t="s">
-        <v>637</v>
+        <v>697</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5158,13 +5446,13 @@
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>638</v>
+        <v>698</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5172,16 +5460,16 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>639</v>
+        <v>699</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5189,16 +5477,16 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="D135">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>640</v>
+        <v>700</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5209,13 +5497,13 @@
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5223,16 +5511,16 @@
         <v>140</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E137" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5243,13 +5531,13 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="D138">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>643</v>
+        <v>703</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5257,16 +5545,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="D139">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>644</v>
+        <v>704</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5274,16 +5562,16 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>645</v>
+        <v>705</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5294,13 +5582,13 @@
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>646</v>
+        <v>706</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5308,16 +5596,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="D142">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>647</v>
+        <v>707</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5325,16 +5613,16 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="D143">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E143" t="s">
-        <v>648</v>
+        <v>708</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5342,16 +5630,16 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="D144">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>649</v>
+        <v>709</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5359,16 +5647,16 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="D145">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E145" t="s">
-        <v>650</v>
+        <v>710</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5379,13 +5667,13 @@
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E146" t="s">
-        <v>651</v>
+        <v>711</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5396,13 +5684,13 @@
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>652</v>
+        <v>712</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5410,16 +5698,16 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>350</v>
+        <v>461</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E148" t="s">
-        <v>653</v>
+        <v>713</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5430,13 +5718,13 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="D149">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E149" t="s">
-        <v>654</v>
+        <v>714</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5444,16 +5732,16 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="D150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>655</v>
+        <v>715</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5461,16 +5749,16 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>350</v>
+        <v>463</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>656</v>
+        <v>716</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5478,16 +5766,16 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>350</v>
+        <v>464</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E152" t="s">
-        <v>657</v>
+        <v>717</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5495,16 +5783,16 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>350</v>
+        <v>465</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E153" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5512,16 +5800,16 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="D154">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5532,13 +5820,13 @@
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>350</v>
+        <v>720</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5549,13 +5837,13 @@
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>350</v>
+        <v>721</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5563,16 +5851,16 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="D157">
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>660</v>
+        <v>722</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5580,16 +5868,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="D158">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E158" t="s">
-        <v>661</v>
+        <v>723</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5597,16 +5885,16 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="D159">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>662</v>
+        <v>724</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5617,13 +5905,13 @@
         <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>663</v>
+        <v>725</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5634,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>350</v>
+        <v>726</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5648,16 +5936,16 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="D162">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E162" t="s">
-        <v>664</v>
+        <v>727</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5665,16 +5953,16 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="D163">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>665</v>
+        <v>728</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5685,13 +5973,13 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="D164">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E164" t="s">
-        <v>666</v>
+        <v>729</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5699,16 +5987,16 @@
         <v>168</v>
       </c>
       <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>470</v>
+      </c>
+      <c r="D165">
         <v>4</v>
       </c>
-      <c r="C165" t="s">
-        <v>434</v>
-      </c>
-      <c r="D165">
-        <v>25</v>
-      </c>
       <c r="E165" t="s">
-        <v>667</v>
+        <v>730</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5719,13 +6007,13 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>668</v>
+        <v>731</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5733,16 +6021,16 @@
         <v>170</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="D167">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>669</v>
+        <v>732</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5753,13 +6041,13 @@
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D168">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E168" t="s">
-        <v>670</v>
+        <v>733</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5767,16 +6055,16 @@
         <v>172</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E169" t="s">
-        <v>671</v>
+        <v>734</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5784,16 +6072,16 @@
         <v>173</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="D170">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>672</v>
+        <v>386</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5801,16 +6089,16 @@
         <v>174</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="D171">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>673</v>
+        <v>386</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5821,13 +6109,13 @@
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="D172">
         <v>15</v>
       </c>
       <c r="E172" t="s">
-        <v>674</v>
+        <v>735</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5835,16 +6123,16 @@
         <v>176</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E173" t="s">
-        <v>675</v>
+        <v>736</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5852,16 +6140,16 @@
         <v>177</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E174" t="s">
-        <v>676</v>
+        <v>737</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5872,13 +6160,13 @@
         <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>677</v>
+        <v>738</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5889,13 +6177,13 @@
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>678</v>
+        <v>386</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5903,16 +6191,16 @@
         <v>180</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="D177">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E177" t="s">
-        <v>679</v>
+        <v>739</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5923,13 +6211,13 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="D178">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>680</v>
+        <v>740</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5937,16 +6225,16 @@
         <v>182</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>350</v>
+        <v>477</v>
       </c>
       <c r="D179">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>681</v>
+        <v>741</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5954,16 +6242,16 @@
         <v>183</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="D180">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E180" t="s">
-        <v>682</v>
+        <v>742</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5974,13 +6262,13 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D181">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E181" t="s">
-        <v>683</v>
+        <v>743</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5988,16 +6276,16 @@
         <v>185</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>350</v>
+        <v>479</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6008,13 +6296,13 @@
         <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>685</v>
+        <v>745</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6025,13 +6313,13 @@
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>686</v>
+        <v>746</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6042,13 +6330,13 @@
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E185" t="s">
-        <v>687</v>
+        <v>747</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6059,13 +6347,13 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="D186">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E186" t="s">
-        <v>688</v>
+        <v>748</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6073,16 +6361,16 @@
         <v>190</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="D187">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E187" t="s">
-        <v>689</v>
+        <v>749</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6090,16 +6378,16 @@
         <v>191</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C188" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="D188">
         <v>16</v>
       </c>
       <c r="E188" t="s">
-        <v>690</v>
+        <v>750</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6107,16 +6395,16 @@
         <v>192</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E189" t="s">
-        <v>691</v>
+        <v>751</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6127,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>692</v>
+        <v>752</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6144,13 +6432,13 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="D191">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>693</v>
+        <v>753</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6158,16 +6446,16 @@
         <v>195</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
       <c r="D192">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>694</v>
+        <v>754</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6175,16 +6463,16 @@
         <v>196</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>350</v>
+        <v>485</v>
       </c>
       <c r="D193">
         <v>5</v>
       </c>
       <c r="E193" t="s">
-        <v>695</v>
+        <v>755</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6192,16 +6480,16 @@
         <v>197</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="D194">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E194" t="s">
-        <v>696</v>
+        <v>756</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6212,13 +6500,13 @@
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E195" t="s">
-        <v>697</v>
+        <v>757</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6226,16 +6514,16 @@
         <v>199</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>350</v>
+        <v>487</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E196" t="s">
-        <v>698</v>
+        <v>758</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6246,13 +6534,13 @@
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D197">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E197" t="s">
-        <v>699</v>
+        <v>759</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6260,16 +6548,16 @@
         <v>201</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>447</v>
+        <v>386</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>700</v>
+        <v>760</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6280,13 +6568,13 @@
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E199" t="s">
-        <v>701</v>
+        <v>761</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6294,16 +6582,16 @@
         <v>203</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="D200">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E200" t="s">
-        <v>702</v>
+        <v>762</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6311,16 +6599,16 @@
         <v>204</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="s">
-        <v>449</v>
+        <v>386</v>
       </c>
       <c r="D201">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E201" t="s">
-        <v>703</v>
+        <v>763</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6331,13 +6619,13 @@
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D202">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>704</v>
+        <v>764</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6348,13 +6636,13 @@
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E203" t="s">
-        <v>705</v>
+        <v>765</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6362,16 +6650,16 @@
         <v>207</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>350</v>
+        <v>488</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E204" t="s">
-        <v>706</v>
+        <v>766</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6379,16 +6667,16 @@
         <v>208</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="D205">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E205" t="s">
-        <v>707</v>
+        <v>767</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6399,13 +6687,13 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="D206">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E206" t="s">
-        <v>708</v>
+        <v>768</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6413,16 +6701,16 @@
         <v>210</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="D207">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E207" t="s">
-        <v>709</v>
+        <v>769</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6430,16 +6718,16 @@
         <v>211</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="D208">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E208" t="s">
-        <v>710</v>
+        <v>770</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6447,16 +6735,16 @@
         <v>212</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>350</v>
+        <v>492</v>
       </c>
       <c r="D209">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E209" t="s">
-        <v>711</v>
+        <v>771</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6467,13 +6755,13 @@
         <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D210">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>712</v>
+        <v>772</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6481,16 +6769,16 @@
         <v>214</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>350</v>
+        <v>493</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E211" t="s">
-        <v>713</v>
+        <v>773</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6498,16 +6786,16 @@
         <v>215</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>350</v>
+        <v>494</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>350</v>
+        <v>774</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6518,13 +6806,13 @@
         <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>714</v>
+        <v>775</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6532,16 +6820,16 @@
         <v>217</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>350</v>
+        <v>495</v>
       </c>
       <c r="D214">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E214" t="s">
-        <v>715</v>
+        <v>776</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6552,13 +6840,13 @@
         <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E215" t="s">
-        <v>716</v>
+        <v>777</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6569,13 +6857,13 @@
         <v>0</v>
       </c>
       <c r="C216" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E216" t="s">
-        <v>717</v>
+        <v>778</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6586,13 +6874,13 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="D217">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E217" t="s">
-        <v>718</v>
+        <v>779</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6603,13 +6891,13 @@
         <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D218">
         <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>719</v>
+        <v>780</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6617,16 +6905,16 @@
         <v>222</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="D219">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E219" t="s">
-        <v>720</v>
+        <v>781</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6634,16 +6922,16 @@
         <v>223</v>
       </c>
       <c r="B220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C220" t="s">
-        <v>455</v>
+        <v>386</v>
       </c>
       <c r="D220">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E220" t="s">
-        <v>721</v>
+        <v>782</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6651,16 +6939,16 @@
         <v>224</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C221" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E221" t="s">
-        <v>722</v>
+        <v>783</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6668,16 +6956,16 @@
         <v>225</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="D222">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E222" t="s">
-        <v>723</v>
+        <v>784</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6688,13 +6976,13 @@
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E223" t="s">
-        <v>724</v>
+        <v>785</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6705,13 +6993,13 @@
         <v>0</v>
       </c>
       <c r="C224" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>350</v>
+        <v>786</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6722,13 +7010,13 @@
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E225" t="s">
-        <v>725</v>
+        <v>787</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6736,16 +7024,16 @@
         <v>229</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="D226">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E226" t="s">
-        <v>726</v>
+        <v>788</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6753,16 +7041,16 @@
         <v>230</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>350</v>
+        <v>501</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E227" t="s">
-        <v>727</v>
+        <v>789</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6770,16 +7058,16 @@
         <v>231</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="D228">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E228" t="s">
-        <v>728</v>
+        <v>790</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6790,13 +7078,13 @@
         <v>0</v>
       </c>
       <c r="C229" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E229" t="s">
-        <v>729</v>
+        <v>791</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6804,16 +7092,16 @@
         <v>233</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>459</v>
+        <v>386</v>
       </c>
       <c r="D230">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E230" t="s">
-        <v>730</v>
+        <v>792</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6824,13 +7112,13 @@
         <v>0</v>
       </c>
       <c r="C231" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E231" t="s">
-        <v>731</v>
+        <v>793</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6841,13 +7129,13 @@
         <v>0</v>
       </c>
       <c r="C232" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D232">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E232" t="s">
-        <v>732</v>
+        <v>794</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6858,13 +7146,13 @@
         <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D233">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E233" t="s">
-        <v>733</v>
+        <v>795</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6872,16 +7160,16 @@
         <v>237</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="D234">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E234" t="s">
-        <v>734</v>
+        <v>386</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6892,13 +7180,13 @@
         <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D235">
         <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>735</v>
+        <v>796</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6906,16 +7194,16 @@
         <v>239</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="s">
-        <v>461</v>
+        <v>386</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E236" t="s">
-        <v>736</v>
+        <v>797</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6923,16 +7211,16 @@
         <v>240</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="s">
-        <v>462</v>
+        <v>386</v>
       </c>
       <c r="D237">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E237" t="s">
-        <v>737</v>
+        <v>798</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6940,16 +7228,16 @@
         <v>241</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C238" t="s">
-        <v>463</v>
+        <v>386</v>
       </c>
       <c r="D238">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E238" t="s">
-        <v>738</v>
+        <v>799</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6957,16 +7245,16 @@
         <v>242</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>350</v>
+        <v>503</v>
       </c>
       <c r="D239">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E239" t="s">
-        <v>739</v>
+        <v>800</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6977,13 +7265,13 @@
         <v>0</v>
       </c>
       <c r="C240" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E240" t="s">
-        <v>740</v>
+        <v>801</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6991,16 +7279,16 @@
         <v>244</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>350</v>
+        <v>504</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E241" t="s">
-        <v>741</v>
+        <v>802</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7008,16 +7296,16 @@
         <v>245</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C242" t="s">
-        <v>350</v>
+        <v>505</v>
       </c>
       <c r="D242">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E242" t="s">
-        <v>742</v>
+        <v>803</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7025,16 +7313,16 @@
         <v>246</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>350</v>
+        <v>506</v>
       </c>
       <c r="D243">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E243" t="s">
-        <v>743</v>
+        <v>804</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7042,16 +7330,16 @@
         <v>247</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>350</v>
+        <v>507</v>
       </c>
       <c r="D244">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E244" t="s">
-        <v>744</v>
+        <v>805</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7062,13 +7350,13 @@
         <v>0</v>
       </c>
       <c r="C245" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E245" t="s">
-        <v>745</v>
+        <v>806</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7079,13 +7367,13 @@
         <v>0</v>
       </c>
       <c r="C246" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D246">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E246" t="s">
-        <v>746</v>
+        <v>386</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7096,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="C247" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D247">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E247" t="s">
-        <v>747</v>
+        <v>807</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7113,13 +7401,13 @@
         <v>0</v>
       </c>
       <c r="C248" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E248" t="s">
-        <v>748</v>
+        <v>808</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7127,16 +7415,16 @@
         <v>252</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="s">
-        <v>464</v>
+        <v>386</v>
       </c>
       <c r="D249">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E249" t="s">
-        <v>749</v>
+        <v>809</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7144,16 +7432,16 @@
         <v>253</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>350</v>
+        <v>508</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E250" t="s">
-        <v>750</v>
+        <v>810</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7164,13 +7452,13 @@
         <v>0</v>
       </c>
       <c r="C251" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E251" t="s">
-        <v>751</v>
+        <v>811</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7178,16 +7466,16 @@
         <v>255</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>350</v>
+        <v>509</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E252" t="s">
-        <v>752</v>
+        <v>812</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7198,13 +7486,13 @@
         <v>0</v>
       </c>
       <c r="C253" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D253">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E253" t="s">
-        <v>753</v>
+        <v>813</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7212,16 +7500,16 @@
         <v>257</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C254" t="s">
-        <v>465</v>
+        <v>386</v>
       </c>
       <c r="D254">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E254" t="s">
-        <v>754</v>
+        <v>814</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7229,16 +7517,16 @@
         <v>258</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C255" t="s">
-        <v>466</v>
+        <v>386</v>
       </c>
       <c r="D255">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E255" t="s">
-        <v>755</v>
+        <v>815</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7246,16 +7534,16 @@
         <v>259</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C256" t="s">
-        <v>350</v>
+        <v>510</v>
       </c>
       <c r="D256">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E256" t="s">
-        <v>756</v>
+        <v>816</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7263,16 +7551,16 @@
         <v>260</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="D257">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E257" t="s">
-        <v>757</v>
+        <v>817</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7280,16 +7568,16 @@
         <v>261</v>
       </c>
       <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>511</v>
+      </c>
+      <c r="D258">
         <v>3</v>
       </c>
-      <c r="C258" t="s">
-        <v>468</v>
-      </c>
-      <c r="D258">
-        <v>25</v>
-      </c>
       <c r="E258" t="s">
-        <v>758</v>
+        <v>818</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7297,16 +7585,16 @@
         <v>262</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>350</v>
+        <v>512</v>
       </c>
       <c r="D259">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E259" t="s">
-        <v>759</v>
+        <v>819</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7314,16 +7602,16 @@
         <v>263</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>350</v>
+        <v>513</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E260" t="s">
-        <v>760</v>
+        <v>820</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7334,13 +7622,13 @@
         <v>0</v>
       </c>
       <c r="C261" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D261">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>761</v>
+        <v>821</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7351,13 +7639,13 @@
         <v>0</v>
       </c>
       <c r="C262" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E262" t="s">
-        <v>762</v>
+        <v>822</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7365,16 +7653,16 @@
         <v>266</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="s">
-        <v>469</v>
+        <v>386</v>
       </c>
       <c r="D263">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E263" t="s">
-        <v>763</v>
+        <v>823</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7385,13 +7673,13 @@
         <v>0</v>
       </c>
       <c r="C264" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E264" t="s">
-        <v>764</v>
+        <v>824</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7399,16 +7687,16 @@
         <v>268</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>350</v>
+        <v>514</v>
       </c>
       <c r="D265">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E265" t="s">
-        <v>765</v>
+        <v>825</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7416,16 +7704,16 @@
         <v>269</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="s">
-        <v>470</v>
+        <v>386</v>
       </c>
       <c r="D266">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E266" t="s">
-        <v>766</v>
+        <v>826</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7433,16 +7721,16 @@
         <v>270</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>350</v>
+        <v>515</v>
       </c>
       <c r="D267">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E267" t="s">
-        <v>767</v>
+        <v>827</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7450,16 +7738,16 @@
         <v>271</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>350</v>
+        <v>516</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E268" t="s">
-        <v>768</v>
+        <v>828</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7470,13 +7758,13 @@
         <v>0</v>
       </c>
       <c r="C269" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D269">
         <v>6</v>
       </c>
       <c r="E269" t="s">
-        <v>769</v>
+        <v>829</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7487,13 +7775,13 @@
         <v>0</v>
       </c>
       <c r="C270" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E270" t="s">
-        <v>770</v>
+        <v>830</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7504,13 +7792,13 @@
         <v>0</v>
       </c>
       <c r="C271" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D271">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E271" t="s">
-        <v>771</v>
+        <v>831</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7518,16 +7806,16 @@
         <v>275</v>
       </c>
       <c r="B272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C272" t="s">
-        <v>471</v>
+        <v>386</v>
       </c>
       <c r="D272">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E272" t="s">
-        <v>772</v>
+        <v>832</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7535,16 +7823,16 @@
         <v>276</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>350</v>
+        <v>517</v>
       </c>
       <c r="D273">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E273" t="s">
-        <v>773</v>
+        <v>833</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7555,13 +7843,13 @@
         <v>0</v>
       </c>
       <c r="C274" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D274">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E274" t="s">
-        <v>774</v>
+        <v>834</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7569,16 +7857,16 @@
         <v>278</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C275" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="D275">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E275" t="s">
-        <v>775</v>
+        <v>835</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7586,16 +7874,16 @@
         <v>279</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="D276">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E276" t="s">
-        <v>776</v>
+        <v>836</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7603,16 +7891,16 @@
         <v>280</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" t="s">
-        <v>474</v>
+        <v>386</v>
       </c>
       <c r="D277">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E277" t="s">
-        <v>777</v>
+        <v>837</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7623,13 +7911,13 @@
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="D278">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E278" t="s">
-        <v>778</v>
+        <v>838</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7637,16 +7925,16 @@
         <v>282</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="s">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="D279">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E279" t="s">
-        <v>779</v>
+        <v>839</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7657,13 +7945,13 @@
         <v>0</v>
       </c>
       <c r="C280" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D280">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E280" t="s">
-        <v>780</v>
+        <v>840</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7671,16 +7959,16 @@
         <v>284</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>350</v>
+        <v>520</v>
       </c>
       <c r="D281">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E281" t="s">
-        <v>781</v>
+        <v>841</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7688,16 +7976,16 @@
         <v>285</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C282" t="s">
-        <v>350</v>
+        <v>521</v>
       </c>
       <c r="D282">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E282" t="s">
-        <v>782</v>
+        <v>842</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7705,16 +7993,16 @@
         <v>286</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C283" t="s">
-        <v>477</v>
+        <v>386</v>
       </c>
       <c r="D283">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E283" t="s">
-        <v>783</v>
+        <v>843</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7722,16 +8010,16 @@
         <v>287</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>350</v>
+        <v>522</v>
       </c>
       <c r="D284">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E284" t="s">
-        <v>784</v>
+        <v>844</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7739,16 +8027,16 @@
         <v>288</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C285" t="s">
-        <v>350</v>
+        <v>523</v>
       </c>
       <c r="D285">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E285" t="s">
-        <v>785</v>
+        <v>845</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7756,16 +8044,16 @@
         <v>289</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="s">
-        <v>478</v>
+        <v>386</v>
       </c>
       <c r="D286">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E286" t="s">
-        <v>786</v>
+        <v>846</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7773,16 +8061,16 @@
         <v>290</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="D287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E287" t="s">
-        <v>787</v>
+        <v>847</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7790,16 +8078,16 @@
         <v>291</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
       <c r="D288">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E288" t="s">
-        <v>788</v>
+        <v>848</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7807,16 +8095,16 @@
         <v>292</v>
       </c>
       <c r="B289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C289" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="D289">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E289" t="s">
-        <v>789</v>
+        <v>849</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7827,13 +8115,13 @@
         <v>0</v>
       </c>
       <c r="C290" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E290" t="s">
-        <v>350</v>
+        <v>850</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7841,16 +8129,16 @@
         <v>294</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E291" t="s">
-        <v>350</v>
+        <v>851</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7861,13 +8149,13 @@
         <v>0</v>
       </c>
       <c r="C292" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292" t="s">
-        <v>350</v>
+        <v>852</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7878,13 +8166,13 @@
         <v>0</v>
       </c>
       <c r="C293" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D293">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E293" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7892,16 +8180,16 @@
         <v>297</v>
       </c>
       <c r="B294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="D294">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E294" t="s">
-        <v>791</v>
+        <v>854</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7912,13 +8200,13 @@
         <v>0</v>
       </c>
       <c r="C295" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D295">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E295" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7929,13 +8217,13 @@
         <v>0</v>
       </c>
       <c r="C296" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E296" t="s">
-        <v>350</v>
+        <v>856</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7946,13 +8234,13 @@
         <v>0</v>
       </c>
       <c r="C297" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D297">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E297" t="s">
-        <v>793</v>
+        <v>857</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7960,16 +8248,16 @@
         <v>301</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="s">
-        <v>483</v>
+        <v>386</v>
       </c>
       <c r="D298">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E298" t="s">
-        <v>794</v>
+        <v>858</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7980,13 +8268,13 @@
         <v>0</v>
       </c>
       <c r="C299" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D299">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E299" t="s">
-        <v>795</v>
+        <v>859</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7994,16 +8282,16 @@
         <v>303</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C300" t="s">
-        <v>350</v>
+        <v>526</v>
       </c>
       <c r="D300">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E300" t="s">
-        <v>796</v>
+        <v>860</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8011,16 +8299,16 @@
         <v>304</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="s">
-        <v>484</v>
+        <v>386</v>
       </c>
       <c r="D301">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E301" t="s">
-        <v>797</v>
+        <v>861</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8031,13 +8319,13 @@
         <v>0</v>
       </c>
       <c r="C302" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D302">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E302" t="s">
-        <v>798</v>
+        <v>862</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8048,13 +8336,13 @@
         <v>1</v>
       </c>
       <c r="C303" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="D303">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E303" t="s">
-        <v>799</v>
+        <v>863</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8065,13 +8353,13 @@
         <v>1</v>
       </c>
       <c r="C304" t="s">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="D304">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E304" t="s">
-        <v>800</v>
+        <v>864</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8082,13 +8370,13 @@
         <v>1</v>
       </c>
       <c r="C305" t="s">
-        <v>487</v>
+        <v>529</v>
       </c>
       <c r="D305">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E305" t="s">
-        <v>801</v>
+        <v>865</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8099,13 +8387,13 @@
         <v>0</v>
       </c>
       <c r="C306" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D306">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E306" t="s">
-        <v>802</v>
+        <v>866</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8113,16 +8401,16 @@
         <v>310</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E307" t="s">
-        <v>803</v>
+        <v>867</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8130,16 +8418,16 @@
         <v>311</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>350</v>
+        <v>531</v>
       </c>
       <c r="D308">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E308" t="s">
-        <v>804</v>
+        <v>868</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8150,13 +8438,13 @@
         <v>0</v>
       </c>
       <c r="C309" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D309">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E309" t="s">
-        <v>805</v>
+        <v>869</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8167,13 +8455,13 @@
         <v>0</v>
       </c>
       <c r="C310" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D310">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>806</v>
+        <v>870</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8181,16 +8469,16 @@
         <v>314</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C311" t="s">
-        <v>488</v>
+        <v>386</v>
       </c>
       <c r="D311">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E311" t="s">
-        <v>807</v>
+        <v>871</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8198,16 +8486,16 @@
         <v>315</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C312" t="s">
-        <v>350</v>
+        <v>532</v>
       </c>
       <c r="D312">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E312" t="s">
-        <v>808</v>
+        <v>872</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8215,16 +8503,16 @@
         <v>316</v>
       </c>
       <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313" t="s">
+        <v>386</v>
+      </c>
+      <c r="D313">
         <v>2</v>
       </c>
-      <c r="C313" t="s">
-        <v>489</v>
-      </c>
-      <c r="D313">
-        <v>19</v>
-      </c>
       <c r="E313" t="s">
-        <v>809</v>
+        <v>873</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8235,13 +8523,13 @@
         <v>0</v>
       </c>
       <c r="C314" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D314">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E314" t="s">
-        <v>810</v>
+        <v>874</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8249,16 +8537,16 @@
         <v>318</v>
       </c>
       <c r="B315">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C315" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="D315">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E315" t="s">
-        <v>811</v>
+        <v>875</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8266,16 +8554,16 @@
         <v>319</v>
       </c>
       <c r="B316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C316" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="D316">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E316" t="s">
-        <v>812</v>
+        <v>876</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8283,16 +8571,16 @@
         <v>320</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>350</v>
+        <v>535</v>
       </c>
       <c r="D317">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E317" t="s">
-        <v>813</v>
+        <v>877</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8300,16 +8588,16 @@
         <v>321</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C318" t="s">
-        <v>350</v>
+        <v>536</v>
       </c>
       <c r="D318">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E318" t="s">
-        <v>814</v>
+        <v>878</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8317,16 +8605,16 @@
         <v>322</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C319" t="s">
-        <v>492</v>
+        <v>386</v>
       </c>
       <c r="D319">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E319" t="s">
-        <v>815</v>
+        <v>386</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8334,16 +8622,16 @@
         <v>323</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="s">
-        <v>493</v>
+        <v>386</v>
       </c>
       <c r="D320">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E320" t="s">
-        <v>816</v>
+        <v>386</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8351,16 +8639,16 @@
         <v>324</v>
       </c>
       <c r="B321">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C321" t="s">
-        <v>494</v>
+        <v>386</v>
       </c>
       <c r="D321">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E321" t="s">
-        <v>817</v>
+        <v>386</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8368,16 +8656,16 @@
         <v>325</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="s">
-        <v>495</v>
+        <v>386</v>
       </c>
       <c r="D322">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E322" t="s">
-        <v>818</v>
+        <v>879</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8385,16 +8673,16 @@
         <v>326</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C323" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="D323">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E323" t="s">
-        <v>819</v>
+        <v>880</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8405,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="C324" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D324">
         <v>2</v>
       </c>
       <c r="E324" t="s">
-        <v>820</v>
+        <v>881</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8422,13 +8710,13 @@
         <v>0</v>
       </c>
       <c r="C325" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D325">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E325" t="s">
-        <v>821</v>
+        <v>386</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8436,16 +8724,16 @@
         <v>329</v>
       </c>
       <c r="B326">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C326" t="s">
-        <v>497</v>
+        <v>386</v>
       </c>
       <c r="D326">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E326" t="s">
-        <v>822</v>
+        <v>882</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8453,16 +8741,16 @@
         <v>330</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>350</v>
+        <v>538</v>
       </c>
       <c r="D327">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E327" t="s">
-        <v>823</v>
+        <v>883</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8473,13 +8761,13 @@
         <v>0</v>
       </c>
       <c r="C328" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D328">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E328" t="s">
-        <v>824</v>
+        <v>884</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8490,13 +8778,13 @@
         <v>0</v>
       </c>
       <c r="C329" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D329">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E329" t="s">
-        <v>825</v>
+        <v>885</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8504,16 +8792,16 @@
         <v>333</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>350</v>
+        <v>539</v>
       </c>
       <c r="D330">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E330" t="s">
-        <v>826</v>
+        <v>886</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8521,16 +8809,16 @@
         <v>334</v>
       </c>
       <c r="B331">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C331" t="s">
-        <v>498</v>
+        <v>386</v>
       </c>
       <c r="D331">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E331" t="s">
-        <v>827</v>
+        <v>887</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8538,16 +8826,16 @@
         <v>335</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="s">
-        <v>350</v>
+        <v>540</v>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E332" t="s">
-        <v>828</v>
+        <v>888</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8558,13 +8846,13 @@
         <v>1</v>
       </c>
       <c r="C333" t="s">
-        <v>499</v>
+        <v>541</v>
       </c>
       <c r="D333">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E333" t="s">
-        <v>829</v>
+        <v>889</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8572,16 +8860,16 @@
         <v>337</v>
       </c>
       <c r="B334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334" t="s">
-        <v>350</v>
+        <v>542</v>
       </c>
       <c r="D334">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E334" t="s">
-        <v>830</v>
+        <v>890</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8589,16 +8877,16 @@
         <v>338</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C335" t="s">
-        <v>500</v>
+        <v>386</v>
       </c>
       <c r="D335">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E335" t="s">
-        <v>831</v>
+        <v>891</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8609,13 +8897,13 @@
         <v>0</v>
       </c>
       <c r="C336" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D336">
         <v>1</v>
       </c>
       <c r="E336" t="s">
-        <v>832</v>
+        <v>892</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8623,16 +8911,16 @@
         <v>340</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="s">
-        <v>501</v>
+        <v>386</v>
       </c>
       <c r="D337">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E337" t="s">
-        <v>833</v>
+        <v>893</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8640,16 +8928,16 @@
         <v>341</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C338" t="s">
-        <v>350</v>
+        <v>543</v>
       </c>
       <c r="D338">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E338" t="s">
-        <v>834</v>
+        <v>894</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8657,16 +8945,16 @@
         <v>342</v>
       </c>
       <c r="B339">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C339" t="s">
-        <v>502</v>
+        <v>386</v>
       </c>
       <c r="D339">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E339" t="s">
-        <v>835</v>
+        <v>895</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8674,16 +8962,16 @@
         <v>343</v>
       </c>
       <c r="B340">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C340" t="s">
-        <v>503</v>
+        <v>386</v>
       </c>
       <c r="D340">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E340" t="s">
-        <v>836</v>
+        <v>896</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8691,16 +8979,16 @@
         <v>344</v>
       </c>
       <c r="B341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C341" t="s">
-        <v>504</v>
+        <v>544</v>
       </c>
       <c r="D341">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E341" t="s">
-        <v>837</v>
+        <v>897</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8711,13 +8999,13 @@
         <v>1</v>
       </c>
       <c r="C342" t="s">
-        <v>505</v>
+        <v>545</v>
       </c>
       <c r="D342">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E342" t="s">
-        <v>838</v>
+        <v>898</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8728,13 +9016,13 @@
         <v>0</v>
       </c>
       <c r="C343" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="D343">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E343" t="s">
-        <v>839</v>
+        <v>899</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8745,13 +9033,13 @@
         <v>2</v>
       </c>
       <c r="C344" t="s">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="D344">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E344" t="s">
-        <v>840</v>
+        <v>900</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8759,16 +9047,16 @@
         <v>348</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C345" t="s">
-        <v>507</v>
+        <v>386</v>
       </c>
       <c r="D345">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E345" t="s">
-        <v>841</v>
+        <v>901</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8776,16 +9064,628 @@
         <v>349</v>
       </c>
       <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346" t="s">
+        <v>547</v>
+      </c>
+      <c r="D346">
+        <v>14</v>
+      </c>
+      <c r="E346" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>350</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347" t="s">
+        <v>548</v>
+      </c>
+      <c r="D347">
+        <v>15</v>
+      </c>
+      <c r="E347" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>351</v>
+      </c>
+      <c r="B348">
         <v>2</v>
       </c>
-      <c r="C346" t="s">
-        <v>508</v>
-      </c>
-      <c r="D346">
+      <c r="C348" t="s">
+        <v>549</v>
+      </c>
+      <c r="D348">
+        <v>5</v>
+      </c>
+      <c r="E348" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>352</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349" t="s">
+        <v>386</v>
+      </c>
+      <c r="D349">
+        <v>2</v>
+      </c>
+      <c r="E349" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>353</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350" t="s">
+        <v>386</v>
+      </c>
+      <c r="D350">
+        <v>20</v>
+      </c>
+      <c r="E350" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>354</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351" t="s">
+        <v>550</v>
+      </c>
+      <c r="D351">
+        <v>18</v>
+      </c>
+      <c r="E351" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>355</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352" t="s">
+        <v>551</v>
+      </c>
+      <c r="D352">
+        <v>8</v>
+      </c>
+      <c r="E352" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>356</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353" t="s">
+        <v>386</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>357</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354" t="s">
+        <v>552</v>
+      </c>
+      <c r="D354">
+        <v>26</v>
+      </c>
+      <c r="E354" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>358</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355" t="s">
+        <v>553</v>
+      </c>
+      <c r="D355">
+        <v>18</v>
+      </c>
+      <c r="E355" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>359</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356" t="s">
+        <v>554</v>
+      </c>
+      <c r="D356">
+        <v>8</v>
+      </c>
+      <c r="E356" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
+        <v>360</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357" t="s">
+        <v>386</v>
+      </c>
+      <c r="D357">
+        <v>2</v>
+      </c>
+      <c r="E357" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>361</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358" t="s">
+        <v>386</v>
+      </c>
+      <c r="D358">
+        <v>23</v>
+      </c>
+      <c r="E358" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>362</v>
+      </c>
+      <c r="B359">
+        <v>2</v>
+      </c>
+      <c r="C359" t="s">
+        <v>555</v>
+      </c>
+      <c r="D359">
+        <v>19</v>
+      </c>
+      <c r="E359" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>363</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360" t="s">
+        <v>386</v>
+      </c>
+      <c r="D360">
+        <v>4</v>
+      </c>
+      <c r="E360" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
+        <v>364</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361" t="s">
+        <v>386</v>
+      </c>
+      <c r="D361">
         <v>9</v>
       </c>
-      <c r="E346" t="s">
-        <v>842</v>
+      <c r="E361" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>365</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362" t="s">
+        <v>386</v>
+      </c>
+      <c r="D362">
+        <v>4</v>
+      </c>
+      <c r="E362" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>366</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363" t="s">
+        <v>386</v>
+      </c>
+      <c r="D363">
+        <v>4</v>
+      </c>
+      <c r="E363" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>367</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364" t="s">
+        <v>556</v>
+      </c>
+      <c r="D364">
+        <v>22</v>
+      </c>
+      <c r="E364" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>368</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365" t="s">
+        <v>386</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>369</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366" t="s">
+        <v>386</v>
+      </c>
+      <c r="D366">
+        <v>5</v>
+      </c>
+      <c r="E366" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>370</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367" t="s">
+        <v>557</v>
+      </c>
+      <c r="D367">
+        <v>3</v>
+      </c>
+      <c r="E367" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>371</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368" t="s">
+        <v>558</v>
+      </c>
+      <c r="D368">
+        <v>18</v>
+      </c>
+      <c r="E368" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>372</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369" t="s">
+        <v>386</v>
+      </c>
+      <c r="D369">
+        <v>13</v>
+      </c>
+      <c r="E369" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>373</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+      <c r="C370" t="s">
+        <v>559</v>
+      </c>
+      <c r="D370">
+        <v>23</v>
+      </c>
+      <c r="E370" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>374</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371" t="s">
+        <v>386</v>
+      </c>
+      <c r="D371">
+        <v>2</v>
+      </c>
+      <c r="E371" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>375</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372" t="s">
+        <v>386</v>
+      </c>
+      <c r="D372">
+        <v>3</v>
+      </c>
+      <c r="E372" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>376</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373" t="s">
+        <v>560</v>
+      </c>
+      <c r="D373">
+        <v>12</v>
+      </c>
+      <c r="E373" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>377</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374" t="s">
+        <v>386</v>
+      </c>
+      <c r="D374">
+        <v>14</v>
+      </c>
+      <c r="E374" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
+        <v>378</v>
+      </c>
+      <c r="B375">
+        <v>3</v>
+      </c>
+      <c r="C375" t="s">
+        <v>561</v>
+      </c>
+      <c r="D375">
+        <v>25</v>
+      </c>
+      <c r="E375" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>379</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376" t="s">
+        <v>562</v>
+      </c>
+      <c r="D376">
+        <v>17</v>
+      </c>
+      <c r="E376" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="s">
+        <v>380</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377" t="s">
+        <v>563</v>
+      </c>
+      <c r="D377">
+        <v>23</v>
+      </c>
+      <c r="E377" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="s">
+        <v>381</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378" t="s">
+        <v>564</v>
+      </c>
+      <c r="D378">
+        <v>8</v>
+      </c>
+      <c r="E378" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="s">
+        <v>382</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379" t="s">
+        <v>386</v>
+      </c>
+      <c r="D379">
+        <v>9</v>
+      </c>
+      <c r="E379" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="s">
+        <v>383</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+      <c r="C380" t="s">
+        <v>565</v>
+      </c>
+      <c r="D380">
+        <v>17</v>
+      </c>
+      <c r="E380" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>384</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381" t="s">
+        <v>566</v>
+      </c>
+      <c r="D381">
+        <v>11</v>
+      </c>
+      <c r="E381" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>385</v>
+      </c>
+      <c r="B382">
+        <v>2</v>
+      </c>
+      <c r="C382" t="s">
+        <v>567</v>
+      </c>
+      <c r="D382">
+        <v>9</v>
+      </c>
+      <c r="E382" t="s">
+        <v>938</v>
       </c>
     </row>
   </sheetData>

--- a/city-metro-visualization/data/上海/metro_adj_stations.xlsx
+++ b/city-metro-visualization/data/上海/metro_adj_stations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1013">
   <si>
     <t>station_name</t>
   </si>
@@ -31,6 +31,12 @@
     <t>adjst_3km</t>
   </si>
   <si>
+    <t>一大会址·新天地</t>
+  </si>
+  <si>
+    <t>一大会址·黄陂南路</t>
+  </si>
+  <si>
     <t>七宝</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>上海西站</t>
   </si>
   <si>
+    <t>上海财经大学</t>
+  </si>
+  <si>
     <t>上海赛车场</t>
   </si>
   <si>
@@ -154,6 +163,9 @@
     <t>中华艺术宫</t>
   </si>
   <si>
+    <t>中宁路</t>
+  </si>
+  <si>
     <t>中山公园</t>
   </si>
   <si>
@@ -181,9 +193,18 @@
     <t>临沂新村</t>
   </si>
   <si>
+    <t>临洮路</t>
+  </si>
+  <si>
     <t>临港大道</t>
   </si>
   <si>
+    <t>丹阳路</t>
+  </si>
+  <si>
+    <t>乐秀路</t>
+  </si>
+  <si>
     <t>九亭</t>
   </si>
   <si>
@@ -199,6 +220,9 @@
     <t>云锦路</t>
   </si>
   <si>
+    <t>云顺路</t>
+  </si>
+  <si>
     <t>五洲大道</t>
   </si>
   <si>
@@ -250,6 +274,9 @@
     <t>剑川路</t>
   </si>
   <si>
+    <t>北中路</t>
+  </si>
+  <si>
     <t>北新泾</t>
   </si>
   <si>
@@ -361,6 +388,9 @@
     <t>嘉定西</t>
   </si>
   <si>
+    <t>嘉怡路</t>
+  </si>
+  <si>
     <t>嘉松中路</t>
   </si>
   <si>
@@ -391,6 +421,9 @@
     <t>复兴岛</t>
   </si>
   <si>
+    <t>复旦大学</t>
+  </si>
+  <si>
     <t>外环路</t>
   </si>
   <si>
@@ -454,6 +487,9 @@
     <t>宋园路</t>
   </si>
   <si>
+    <t>定边路</t>
+  </si>
+  <si>
     <t>宜山路</t>
   </si>
   <si>
@@ -469,6 +505,9 @@
     <t>富锦路</t>
   </si>
   <si>
+    <t>封浜</t>
+  </si>
+  <si>
     <t>小南门</t>
   </si>
   <si>
@@ -487,6 +526,9 @@
     <t>常熟路</t>
   </si>
   <si>
+    <t>平凉路</t>
+  </si>
+  <si>
     <t>广兰路</t>
   </si>
   <si>
@@ -547,6 +589,9 @@
     <t>打浦桥</t>
   </si>
   <si>
+    <t>抚顺路</t>
+  </si>
+  <si>
     <t>提篮桥</t>
   </si>
   <si>
@@ -556,9 +601,6 @@
     <t>新场</t>
   </si>
   <si>
-    <t>新天地</t>
-  </si>
-  <si>
     <t>新村路</t>
   </si>
   <si>
@@ -574,6 +616,9 @@
     <t>昌平路</t>
   </si>
   <si>
+    <t>昌邑路</t>
+  </si>
+  <si>
     <t>星中路</t>
   </si>
   <si>
@@ -646,12 +691,18 @@
     <t>桂林路</t>
   </si>
   <si>
+    <t>桂桥路</t>
+  </si>
+  <si>
     <t>桃浦新村</t>
   </si>
   <si>
     <t>梅岭北路</t>
   </si>
   <si>
+    <t>歇浦路</t>
+  </si>
+  <si>
     <t>武威东路</t>
   </si>
   <si>
@@ -661,12 +712,18 @@
     <t>武宁路</t>
   </si>
   <si>
+    <t>武定路</t>
+  </si>
+  <si>
     <t>殷高东路</t>
   </si>
   <si>
     <t>殷高西路</t>
   </si>
   <si>
+    <t>殷高路</t>
+  </si>
+  <si>
     <t>民生路</t>
   </si>
   <si>
@@ -739,12 +796,18 @@
     <t>浦三路</t>
   </si>
   <si>
+    <t>浦东南路</t>
+  </si>
+  <si>
     <t>浦东国际机场</t>
   </si>
   <si>
     <t>浦东大道</t>
   </si>
   <si>
+    <t>浦东足球场</t>
+  </si>
+  <si>
     <t>浦江镇</t>
   </si>
   <si>
@@ -784,6 +847,9 @@
     <t>源深体育中心</t>
   </si>
   <si>
+    <t>源深路</t>
+  </si>
+  <si>
     <t>滴水湖</t>
   </si>
   <si>
@@ -817,12 +883,18 @@
     <t>白银路</t>
   </si>
   <si>
+    <t>真光路</t>
+  </si>
+  <si>
     <t>真北路</t>
   </si>
   <si>
     <t>真如</t>
   </si>
   <si>
+    <t>真新新村</t>
+  </si>
+  <si>
     <t>石龙路</t>
   </si>
   <si>
@@ -910,6 +982,9 @@
     <t>芳甸路</t>
   </si>
   <si>
+    <t>芳芯路</t>
+  </si>
+  <si>
     <t>莘庄</t>
   </si>
   <si>
@@ -985,6 +1060,9 @@
     <t>赵巷</t>
   </si>
   <si>
+    <t>迎春路</t>
+  </si>
+  <si>
     <t>远东大道</t>
   </si>
   <si>
@@ -1033,6 +1111,9 @@
     <t>金科路</t>
   </si>
   <si>
+    <t>金粤路</t>
+  </si>
+  <si>
     <t>金运路</t>
   </si>
   <si>
@@ -1150,7 +1231,7 @@
     <t>黄兴路</t>
   </si>
   <si>
-    <t>黄陂南路</t>
+    <t>黄杨路</t>
   </si>
   <si>
     <t>龙华</t>
@@ -1174,6 +1255,12 @@
     <t>龙阳路</t>
   </si>
   <si>
+    <t>{'一大会址·黄陂南路': 0.86, '老西门': 0.87, '马当路': 0.79}</t>
+  </si>
+  <si>
+    <t>{'一大会址·新天地': 0.86, '大世界': 0.71, '淮海中路': 0.89}</t>
+  </si>
+  <si>
     <t>{}</t>
   </si>
   <si>
@@ -1213,6 +1300,9 @@
     <t>{'汉中路': 0.86}</t>
   </si>
   <si>
+    <t>{'迎春路': 0.67}</t>
+  </si>
+  <si>
     <t>{'延长路': 0.97}</t>
   </si>
   <si>
@@ -1246,7 +1336,7 @@
     <t>{'剑川路': 0.97}</t>
   </si>
   <si>
-    <t>{'商城路': 0.34, '浦东大道': 0.83}</t>
+    <t>{'商城路': 0.34, '浦东南路': 0.66, '浦东大道': 0.86}</t>
   </si>
   <si>
     <t>{'巨峰路': 0.9}</t>
@@ -1258,21 +1348,30 @@
     <t>{'世博大道': 0.93, '云台路': 0.73, '耀华路': 0.75}</t>
   </si>
   <si>
+    <t>{'曹杨路': 0.71, '枫桥路': 0.47, '真如': 0.94}</t>
+  </si>
+  <si>
     <t>{'延安西路': 0.93}</t>
   </si>
   <si>
     <t>{'提篮桥': 1.0}</t>
   </si>
   <si>
+    <t>{'平凉路': 0.72}</t>
+  </si>
+  <si>
     <t>{'中华艺术宫': 0.73, '耀华路': 0.69, '高科西路': 0.98}</t>
   </si>
   <si>
-    <t>{'德平路': 0.98}</t>
+    <t>{'德平路': 0.9}</t>
   </si>
   <si>
     <t>{'龙华': 0.87, '龙耀路': 0.76}</t>
   </si>
   <si>
+    <t>{'黄杨路': 0.95}</t>
+  </si>
+  <si>
     <t>{'博兴路': 0.95, '巨峰路': 0.96}</t>
   </si>
   <si>
@@ -1282,7 +1381,7 @@
     <t>{'徐家汇': 0.78}</t>
   </si>
   <si>
-    <t>{'大世界': 0.74, '新闸路': 0.91}</t>
+    <t>{'大世界': 0.71, '新闸路': 0.91}</t>
   </si>
   <si>
     <t>{'姚虹路': 0.86, '宋园路': 0.82, '红宝石路': 0.53}</t>
@@ -1297,10 +1396,13 @@
     <t>{'东川路': 0.97}</t>
   </si>
   <si>
+    <t>{'北蔡': 0.94, '芳芯路': 0.96, '陈春路': 0.96}</t>
+  </si>
+  <si>
     <t>{'民生路': 0.91, '芳甸路': 1.0}</t>
   </si>
   <si>
-    <t>{'陈春路': 0.81}</t>
+    <t>{'北中路': 0.94, '陈春路': 0.81}</t>
   </si>
   <si>
     <t>{'三林': 0.8, '三林东': 0.89, '上南路': 0.8}</t>
@@ -1330,13 +1432,13 @@
     <t>{'高桥西': 0.96}</t>
   </si>
   <si>
-    <t>{'四平路': 0.93, '国权路': 0.87}</t>
+    <t>{'四平路': 0.93, '国权路': 0.87, '抚顺路': 0.91}</t>
   </si>
   <si>
     <t>{'姚虹路': 0.83}</t>
   </si>
   <si>
-    <t>{'东昌路': 0.34}</t>
+    <t>{'东昌路': 0.34, '浦东南路': 0.99}</t>
   </si>
   <si>
     <t>{'大木桥路': 1.0, '打浦桥': 0.85}</t>
@@ -1348,7 +1450,7 @@
     <t>{'同济大学': 0.93, '曲阳路': 1.0, '邮电新村': 0.98, '鞍山新村': 0.8}</t>
   </si>
   <si>
-    <t>{'同济大学': 0.87}</t>
+    <t>{'同济大学': 0.87, '抚顺路': 0.83}</t>
   </si>
   <si>
     <t>{'提篮桥': 0.9}</t>
@@ -1366,7 +1468,7 @@
     <t>{'基隆路': 0.51}</t>
   </si>
   <si>
-    <t>{'人民广场': 0.74, '老西门': 1.0, '豫园': 0.78, '黄陂南路': 0.76}</t>
+    <t>{'一大会址·黄陂南路': 0.71, '人民广场': 0.71, '豫园': 0.79}</t>
   </si>
   <si>
     <t>{'东安路': 0.87, '嘉善路': 1.0}</t>
@@ -1396,6 +1498,9 @@
     <t>{'伊犁路': 0.82, '姚虹路': 0.76, '虹桥路': 0.84}</t>
   </si>
   <si>
+    <t>{'真新新村': 0.95}</t>
+  </si>
+  <si>
     <t>{'东宝兴路': 1.0, '中兴路': 0.72, '四川北路': 0.75}</t>
   </si>
   <si>
@@ -1414,6 +1519,9 @@
     <t>{'上海图书馆': 0.77, '陕西南路': 0.93}</t>
   </si>
   <si>
+    <t>{'丹阳路': 0.72, '江浦公园': 0.68}</t>
+  </si>
+  <si>
     <t>{'黄兴公园': 0.78}</t>
   </si>
   <si>
@@ -1429,7 +1537,7 @@
     <t>{'诸光路': 0.69}</t>
   </si>
   <si>
-    <t>{'云山路': 0.98}</t>
+    <t>{'云山路': 0.9}</t>
   </si>
   <si>
     <t>{'耀华路': 0.88, '长清路': 0.9}</t>
@@ -1438,12 +1546,12 @@
     <t>{'嘉善路': 0.85, '马当路': 0.89, '鲁班路': 1.0}</t>
   </si>
   <si>
+    <t>{'同济大学': 0.91, '国权路': 0.83, '江浦路': 1.0}</t>
+  </si>
+  <si>
     <t>{'临平路': 1.0, '国际客运中心': 0.9, '大连路': 0.77}</t>
   </si>
   <si>
-    <t>{'老西门': 0.87, '马当路': 0.79, '黄陂南路': 0.73}</t>
-  </si>
-  <si>
     <t>{'岚皋路': 0.87}</t>
   </si>
   <si>
@@ -1453,7 +1561,10 @@
     <t>{'人民广场': 0.91, '曲阜路': 0.54, '汉中路': 0.98, '自然博物馆': 0.59}</t>
   </si>
   <si>
-    <t>{'长寿路': 0.89}</t>
+    <t>{'武定路': 0.95, '长寿路': 0.89}</t>
+  </si>
+  <si>
+    <t>{'民生路': 0.96, '源深路': 0.91}</t>
   </si>
   <si>
     <t>{'双柏路': 0.9}</t>
@@ -1465,7 +1576,7 @@
     <t>{'四平路': 1.0, '赤峰路': 0.98, '邮电新村': 0.94}</t>
   </si>
   <si>
-    <t>{'枫桥路': 0.66, '金沙江路': 0.92}</t>
+    <t>{'中宁路': 0.71, '枫桥路': 0.66, '金沙江路': 0.92}</t>
   </si>
   <si>
     <t>{'金海湖': 0.92}</t>
@@ -1480,7 +1591,10 @@
     <t>{'大连路': 0.77}</t>
   </si>
   <si>
-    <t>{'曹杨路': 0.66}</t>
+    <t>{'迎春路': 0.76}</t>
+  </si>
+  <si>
+    <t>{'中宁路': 0.47, '曹杨路': 0.66}</t>
   </si>
   <si>
     <t>{'桂林路': 0.88, '虹漕路': 0.93}</t>
@@ -1495,13 +1609,16 @@
     <t>{'李子园': 0.75}</t>
   </si>
   <si>
-    <t>{'隆德路': 0.78}</t>
+    <t>{'武定路': 1.0, '隆德路': 0.78}</t>
+  </si>
+  <si>
+    <t>{'昌平路': 0.95, '武宁路': 1.0, '江苏路': 0.92}</t>
   </si>
   <si>
     <t>{'三门路': 0.96, '新江湾城': 0.75}</t>
   </si>
   <si>
-    <t>{'北洋泾路': 0.91, '源深体育中心': 0.9}</t>
+    <t>{'北洋泾路': 0.91, '昌邑路': 0.96, '源深体育中心': 0.9}</t>
   </si>
   <si>
     <t>{'红宝石路': 0.59}</t>
@@ -1516,16 +1633,22 @@
     <t>{'长寿路': 0.73}</t>
   </si>
   <si>
-    <t>{'宁国路': 0.94}</t>
-  </si>
-  <si>
-    <t>{'鞍山新村': 0.85}</t>
+    <t>{'宁国路': 0.94, '平凉路': 0.68}</t>
+  </si>
+  <si>
+    <t>{'抚顺路': 1.0, '鞍山新村': 0.85}</t>
   </si>
   <si>
     <t>{'五角场': 0.71}</t>
   </si>
   <si>
-    <t>{'东昌路': 0.83}</t>
+    <t>{'武定路': 0.92}</t>
+  </si>
+  <si>
+    <t>{'东昌路': 0.66, '商城路': 0.99, '浦东大道': 0.68, '陆家嘴': 0.98}</t>
+  </si>
+  <si>
+    <t>{'东昌路': 0.86, '浦东南路': 0.68}</t>
   </si>
   <si>
     <t>{'世纪大道': 0.85, '浦电路(6号线)': 0.37}</t>
@@ -1540,10 +1663,13 @@
     <t>{'东宝兴路': 0.81, '四川北路': 0.91}</t>
   </si>
   <si>
-    <t>{'陕西南路': 0.79, '黄陂南路': 0.88}</t>
-  </si>
-  <si>
-    <t>{'世纪大道': 0.85, '民生路': 0.9}</t>
+    <t>{'一大会址·黄陂南路': 0.89, '陕西南路': 0.79}</t>
+  </si>
+  <si>
+    <t>{'世纪大道': 0.85, '民生路': 0.9, '源深路': 0.99}</t>
+  </si>
+  <si>
+    <t>{'昌邑路': 0.91, '源深体育中心': 0.99}</t>
   </si>
   <si>
     <t>{'上海体育馆': 0.68, '上海游泳馆': 0.39, '龙漕路': 0.99}</t>
@@ -1558,7 +1684,10 @@
     <t>{'复兴岛': 0.83, '隆昌路': 0.91}</t>
   </si>
   <si>
-    <t>{'铜川路': 0.96}</t>
+    <t>{'中宁路': 0.94, '铜川路': 0.97}</t>
+  </si>
+  <si>
+    <t>{'定边路': 0.95}</t>
   </si>
   <si>
     <t>{'锦秋路': 0.81}</t>
@@ -1579,7 +1708,7 @@
     <t>{'中华艺术宫': 0.75, '云台路': 0.69, '成山路': 0.88, '长清路': 0.79}</t>
   </si>
   <si>
-    <t>{'大世界': 1.0, '新天地': 0.87, '陆家浜路': 0.83}</t>
+    <t>{'一大会址·新天地': 0.87, '陆家浜路': 0.83}</t>
   </si>
   <si>
     <t>{'衡山路': 0.67}</t>
@@ -1591,9 +1720,15 @@
     <t>{'龙阳路': 0.98}</t>
   </si>
   <si>
+    <t>{'芳芯路': 0.89}</t>
+  </si>
+  <si>
     <t>{'北洋泾路': 1.0}</t>
   </si>
   <si>
+    <t>{'北中路': 0.96, '芳华路': 0.89}</t>
+  </si>
+  <si>
     <t>{'塘桥': 0.88, '浦电路(6号线)': 0.95}</t>
   </si>
   <si>
@@ -1621,12 +1756,15 @@
     <t>{'徐泾东': 0.69}</t>
   </si>
   <si>
-    <t>{'大世界': 0.78}</t>
+    <t>{'大世界': 0.79}</t>
   </si>
   <si>
     <t>{'大柏树': 0.91, '曲阳路': 0.98}</t>
   </si>
   <si>
+    <t>{'上海科技馆': 0.67, '杨高中路': 0.76}</t>
+  </si>
+  <si>
     <t>{'四平路': 0.98, '曲阳路': 0.94}</t>
   </si>
   <si>
@@ -1645,7 +1783,7 @@
     <t>{'金吉路': 0.97}</t>
   </si>
   <si>
-    <t>{'梅岭北路': 0.87, '真如': 0.96}</t>
+    <t>{'梅岭北路': 0.87, '真如': 0.97}</t>
   </si>
   <si>
     <t>{'上海大学': 0.68, '祁华路': 0.81}</t>
@@ -1666,10 +1804,13 @@
     <t>{'三鲁公路': 0.95, '浦航路': 0.77}</t>
   </si>
   <si>
+    <t>{'浦东南路': 0.98}</t>
+  </si>
+  <si>
     <t>{'老西门': 0.83, '马当路': 0.88}</t>
   </si>
   <si>
-    <t>{'北蔡': 0.81}</t>
+    <t>{'北中路': 0.96, '北蔡': 0.81}</t>
   </si>
   <si>
     <t>{'常熟路': 0.93, '淮海中路': 0.79}</t>
@@ -1684,7 +1825,7 @@
     <t>{'四平路': 0.8, '江浦路': 0.85}</t>
   </si>
   <si>
-    <t>{'打浦桥': 0.89, '新天地': 0.79, '陆家浜路': 0.88}</t>
+    <t>{'一大会址·新天地': 0.79, '打浦桥': 0.89, '陆家浜路': 0.88}</t>
   </si>
   <si>
     <t>{'双江路': 0.96}</t>
@@ -1699,7 +1840,7 @@
     <t>{'延吉中路': 0.78}</t>
   </si>
   <si>
-    <t>{'大世界': 0.76, '新天地': 0.73, '淮海中路': 0.88}</t>
+    <t>{'云顺路': 0.95}</t>
   </si>
   <si>
     <t>{'云锦路': 0.87, '龙漕路': 0.89}</t>
@@ -1720,6 +1861,12 @@
     <t>{'世纪公园': 0.91, '花木路': 0.98}</t>
   </si>
   <si>
+    <t>{'一大会址·黄陂南路': 0.86, '世博会博物馆': 2.18, '人民广场': 1.83, '南京东路': 2.58, '南京西路': 2.08, '南浦大桥': 2.49, '嘉善路': 2.04, '大世界': 1.28, '大木桥路': 2.73, '小南门': 2.21, '常熟路': 2.5, '打浦桥': 1.28, '新闸路': 2.54, '曲阜路': 2.91, '淮海中路': 1.1, '老西门': 0.87, '自然博物馆': 2.54, '西藏南路': 2.11, '豫园': 1.73, '陆家浜路': 1.16, '陕西南路': 1.57, '静安寺': 2.85, '马当路': 0.79, '鲁班路': 1.91}</t>
+  </si>
+  <si>
+    <t>{'一大会址·新天地': 0.86, '人民广场': 1.01, '南京东路': 1.93, '南京西路': 1.4, '嘉善路': 2.62, '大世界': 0.71, '天潼路': 2.4, '小南门': 2.55, '常熟路': 2.54, '打浦桥': 2.0, '新闸路': 1.67, '曲阜路': 2.05, '汉中路': 2.41, '淮海中路': 0.89, '老西门': 1.17, '自然博物馆': 1.72, '西藏南路': 2.91, '豫园': 1.45, '陆家浜路': 1.84, '陕西南路': 1.66, '静安寺': 2.54, '马当路': 1.65, '鲁班路': 2.75}</t>
+  </si>
+  <si>
     <t>{'七莘路': 2.92, '中春路': 1.28, '星中路': 1.9, '紫藤路': 2.18, '航中路': 1.27}</t>
   </si>
   <si>
@@ -1732,7 +1879,7 @@
     <t>{'三林': 1.15, '上南路': 1.63, '华夏西路': 0.89, '浦三路': 1.6, '灵岩南路': 2.65, '高青路': 1.65}</t>
   </si>
   <si>
-    <t>{'五角场': 1.79, '国帆路': 2.99, '国权路': 2.67, '嫩江路': 2.25, '市光路': 2.48, '新江湾城': 1.7, '殷高东路': 0.96, '殷高西路': 2.36, '江湾体育场': 1.1, '江湾镇': 2.37, '翔殷路': 2.42, '长江南路': 2.64}</t>
+    <t>{'上海财经大学': 1.3, '五角场': 1.79, '国帆路': 2.99, '国权路': 2.67, '复旦大学': 2.09, '嫩江路': 2.25, '市光路': 2.48, '新江湾城': 1.7, '殷高东路': 0.96, '殷高西路': 2.36, '殷高路': 1.54, '江湾体育场': 1.1, '江湾镇': 2.37, '翔殷路': 2.42, '长江南路': 2.64}</t>
   </si>
   <si>
     <t>{'东城一路': 2.89, '沈杜公路': 1.56, '浦航路': 1.71, '联航路': 2.52, '闵瑞路': 0.95}</t>
@@ -1759,7 +1906,7 @@
     <t>{'上海游泳馆': 2.94, '华东理工大学': 1.32, '桂林公园': 1.7, '桂林路': 2.52, '漕宝路': 1.56, '漕溪路': 2.59, '石龙路': 1.31, '罗秀路': 2.62, '虹漕路': 2.13, '锦江乐园': 2.05, '龙华': 2.97, '龙漕路': 2.14, '龙耀路': 2.88}</t>
   </si>
   <si>
-    <t>{'上海体育场': 2.49, '上海体育馆': 2.87, '东安路': 2.15, '中山公园': 2.94, '交通大学': 1.08, '南京西路': 2.85, '嘉善路': 1.66, '大木桥路': 2.37, '宜山路': 2.87, '常熟路': 0.77, '延安西路': 2.6, '徐家汇': 1.58, '打浦桥': 2.32, '昌平路': 2.87, '江苏路': 1.9, '淮海中路': 2.36, '肇嘉浜路': 1.1, '虹桥路': 2.52, '衡山路': 0.43, '陕西南路': 1.58, '静安寺': 1.69, '龙华中路': 2.94}</t>
+    <t>{'上海体育场': 2.49, '上海体育馆': 2.87, '东安路': 2.15, '中山公园': 2.94, '交通大学': 1.08, '南京西路': 2.85, '嘉善路': 1.66, '大木桥路': 2.37, '宜山路': 2.87, '常熟路': 0.77, '延安西路': 2.6, '徐家汇': 1.58, '打浦桥': 2.32, '昌平路': 2.87, '武定路': 2.24, '江苏路': 1.9, '淮海中路': 2.36, '肇嘉浜路': 1.1, '虹桥路': 2.52, '衡山路': 0.43, '陕西南路': 1.58, '静安寺': 1.69, '龙华中路': 2.94}</t>
   </si>
   <si>
     <t>{'上大路': 1.97, '丰翔路': 1.57, '南大路': 2.53, '南陈路': 0.95, '祁华路': 1.47, '锦秋路': 0.68}</t>
@@ -1774,10 +1921,13 @@
     <t>{'东宝兴路': 2.4, '中兴路': 1.13, '中山北路': 1.04, '中潭路': 1.7, '人民广场': 2.49, '南京东路': 2.84, '南京西路': 2.21, '四川北路': 2.51, '天潼路': 2.42, '宝山路': 1.76, '延长路': 2.46, '新闸路': 1.58, '昌平路': 2.29, '曲阜路': 1.53, '汉中路': 0.86, '江宁路': 1.38, '自然博物馆': 1.52, '西藏北路': 1.85, '镇坪路': 2.7, '长寿路': 2.11}</t>
   </si>
   <si>
-    <t>{'上海儿童医学中心': 2.64, '世纪公园': 1.21, '世纪大道': 1.97, '北洋泾路': 2.38, '商城路': 2.96, '塘桥': 2.65, '杨高中路': 1.05, '民生路': 1.9, '浦电路(4号线)': 1.24, '浦电路(6号线)': 1.46, '源深体育中心': 1.83, '花木路': 1.94, '芳华路': 2.91, '芳甸路': 1.97, '蓝村路': 1.79, '龙阳路': 2.11}</t>
-  </si>
-  <si>
-    <t>{'古浪路': 2.6, '大华三路': 2.44, '岚皋路': 2.12, '新村路': 2.07, '李子园': 1.26, '枫桥路': 2.52, '梅岭北路': 2.23, '武威东路': 1.71, '真如': 1.45, '祁连山路': 2.57, '铜川路': 1.38}</t>
+    <t>{'上海儿童医学中心': 2.64, '世纪公园': 1.21, '世纪大道': 1.97, '北洋泾路': 2.38, '商城路': 2.96, '塘桥': 2.65, '昌邑路': 2.82, '杨高中路': 1.05, '民生路': 1.9, '浦电路(4号线)': 1.24, '浦电路(6号线)': 1.46, '源深体育中心': 1.83, '源深路': 2.81, '花木路': 1.94, '芳华路': 2.91, '芳甸路': 1.97, '蓝村路': 1.79, '迎春路': 0.67, '龙阳路': 2.11}</t>
+  </si>
+  <si>
+    <t>{'中宁路': 2.35, '古浪路': 2.6, '大华三路': 2.44, '岚皋路': 2.12, '新村路': 2.07, '李子园': 1.26, '枫桥路': 2.52, '梅岭北路': 2.23, '武威东路': 1.71, '真光路': 1.91, '真如': 1.45, '真新新村': 2.84, '祁连山路': 2.57, '铜川路': 1.38}</t>
+  </si>
+  <si>
+    <t>{'三门路': 1.3, '五角场': 2.04, '同济大学': 3.0, '国权路': 2.42, '复旦大学': 1.35, '大柏树': 2.38, '新江湾城': 2.53, '殷高东路': 1.86, '殷高西路': 1.75, '殷高路': 1.56, '江湾体育场': 1.66, '江湾镇': 1.1, '长江南路': 2.75}</t>
   </si>
   <si>
     <t>{'嘉定新城': 2.69, '白银路': 2.36}</t>
@@ -1786,22 +1936,22 @@
     <t>{'中山北路': 2.43, '中潭路': 3.0, '大华三路': 2.84, '延长路': 0.97, '彭浦新村': 2.99, '汶水路': 1.42, '虹口足球场': 2.75, '行知路': 2.96, '西藏北路': 2.42, '赤峰路': 2.89}</t>
   </si>
   <si>
-    <t>{'东明路': 2.89, '临沂新村': 2.72, '北蔡': 1.13, '华鹏路': 1.34, '杨高南路': 1.71, '芳华路': 1.8, '莲溪路': 2.74, '锦绣路': 0.92, '陈春路': 1.74, '高科西路': 2.97}</t>
+    <t>{'东明路': 2.89, '临沂新村': 2.72, '北中路': 2.05, '北蔡': 1.13, '华鹏路': 1.34, '杨高南路': 1.71, '芳华路': 1.8, '芳芯路': 2.24, '莲溪路': 2.74, '锦绣路': 0.92, '陈春路': 1.74, '高科西路': 2.97}</t>
   </si>
   <si>
     <t>{'航头': 2.02, '航头东': 2.72, '鹤涛路': 1.96}</t>
   </si>
   <si>
-    <t>{'世博大道': 1.66, '东安路': 2.65, '中华艺术宫': 1.79, '云台路': 2.48, '南浦大桥': 2.11, '后滩': 2.95, '嘉善路': 2.07, '大木桥路': 1.79, '小南门': 2.68, '打浦桥': 1.57, '新天地': 2.18, '淮海中路': 3.0, '耀华路': 2.45, '老西门': 2.39, '肇嘉浜路': 2.99, '西藏南路': 0.9, '长清路': 2.64, '陆家浜路': 1.64, '陕西南路': 2.92, '马当路': 1.39, '高科西路': 2.99, '鲁班路': 0.64, '黄陂南路': 2.91, '龙华中路': 2.79}</t>
+    <t>{'一大会址·新天地': 2.18, '世博大道': 1.66, '东安路': 2.65, '中华艺术宫': 1.79, '云台路': 2.48, '南浦大桥': 2.11, '后滩': 2.95, '嘉善路': 2.07, '大木桥路': 1.79, '小南门': 2.68, '打浦桥': 1.57, '淮海中路': 3.0, '耀华路': 2.45, '老西门': 2.39, '肇嘉浜路': 2.99, '西藏南路': 0.9, '长清路': 2.64, '陆家浜路': 1.64, '陕西南路': 2.92, '马当路': 1.39, '高科西路': 2.99, '鲁班路': 0.64, '龙华中路': 2.79}</t>
   </si>
   <si>
     <t>{'世博会博物馆': 1.66, '东安路': 2.94, '东明路': 2.77, '中华艺术宫': 0.93, '云台路': 1.54, '后滩': 1.57, '大木桥路': 2.36, '成山路': 1.75, '杨思': 2.57, '耀华路': 1.09, '西藏南路': 2.19, '长清路': 0.98, '高科西路': 2.45, '鲁班路': 2.02, '龙华中路': 2.6}</t>
   </si>
   <si>
-    <t>{'上海儿童医学中心': 2.7, '上海科技馆': 1.21, '杨高中路': 2.02, '浦电路(4号线)': 2.29, '浦电路(6号线)': 2.39, '花木路': 1.14, '芳华路': 1.82, '芳甸路': 2.59, '蓝村路': 2.23, '锦绣路': 2.64, '龙阳路': 0.91}</t>
-  </si>
-  <si>
-    <t>{'上海儿童医学中心': 2.85, '上海科技馆': 1.97, '东昌路': 1.22, '北洋泾路': 2.66, '商城路': 1.05, '塘桥': 2.25, '杨树浦路': 2.75, '杨高中路': 2.04, '民生路': 1.74, '浦东大道': 1.46, '浦电路(4号线)': 0.85, '浦电路(6号线)': 0.97, '源深体育中心': 0.85, '芳甸路': 2.99, '蓝村路': 1.89, '陆家嘴': 2.6}</t>
+    <t>{'上海儿童医学中心': 2.7, '上海科技馆': 1.21, '杨高中路': 2.02, '浦电路(4号线)': 2.29, '浦电路(6号线)': 2.39, '花木路': 1.14, '芳华路': 1.82, '芳甸路': 2.59, '芳芯路': 2.18, '蓝村路': 2.23, '迎春路': 1.29, '锦绣路': 2.64, '龙阳路': 0.91}</t>
+  </si>
+  <si>
+    <t>{'上海儿童医学中心': 2.85, '上海科技馆': 1.97, '东昌路': 1.22, '丹阳路': 2.82, '北洋泾路': 2.66, '商城路': 1.05, '塘桥': 2.25, '昌邑路': 2.09, '杨树浦路': 2.75, '杨高中路': 2.04, '民生路': 1.74, '浦东南路': 1.78, '浦东大道': 1.5, '浦电路(4号线)': 0.85, '浦电路(6号线)': 0.97, '源深体育中心': 0.85, '源深路': 1.45, '芳甸路': 2.99, '蓝村路': 1.89, '迎春路': 2.42, '陆家嘴': 2.61}</t>
   </si>
   <si>
     <t>{'合川路': 1.37, '星中路': 2.2, '桂林公园': 2.92, '漕河泾开发区': 1.74, '紫藤路': 3.0, '莲花路': 2.96, '虹梅路': 0.71, '虹漕路': 1.99, '虹莘路': 2.32, '锦江乐园': 2.6, '顾戴路': 1.66}</t>
@@ -1825,7 +1975,7 @@
     <t>{'朱家角': 2.81}</t>
   </si>
   <si>
-    <t>{'世纪大道': 1.22, '南京东路': 2.99, '商城路': 0.34, '国际客运中心': 2.5, '塘桥': 2.63, '大连路': 2.75, '小南门': 2.45, '提篮桥': 2.4, '杨树浦路': 2.08, '民生路': 2.67, '浦东大道': 0.83, '浦电路(4号线)': 1.99, '浦电路(6号线)': 1.95, '源深体育中心': 1.81, '蓝村路': 2.66, '豫园': 2.74, '陆家嘴': 1.38}</t>
+    <t>{'世纪大道': 1.22, '丹阳路': 2.72, '南京东路': 2.99, '商城路': 0.34, '国际客运中心': 2.5, '塘桥': 2.63, '大连路': 2.75, '小南门': 2.45, '提篮桥': 2.4, '昌邑路': 2.62, '杨树浦路': 2.08, '民生路': 2.67, '浦东南路': 0.66, '浦东大道': 0.86, '浦电路(4号线)': 1.99, '浦电路(6号线)': 1.95, '源深体育中心': 1.81, '源深路': 1.72, '蓝村路': 2.66, '豫园': 2.74, '陆家嘴': 1.39}</t>
   </si>
   <si>
     <t>{'上南路': 2.66, '下南路': 2.89, '世博大道': 2.77, '中华艺术宫': 2.16, '临沂新村': 2.35, '云台路': 1.45, '华夏西路': 2.56, '华鹏路': 1.55, '成山路': 1.41, '杨思': 2.1, '杨高南路': 2.14, '耀华路': 1.68, '长清路': 2.21, '高科西路': 1.46, '高青路': 1.49}</t>
@@ -1843,7 +1993,10 @@
     <t>{'世博会博物馆': 1.79, '世博大道': 0.93, '东明路': 2.16, '临沂新村': 2.37, '云台路': 0.73, '南浦大桥': 2.65, '后滩': 2.4, '成山路': 1.63, '杨思': 2.69, '杨高南路': 3.0, '耀华路': 0.75, '西藏南路': 1.9, '长清路': 1.32, '高科西路': 1.54, '鲁班路': 2.35}</t>
   </si>
   <si>
-    <t>{'上海图书馆': 2.94, '交通大学': 2.55, '伊犁路': 2.4, '大渡河路': 2.54, '威宁路': 2.73, '娄山关路': 1.35, '宋园路': 2.41, '延安西路': 0.93, '曹杨路': 2.38, '枫桥路': 2.69, '武宁路': 2.3, '江苏路': 1.44, '红宝石路': 2.71, '虹桥路': 2.32, '金沙江路': 1.58, '长风公园': 2.08, '隆德路': 1.58, '静安寺': 2.95}</t>
+    <t>{'上海西站': 2.35, '中潭路': 2.73, '大渡河路': 2.42, '岚皋路': 1.42, '新村路': 2.24, '昌平路': 2.95, '曹杨路': 0.71, '枫桥路': 0.47, '梅岭北路': 1.69, '武宁路': 1.93, '武定路': 2.9, '江宁路': 2.88, '真如': 0.94, '金沙江路': 1.46, '铜川路': 1.78, '镇坪路': 1.46, '长寿路': 2.3, '长风公园': 2.72, '隆德路': 1.83}</t>
+  </si>
+  <si>
+    <t>{'上海图书馆': 2.94, '交通大学': 2.55, '伊犁路': 2.4, '大渡河路': 2.54, '威宁路': 2.73, '娄山关路': 1.35, '宋园路': 2.41, '延安西路': 0.93, '曹杨路': 2.38, '枫桥路': 2.69, '武宁路': 2.3, '武定路': 2.21, '江苏路': 1.44, '红宝石路': 2.71, '虹桥路': 2.32, '金沙江路': 1.58, '长风公园': 2.08, '隆德路': 1.58, '静安寺': 2.95}</t>
   </si>
   <si>
     <t>{'上海火车站': 1.04, '上海马戏城': 2.43, '东宝兴路': 2.0, '中兴路': 1.13, '中潭路': 1.8, '四川北路': 2.5, '天潼路': 2.77, '宝山路': 1.82, '延长路': 1.47, '新闸路': 2.43, '曲阜路': 2.19, '汉中路': 1.89, '江宁路': 2.12, '海伦路': 2.8, '自然博物馆': 2.51, '虹口足球场': 2.35, '西藏北路': 1.04, '长寿路': 2.82}</t>
@@ -1852,52 +2005,64 @@
     <t>{'七宝': 1.28, '九亭': 2.2, '航中路': 2.45}</t>
   </si>
   <si>
-    <t>{'上海火车站': 1.7, '上海马戏城': 3.0, '中兴路': 2.67, '中山北路': 1.8, '大华三路': 2.76, '岚皋路': 1.82, '延长路': 2.34, '新村路': 2.03, '昌平路': 2.32, '曹杨路': 2.79, '武宁路': 2.46, '汉中路': 2.2, '江宁路': 1.2, '自然博物馆': 2.86, '西藏北路': 2.82, '镇坪路': 1.4, '长寿路': 1.55}</t>
+    <t>{'上海火车站': 1.7, '上海马戏城': 3.0, '中兴路': 2.67, '中宁路': 2.73, '中山北路': 1.8, '大华三路': 2.76, '岚皋路': 1.82, '延长路': 2.34, '新村路': 2.03, '昌平路': 2.32, '曹杨路': 2.79, '武宁路': 2.46, '汉中路': 2.2, '江宁路': 1.2, '自然博物馆': 2.86, '西藏北路': 2.82, '镇坪路': 1.4, '长寿路': 1.55}</t>
   </si>
   <si>
     <t>{'华夏中路': 1.87, '学林路': 1.24, '张江路': 2.79, '张江高科': 2.92, '罗山路': 2.98, '金科路': 2.82}</t>
   </si>
   <si>
-    <t>{'淞虹路': 2.74, '真北路': 2.79, '祁连山南路': 1.28, '金沙江西路': 1.91}</t>
+    <t>{'嘉怡路': 2.06, '定边路': 1.69, '淞虹路': 2.74, '真北路': 2.79, '真新新村': 2.17, '祁连山南路': 1.28, '金沙江西路': 1.91}</t>
   </si>
   <si>
     <t>{'上大路': 2.74, '上海大学': 1.57, '南大路': 1.01, '南陈路': 2.25, '古浪路': 2.81, '祁华路': 1.71, '祁安路': 1.89, '锦秋路': 1.33}</t>
   </si>
   <si>
-    <t>{'东宝兴路': 1.95, '南京东路': 2.96, '同济大学': 2.42, '四川北路': 1.85, '四平路': 1.56, '国际客运中心': 1.22, '大连路': 1.22, '天潼路': 2.57, '宝山路': 2.54, '提篮桥': 1.0, '曲阳路': 1.96, '杨树浦路': 1.86, '江浦公园': 2.22, '江浦路': 2.3, '浦东大道': 2.93, '海伦路': 1.15, '虹口足球场': 2.36, '赤峰路': 2.85, '邮电新村': 1.04, '陆家嘴': 2.53, '鞍山新村': 1.62}</t>
+    <t>{'东宝兴路': 1.95, '丹阳路': 3.0, '南京东路': 2.96, '同济大学': 2.42, '四川北路': 1.85, '四平路': 1.56, '国际客运中心': 1.22, '大连路': 1.22, '天潼路': 2.57, '宝山路': 2.54, '平凉路': 2.48, '抚顺路': 2.91, '提篮桥': 1.0, '曲阳路': 1.96, '杨树浦路': 1.86, '江浦公园': 2.22, '江浦路': 2.3, '浦东南路': 2.72, '浦东大道': 2.89, '海伦路': 1.15, '虹口足球场': 2.36, '赤峰路': 2.85, '邮电新村': 1.04, '陆家嘴': 2.52, '鞍山新村': 1.62}</t>
   </si>
   <si>
     <t>{'上海儿童医学中心': 1.29, '下南路': 2.72, '东明路': 2.35, '中华艺术宫': 2.37, '云台路': 1.97, '华鹏路': 2.1, '南浦大桥': 2.35, '塘桥': 1.85, '杨高南路': 1.01, '耀华路': 2.66, '蓝村路': 2.3, '西藏南路': 2.76, '锦绣路': 2.31, '高科西路': 1.05}</t>
   </si>
   <si>
+    <t>{'乐秀路': 1.61, '嘉怡路': 1.47, '桃浦新村': 2.73, '金沙江西路': 2.47, '金运路': 2.69}</t>
+  </si>
+  <si>
     <t>{'滴水湖': 2.54}</t>
   </si>
   <si>
+    <t>{'世纪大道': 2.82, '东昌路': 2.72, '临平路': 3.0, '北洋泾路': 2.59, '商城路': 2.98, '大连路': 1.78, '宁国路': 1.65, '平凉路': 0.72, '提篮桥': 2.32, '昌邑路': 1.39, '杨树浦路': 1.34, '歇浦路': 1.95, '民生路': 2.32, '江浦公园': 1.39, '江浦路': 2.65, '浦东南路': 2.46, '浦东大道': 1.88, '源深体育中心': 2.34, '源深路': 1.39, '隆昌路': 2.7, '鞍山新村': 2.97, '黄兴路': 2.79}</t>
+  </si>
+  <si>
+    <t>{'临洮路': 1.61, '封浜': 1.64, '金运路': 2.76}</t>
+  </si>
+  <si>
     <t>{'中春路': 2.2}</t>
   </si>
   <si>
     <t>{'世博会博物馆': 2.48, '世博大道': 1.54, '东明路': 1.45, '中华艺术宫': 0.73, '临沂新村': 1.97, '华鹏路': 2.57, '南浦大桥': 2.92, '后滩': 2.78, '成山路': 1.34, '杨思': 2.45, '杨高南路': 2.42, '耀华路': 0.69, '西藏南路': 2.43, '长清路': 1.48, '高科西路': 0.98, '高青路': 2.88}</t>
   </si>
   <si>
-    <t>{'五莲路': 2.8, '北洋泾路': 2.31, '博兴路': 1.97, '台儿庄路': 2.36, '德平路': 0.98, '芳甸路': 2.47, '蓝天路': 1.16, '金桥路': 1.14}</t>
+    <t>{'五莲路': 2.83, '北洋泾路': 2.22, '博兴路': 2.03, '台儿庄路': 2.51, '德平路': 0.9, '歇浦路': 1.88, '芳甸路': 2.45, '蓝天路': 1.28, '金桥路': 1.22, '黄杨路': 2.67}</t>
   </si>
   <si>
     <t>{'上海体育场': 2.56, '上海体育馆': 2.71, '上海游泳馆': 2.15, '东安路': 2.73, '东方体育中心': 2.53, '后滩': 1.57, '漕宝路': 2.42, '漕溪路': 2.23, '石龙路': 1.74, '长清路': 2.92, '龙华': 0.87, '龙华中路': 1.93, '龙漕路': 1.38, '龙耀路': 0.76}</t>
   </si>
   <si>
+    <t>{'台儿庄路': 1.77, '浦东足球场': 1.52, '蓝天路': 2.17, '金桥': 2.84, '金桥路': 2.84, '金粤路': 2.78, '黄杨路': 0.95}</t>
+  </si>
+  <si>
     <t>{'东陆路': 2.43, '东靖路': 1.32, '外高桥保税区南': 2.44, '巨峰路': 2.43, '杨高北路': 2.82, '洲海路': 1.07}</t>
   </si>
   <si>
-    <t>{'东陆路': 1.43, '东靖路': 2.08, '云山路': 2.8, '博兴路': 0.95, '台儿庄路': 2.32, '复兴岛': 2.7, '巨峰路': 0.96, '杨高北路': 1.69, '金京路': 2.76, '金桥': 2.55, '金桥路': 1.76}</t>
-  </si>
-  <si>
-    <t>{'三门路': 1.79, '同济大学': 1.94, '四平路': 2.86, '国权路': 1.07, '嫩江路': 2.49, '延吉中路': 2.2, '殷高东路': 2.74, '江浦路': 2.59, '江湾体育场': 0.71, '江湾镇': 2.93, '翔殷路': 1.82, '鞍山新村': 2.8, '黄兴公园': 1.81, '黄兴路': 2.51}</t>
-  </si>
-  <si>
-    <t>{'上海体育场': 2.01, '上海体育馆': 2.17, '上海图书馆': 1.08, '上海游泳馆': 2.63, '东安路': 2.26, '中山公园': 2.55, '吴中路': 2.69, '嘉善路': 2.42, '大木桥路': 2.82, '姚虹路': 2.96, '宋园路': 2.29, '宜山路': 1.89, '常熟路': 1.82, '延安西路': 1.92, '徐家汇': 0.78, '江苏路': 2.07, '漕溪路': 2.85, '肇嘉浜路': 1.46, '虹桥路': 1.47, '衡山路': 1.09, '陕西南路': 2.66, '静安寺': 2.54, '龙华中路': 2.91}</t>
-  </si>
-  <si>
-    <t>{'上海火车站': 2.49, '中兴路': 2.35, '南京东路': 1.08, '南京西路': 1.48, '四川北路': 2.31, '国际客运中心': 2.92, '大世界': 0.74, '天潼路': 1.41, '宝山路': 2.09, '小南门': 2.83, '新天地': 1.83, '新闸路': 0.91, '曲阜路': 1.11, '汉中路': 1.86, '淮海中路': 1.72, '老西门': 1.74, '自然博物馆': 1.28, '豫园': 1.3, '陆家嘴': 2.65, '陆家浜路': 2.56, '陕西南路': 2.5, '静安寺': 2.95, '马当路': 2.59, '黄陂南路': 1.13}</t>
+    <t>{'东陆路': 1.43, '东靖路': 2.08, '云山路': 2.83, '博兴路': 0.95, '台儿庄路': 2.32, '复兴岛': 2.7, '巨峰路': 0.96, '杨高北路': 1.69, '金京路': 2.76, '金桥': 2.55, '金桥路': 1.76}</t>
+  </si>
+  <si>
+    <t>{'三门路': 1.79, '上海财经大学': 2.04, '同济大学': 1.94, '四平路': 2.86, '国权路': 1.07, '复旦大学': 1.44, '嫩江路': 2.49, '延吉中路': 2.2, '抚顺路': 1.6, '殷高东路': 2.74, '江浦路': 2.59, '江湾体育场': 0.71, '江湾镇': 2.93, '翔殷路': 1.82, '鞍山新村': 2.8, '黄兴公园': 1.81, '黄兴路': 2.51}</t>
+  </si>
+  <si>
+    <t>{'上海体育场': 2.01, '上海体育馆': 2.17, '上海图书馆': 1.08, '上海游泳馆': 2.63, '东安路': 2.26, '中山公园': 2.55, '吴中路': 2.69, '嘉善路': 2.42, '大木桥路': 2.82, '姚虹路': 2.96, '宋园路': 2.29, '宜山路': 1.89, '常熟路': 1.82, '延安西路': 1.92, '徐家汇': 0.78, '武定路': 2.76, '江苏路': 2.07, '漕溪路': 2.85, '肇嘉浜路': 1.46, '虹桥路': 1.47, '衡山路': 1.09, '陕西南路': 2.66, '静安寺': 2.54, '龙华中路': 2.91}</t>
+  </si>
+  <si>
+    <t>{'一大会址·新天地': 1.83, '一大会址·黄陂南路': 1.01, '上海火车站': 2.49, '中兴路': 2.35, '南京东路': 1.08, '南京西路': 1.48, '四川北路': 2.31, '国际客运中心': 2.92, '大世界': 0.71, '天潼路': 1.41, '宝山路': 2.09, '小南门': 2.83, '新闸路': 0.91, '曲阜路': 1.11, '汉中路': 1.86, '淮海中路': 1.72, '老西门': 1.74, '自然博物馆': 1.28, '豫园': 1.3, '陆家嘴': 2.64, '陆家浜路': 2.56, '陕西南路': 2.5, '静安寺': 2.95, '马当路': 2.59}</t>
   </si>
   <si>
     <t>{'中山公园': 2.4, '吴中路': 1.63, '姚虹路': 0.86, '威宁路': 2.38, '娄山关路': 1.37, '宋园路': 0.82, '宜山路': 2.6, '延安西路': 1.73, '桂林路': 3.0, '水城路': 1.11, '红宝石路': 0.53, '虹桥路': 1.62, '龙溪路': 2.32}</t>
@@ -1936,16 +2101,19 @@
     <t>{'东川路': 0.97, '北桥': 2.16, '华宁路': 2.93, '永德路': 2.9, '江川路': 2.43, '金平路': 1.8}</t>
   </si>
   <si>
+    <t>{'下南路': 2.05, '北蔡': 0.94, '华夏中路': 2.21, '御桥': 2.89, '芳华路': 1.57, '芳芯路': 0.96, '莲溪路': 1.59, '锦绣路': 2.1, '陈春路': 0.96, '龙阳路': 2.34}</t>
+  </si>
+  <si>
     <t>{'上海动物园': 2.96, '大渡河路': 2.59, '威宁路': 1.27, '娄山关路': 2.92, '水城路': 2.56, '淞虹路': 1.39, '真北路': 1.92, '祁连山南路': 2.45, '长风公园': 2.38, '龙溪路': 2.51}</t>
   </si>
   <si>
     <t>{'元江路': 2.86, '剑川路': 2.16, '颛桥': 2.56}</t>
   </si>
   <si>
-    <t>{'上海科技馆': 2.38, '世纪大道': 2.66, '云山路': 2.31, '德平路': 1.33, '杨高中路': 1.34, '民生路': 0.91, '浦电路(4号线)': 2.69, '源深体育中心': 1.81, '芳甸路': 1.0, '蓝天路': 2.45}</t>
-  </si>
-  <si>
-    <t>{'下南路': 1.13, '华夏中路': 3.0, '华鹏路': 2.46, '杨高南路': 2.69, '芳华路': 1.45, '莲溪路': 1.84, '锦绣路': 1.41, '陈春路': 0.81, '龙阳路': 2.66}</t>
+    <t>{'上海科技馆': 2.38, '世纪大道': 2.66, '丹阳路': 2.59, '云山路': 2.22, '德平路': 1.33, '昌邑路': 1.28, '杨高中路': 1.34, '歇浦路': 1.27, '民生路': 0.91, '浦电路(4号线)': 2.69, '源深体育中心': 1.81, '源深路': 2.04, '芳甸路': 1.0, '蓝天路': 2.45, '迎春路': 2.02}</t>
+  </si>
+  <si>
+    <t>{'下南路': 1.13, '北中路': 0.94, '华夏中路': 3.0, '华鹏路': 2.46, '杨高南路': 2.69, '芳华路': 1.45, '芳芯路': 1.4, '莲溪路': 1.84, '锦绣路': 1.41, '陈春路': 0.81, '龙阳路': 2.66}</t>
   </si>
   <si>
     <t>{'上海南站': 1.32, '朱梅路': 2.2, '桂林公园': 2.84, '漕宝路': 2.88, '石龙路': 2.16, '罗秀路': 1.4, '莲花路': 2.82, '虹漕路': 2.96, '锦江乐园': 1.43}</t>
@@ -1954,7 +2122,7 @@
     <t>{'创新中路': 2.04, '川沙': 1.97}</t>
   </si>
   <si>
-    <t>{'中科路': 1.87, '北蔡': 3.0, '张江高科': 2.93, '御桥': 2.28, '罗山路': 2.68, '莲溪路': 1.75, '陈春路': 2.42}</t>
+    <t>{'中科路': 1.87, '北中路': 2.21, '北蔡': 3.0, '张江高科': 2.93, '御桥': 2.28, '罗山路': 2.68, '芳芯路': 2.84, '莲溪路': 1.75, '陈春路': 2.42}</t>
   </si>
   <si>
     <t>{'三林': 0.8, '三林东': 0.89, '上南路': 0.8, '东明路': 2.56, '凌兆新村': 2.55, '成山路': 2.9, '杨思': 2.36, '浦三路': 2.33, '灵岩南路': 1.84, '高青路': 1.12}</t>
@@ -1969,16 +2137,16 @@
     <t>{'下南路': 1.34, '东明路': 1.55, '临沂新村': 2.1, '云台路': 2.57, '北蔡': 2.46, '成山路': 2.95, '杨高南路': 1.26, '芳华路': 2.92, '锦绣路': 1.8, '陈春路': 2.97, '高科西路': 1.91, '高青路': 2.09}</t>
   </si>
   <si>
-    <t>{'上海火车站': 2.84, '东宝兴路': 2.46, '东昌路': 2.99, '中兴路': 2.24, '临平路': 2.96, '人民广场': 1.08, '南京西路': 2.52, '四川北路': 1.55, '国际客运中心': 1.86, '大世界': 1.31, '天潼路': 0.67, '宝山路': 1.69, '小南门': 2.7, '提篮桥': 2.72, '新天地': 2.58, '新闸路': 1.57, '曲阜路': 1.33, '汉中路': 2.5, '海伦路': 2.39, '淮海中路': 2.75, '老西门': 2.12, '自然博物馆': 2.12, '豫园': 1.18, '陆家嘴': 1.68, '陆家浜路': 2.93, '黄陂南路': 2.02}</t>
-  </si>
-  <si>
-    <t>{'上海图书馆': 2.85, '上海火车站': 2.21, '中兴路': 2.74, '人民广场': 1.48, '南京东路': 2.52, '大世界': 1.86, '天潼路': 2.64, '宝山路': 2.87, '常熟路': 2.09, '打浦桥': 2.75, '新天地': 2.08, '新闸路': 1.23, '昌平路': 1.71, '曲阜路': 1.77, '武宁路': 2.85, '汉中路': 1.34, '江宁路': 2.16, '江苏路': 2.98, '淮海中路': 1.15, '老西门': 2.57, '自然博物馆': 0.77, '豫园': 2.62, '长寿路': 2.4, '陕西南路': 1.64, '静安寺': 1.51, '马当路': 2.8, '黄陂南路': 1.49}</t>
+    <t>{'一大会址·新天地': 2.58, '一大会址·黄陂南路': 1.93, '上海火车站': 2.84, '东宝兴路': 2.46, '东昌路': 2.99, '中兴路': 2.24, '临平路': 2.96, '人民广场': 1.08, '南京西路': 2.52, '四川北路': 1.55, '国际客运中心': 1.86, '大世界': 1.3, '天潼路': 0.67, '宝山路': 1.69, '小南门': 2.7, '提篮桥': 2.72, '新闸路': 1.57, '曲阜路': 1.33, '汉中路': 2.5, '浦东南路': 2.64, '海伦路': 2.39, '淮海中路': 2.75, '老西门': 2.12, '自然博物馆': 2.12, '豫园': 1.18, '陆家嘴': 1.66, '陆家浜路': 2.93}</t>
+  </si>
+  <si>
+    <t>{'一大会址·新天地': 2.08, '一大会址·黄陂南路': 1.4, '上海图书馆': 2.85, '上海火车站': 2.21, '中兴路': 2.74, '人民广场': 1.48, '南京东路': 2.52, '大世界': 1.85, '天潼路': 2.64, '宝山路': 2.87, '常熟路': 2.09, '打浦桥': 2.75, '新闸路': 1.23, '昌平路': 1.71, '曲阜路': 1.77, '武宁路': 2.85, '武定路': 2.25, '汉中路': 1.34, '江宁路': 2.16, '江苏路': 2.98, '淮海中路': 1.15, '老西门': 2.57, '自然博物馆': 0.77, '豫园': 2.62, '长寿路': 2.4, '陕西南路': 1.64, '静安寺': 1.51, '马当路': 2.8}</t>
   </si>
   <si>
     <t>{'上海大学': 2.53, '丰翔路': 1.01, '古浪路': 1.96, '武威东路': 2.81, '武威路': 2.9, '祁华路': 2.65, '祁安路': 0.96, '锦秋路': 2.35}</t>
   </si>
   <si>
-    <t>{'上海儿童医学中心': 2.33, '世博会博物馆': 2.11, '中华艺术宫': 2.65, '临沂新村': 2.35, '云台路': 2.92, '商城路': 2.89, '塘桥': 1.81, '大世界': 2.84, '小南门': 0.94, '打浦桥': 2.96, '新天地': 2.49, '老西门': 1.91, '蓝村路': 2.68, '西藏南路': 1.21, '豫园': 2.44, '陆家浜路': 1.34, '马当路': 2.14, '高科西路': 2.71, '鲁班路': 2.56, '黄陂南路': 2.97}</t>
+    <t>{'一大会址·新天地': 2.49, '上海儿童医学中心': 2.33, '世博会博物馆': 2.11, '中华艺术宫': 2.65, '临沂新村': 2.35, '云台路': 2.92, '商城路': 2.89, '塘桥': 1.81, '大世界': 2.87, '小南门': 0.94, '打浦桥': 2.96, '老西门': 1.91, '蓝村路': 2.68, '西藏南路': 1.21, '豫园': 2.44, '陆家浜路': 1.34, '马当路': 2.14, '高科西路': 2.71, '鲁班路': 2.56}</t>
   </si>
   <si>
     <t>{'陈翔公路': 1.89}</t>
@@ -1987,7 +2155,7 @@
     <t>{'上大路': 1.16, '上海大学': 0.95, '丰翔路': 2.25, '场中路': 2.42, '祁华路': 2.4, '锦秋路': 1.63}</t>
   </si>
   <si>
-    <t>{'东陆路': 2.23, '云山路': 1.97, '五莲路': 0.95, '台儿庄路': 1.57, '巨峰路': 1.92, '德平路': 2.94, '杨高北路': 2.41, '蓝天路': 2.64, '金桥': 2.36, '金桥路': 0.85}</t>
+    <t>{'东陆路': 2.23, '云山路': 2.03, '五莲路': 0.95, '台儿庄路': 1.57, '巨峰路': 1.92, '德平路': 2.94, '杨高北路': 2.41, '蓝天路': 2.64, '金桥': 2.36, '金桥路': 0.85}</t>
   </si>
   <si>
     <t>{'共富新村': 2.97, '宝安公路': 1.34, '富锦路': 1.26}</t>
@@ -2005,13 +2173,13 @@
     <t>{'上海西站': 2.6, '丰翔路': 2.81, '南大路': 1.96, '场中路': 2.92, '大场镇': 2.49, '李子园': 1.77, '武威东路': 1.02, '武威路': 2.78, '祁安路': 1.02, '祁连山路': 2.13, '行知路': 2.78}</t>
   </si>
   <si>
-    <t>{'云山路': 2.36, '五莲路': 2.32, '博兴路': 1.57, '蓝天路': 2.27, '金桥': 1.59, '金桥路': 1.56}</t>
+    <t>{'云山路': 2.51, '云顺路': 1.77, '五莲路': 2.32, '博兴路': 1.57, '浦东足球场': 2.11, '蓝天路': 2.27, '金桥': 1.59, '金桥路': 1.56, '黄杨路': 2.18}</t>
   </si>
   <si>
     <t>{'东兰路': 1.37, '星中路': 1.78, '漕河泾开发区': 1.32, '紫藤路': 1.93, '航中路': 2.8, '虹梅路': 1.37, '虹漕路': 2.47, '顾戴路': 2.93, '龙柏新村': 1.78}</t>
   </si>
   <si>
-    <t>{'临平路': 2.42, '五角场': 1.94, '四平路': 0.93, '国权路': 0.87, '大柏树': 2.35, '大连路': 2.76, '宁国路': 2.89, '延吉中路': 2.81, '曲阳路': 1.57, '江浦公园': 2.55, '江浦路': 1.39, '江湾体育场': 2.56, '虹口足球场': 2.85, '赤峰路': 2.28, '邮电新村': 1.89, '鞍山新村': 1.03, '黄兴公园': 2.96, '黄兴路': 2.13}</t>
+    <t>{'上海财经大学': 3.0, '临平路': 2.42, '五角场': 1.94, '四平路': 0.93, '国权路': 0.87, '复旦大学': 1.66, '大柏树': 2.35, '大连路': 2.76, '宁国路': 2.89, '延吉中路': 2.81, '抚顺路': 0.91, '曲阳路': 1.57, '江浦公园': 2.55, '江浦路': 1.39, '江湾体育场': 2.56, '虹口足球场': 2.85, '赤峰路': 2.28, '邮电新村': 1.89, '鞍山新村': 1.03, '黄兴公园': 2.96, '黄兴路': 2.13}</t>
   </si>
   <si>
     <t>{'世博会博物馆': 2.95, '世博大道': 1.57, '东安路': 2.76, '东方体育中心': 2.15, '中华艺术宫': 2.4, '云台路': 2.78, '云锦路': 1.57, '大木桥路': 2.66, '成山路': 2.14, '杨思': 2.23, '耀华路': 2.12, '长清路': 1.36, '龙华': 1.98, '龙华中路': 2.07, '龙漕路': 2.81, '龙耀路': 1.9}</t>
@@ -2032,10 +2200,10 @@
     <t>{'创新中路': 1.66}</t>
   </si>
   <si>
-    <t>{'上海科技馆': 2.96, '世纪大道': 1.05, '东昌路': 0.34, '南浦大桥': 2.89, '国际客运中心': 2.8, '塘桥': 2.29, '小南门': 2.26, '提篮桥': 2.74, '杨树浦路': 2.41, '民生路': 2.66, '浦东大道': 1.12, '浦电路(4号线)': 1.74, '浦电路(6号线)': 1.66, '源深体育中心': 1.77, '蓝村路': 2.33, '豫园': 2.75, '陆家嘴': 1.6}</t>
-  </si>
-  <si>
-    <t>{'上海体育场': 2.52, '上海图书馆': 1.66, '世博会博物馆': 2.07, '东安路': 1.44, '交通大学': 2.42, '大木桥路': 1.0, '常熟路': 1.62, '徐家汇': 2.42, '打浦桥': 0.85, '新天地': 2.04, '淮海中路': 1.97, '老西门': 2.84, '肇嘉浜路': 1.07, '衡山路': 1.37, '西藏南路': 2.75, '陆家浜路': 2.61, '陕西南路': 1.38, '静安寺': 2.64, '马当路': 1.74, '鲁班路': 1.43, '黄陂南路': 2.52, '龙华中路': 2.14}</t>
+    <t>{'上海科技馆': 2.96, '世纪大道': 1.05, '东昌路': 0.34, '丹阳路': 2.98, '南浦大桥': 2.89, '国际客运中心': 2.8, '塘桥': 2.29, '小南门': 2.26, '提篮桥': 2.74, '昌邑路': 2.73, '杨树浦路': 2.41, '民生路': 2.66, '浦东南路': 0.99, '浦东大道': 1.15, '浦电路(4号线)': 1.74, '浦电路(6号线)': 1.66, '源深体育中心': 1.77, '源深路': 1.86, '蓝村路': 2.33, '豫园': 2.75, '陆家嘴': 1.61}</t>
+  </si>
+  <si>
+    <t>{'一大会址·新天地': 2.04, '一大会址·黄陂南路': 2.62, '上海体育场': 2.52, '上海图书馆': 1.66, '世博会博物馆': 2.07, '东安路': 1.44, '交通大学': 2.42, '大木桥路': 1.0, '常熟路': 1.62, '徐家汇': 2.42, '打浦桥': 0.85, '淮海中路': 1.97, '老西门': 2.84, '肇嘉浜路': 1.07, '衡山路': 1.37, '西藏南路': 2.75, '陆家浜路': 2.61, '陕西南路': 1.38, '静安寺': 2.64, '马当路': 1.74, '鲁班路': 1.43, '龙华中路': 2.14}</t>
   </si>
   <si>
     <t>{'嘉定西': 1.84}</t>
@@ -2047,22 +2215,25 @@
     <t>{'嘉定北': 1.84}</t>
   </si>
   <si>
+    <t>{'丰庄': 2.06, '临洮路': 1.47, '定边路': 1.62, '桃浦新村': 2.52, '武威路': 2.65, '真新新村': 2.56, '金沙江西路': 2.24}</t>
+  </si>
+  <si>
     <t>{'徐泾北城': 2.11}</t>
   </si>
   <si>
-    <t>{'上海火车站': 2.51, '东宝兴路': 0.95, '中兴路': 1.45, '中山北路': 2.5, '临平路': 1.85, '人民广场': 2.31, '南京东路': 1.55, '国际客运中心': 1.34, '大世界': 2.8, '大连路': 2.82, '天潼路': 0.93, '宝山路': 0.75, '提篮桥': 2.15, '新闸路': 2.15, '曲阜路': 1.62, '曲阳路': 2.8, '汉中路': 2.67, '海伦路': 0.91, '自然博物馆': 2.7, '虹口足球场': 2.21, '西藏北路': 1.94, '豫园': 2.71, '邮电新村': 2.07, '陆家嘴': 2.31}</t>
-  </si>
-  <si>
-    <t>{'东宝兴路': 2.62, '临平路': 1.56, '五角场': 2.86, '同济大学': 0.93, '国权路': 1.79, '国际客运中心': 2.77, '大柏树': 2.37, '大连路': 2.18, '提篮桥': 2.43, '曲阳路': 1.0, '杨树浦路': 2.96, '江浦公园': 2.4, '江浦路': 1.61, '海伦路': 2.12, '虹口足球场': 2.16, '赤峰路': 1.94, '邮电新村': 0.98, '鞍山新村': 0.8, '黄兴路': 2.59}</t>
-  </si>
-  <si>
-    <t>{'三门路': 2.99, '双江路': 2.92, '市光路': 2.6, '张华浜': 2.46, '新江湾城': 1.39, '殷高东路': 2.09, '淞发路': 1.36, '长江南路': 2.24}</t>
-  </si>
-  <si>
-    <t>{'三门路': 2.67, '五角场': 1.07, '同济大学': 0.87, '四平路': 1.79, '大柏树': 2.55, '延吉中路': 2.37, '曲阳路': 2.29, '江浦路': 1.78, '江湾体育场': 1.7, '江湾镇': 2.98, '翔殷路': 2.72, '赤峰路': 2.77, '邮电新村': 2.75, '鞍山新村': 1.78, '黄兴公园': 2.32, '黄兴路': 2.1}</t>
-  </si>
-  <si>
-    <t>{'东宝兴路': 2.02, '东昌路': 2.5, '中兴路': 2.79, '临平路': 1.22, '人民广场': 2.92, '南京东路': 1.86, '商城路': 2.8, '四川北路': 1.34, '四平路': 2.77, '大连路': 1.66, '天潼路': 1.65, '宝山路': 2.08, '提篮桥': 0.9, '曲阜路': 2.68, '杨树浦路': 1.82, '江浦公园': 2.91, '浦东大道': 2.31, '海伦路': 1.36, '虹口足球场': 2.97, '豫园': 2.69, '邮电新村': 2.07, '陆家嘴': 1.39, '鞍山新村': 2.79}</t>
+    <t>{'上海火车站': 2.51, '东宝兴路': 0.95, '中兴路': 1.45, '中山北路': 2.5, '临平路': 1.85, '人民广场': 2.31, '南京东路': 1.55, '国际客运中心': 1.34, '大世界': 2.78, '大连路': 2.82, '天潼路': 0.93, '宝山路': 0.75, '提篮桥': 2.15, '新闸路': 2.15, '曲阜路': 1.62, '曲阳路': 2.8, '汉中路': 2.67, '海伦路': 0.91, '自然博物馆': 2.7, '虹口足球场': 2.21, '西藏北路': 1.94, '豫园': 2.71, '邮电新村': 2.07, '陆家嘴': 2.29}</t>
+  </si>
+  <si>
+    <t>{'东宝兴路': 2.62, '临平路': 1.56, '五角场': 2.86, '同济大学': 0.93, '国权路': 1.79, '国际客运中心': 2.77, '复旦大学': 2.34, '大柏树': 2.37, '大连路': 2.18, '平凉路': 2.97, '抚顺路': 1.67, '提篮桥': 2.43, '曲阳路': 1.0, '杨树浦路': 2.96, '江浦公园': 2.4, '江浦路': 1.61, '海伦路': 2.12, '虹口足球场': 2.16, '赤峰路': 1.94, '邮电新村': 0.98, '鞍山新村': 0.8, '黄兴路': 2.59}</t>
+  </si>
+  <si>
+    <t>{'三门路': 2.99, '双江路': 2.92, '市光路': 2.6, '张华浜': 2.46, '新江湾城': 1.39, '殷高东路': 2.09, '殷高路': 2.62, '淞发路': 1.36, '长江南路': 2.24}</t>
+  </si>
+  <si>
+    <t>{'三门路': 2.67, '上海财经大学': 2.42, '五角场': 1.07, '同济大学': 0.87, '四平路': 1.79, '复旦大学': 1.23, '大柏树': 2.55, '延吉中路': 2.37, '抚顺路': 0.83, '曲阳路': 2.29, '江浦路': 1.78, '江湾体育场': 1.7, '江湾镇': 2.98, '翔殷路': 2.72, '赤峰路': 2.77, '邮电新村': 2.75, '鞍山新村': 1.78, '黄兴公园': 2.32, '黄兴路': 2.1}</t>
+  </si>
+  <si>
+    <t>{'东宝兴路': 2.02, '东昌路': 2.5, '中兴路': 2.79, '临平路': 1.22, '人民广场': 2.92, '南京东路': 1.86, '商城路': 2.8, '四川北路': 1.34, '四平路': 2.77, '大连路': 1.66, '天潼路': 1.65, '宝山路': 2.08, '平凉路': 2.89, '提篮桥': 0.9, '曲阜路': 2.68, '杨树浦路': 1.82, '江浦公园': 2.91, '浦东南路': 1.87, '浦东大道': 2.29, '海伦路': 1.36, '虹口足球场': 2.97, '豫园': 2.69, '邮电新村': 2.07, '陆家嘴': 1.38, '鞍山新村': 2.79}</t>
   </si>
   <si>
     <t>{'上大路': 1.35, '南陈路': 2.42, '古浪路': 2.92, '大场镇': 1.18, '行知路': 2.21}</t>
@@ -2077,6 +2248,9 @@
     <t>{'东陆路': 1.7, '东靖路': 2.83, '五莲路': 2.7, '巨峰路': 2.57, '延吉中路': 2.65, '爱国路': 0.83, '隆昌路': 1.7}</t>
   </si>
   <si>
+    <t>{'三门路': 2.09, '上海财经大学': 1.35, '五角场': 1.44, '同济大学': 1.66, '四平路': 2.34, '国权路': 1.23, '大柏树': 1.72, '抚顺路': 2.05, '曲阳路': 2.3, '殷高东路': 2.95, '殷高路': 2.9, '江浦路': 2.93, '江湾体育场': 1.59, '江湾镇': 1.76, '赤峰路': 2.31, '鞍山新村': 2.69}</t>
+  </si>
+  <si>
     <t>{'春申路': 2.61, '莘庄': 1.31, '莲花路': 1.46, '虹莘路': 2.2, '顾戴路': 2.23}</t>
   </si>
   <si>
@@ -2086,7 +2260,7 @@
     <t>{'五洲大道': 2.44, '洲海路': 1.58, '航津路': 1.71}</t>
   </si>
   <si>
-    <t>{'人民广场': 0.74, '南京东路': 1.31, '南京西路': 1.86, '南浦大桥': 2.84, '四川北路': 2.8, '天潼路': 1.88, '宝山路': 2.72, '小南门': 2.15, '打浦桥': 2.53, '新天地': 1.27, '新闸路': 1.64, '曲阜路': 1.84, '汉中路': 2.55, '淮海中路': 1.6, '老西门': 1.0, '自然博物馆': 1.91, '西藏南路': 2.97, '豫园': 0.78, '陆家嘴': 2.5, '陆家浜路': 1.83, '陕西南路': 2.37, '马当路': 1.97, '黄陂南路': 0.76}</t>
+    <t>{'一大会址·新天地': 1.28, '一大会址·黄陂南路': 0.71, '人民广场': 0.71, '南京东路': 1.3, '南京西路': 1.85, '南浦大桥': 2.87, '四川北路': 2.78, '天潼路': 1.85, '宝山路': 2.7, '小南门': 2.17, '打浦桥': 2.55, '新闸路': 1.61, '曲阜路': 1.81, '汉中路': 2.53, '淮海中路': 1.6, '老西门': 1.03, '自然博物馆': 1.89, '西藏南路': 2.99, '豫园': 0.79, '陆家嘴': 2.49, '陆家浜路': 1.86, '陕西南路': 2.37, '马当路': 2.0}</t>
   </si>
   <si>
     <t>{'上海西站': 2.44, '上海马戏城': 2.84, '中潭路': 2.76, '大场镇': 2.23, '岚皋路': 1.99, '新村路': 1.12, '真如': 2.99, '行知路': 1.22}</t>
@@ -2095,19 +2269,19 @@
     <t>{'上大路': 2.53, '古浪路': 2.49, '场中路': 1.18, '大华三路': 2.23, '行知路': 1.04}</t>
   </si>
   <si>
-    <t>{'上海体育场': 2.1, '上海体育馆': 2.76, '上海图书馆': 2.37, '上海游泳馆': 2.66, '世博会博物馆': 1.79, '世博大道': 2.36, '东安路': 0.87, '交通大学': 2.82, '后滩': 2.66, '嘉善路': 1.0, '常熟路': 2.55, '徐家汇': 2.52, '打浦桥': 1.46, '新天地': 2.73, '淮海中路': 2.92, '肇嘉浜路': 1.38, '衡山路': 1.98, '西藏南路': 2.65, '陆家浜路': 2.93, '陕西南路': 2.38, '马当路': 2.17, '鲁班路': 1.27, '龙华': 2.57, '龙华中路': 1.28}</t>
-  </si>
-  <si>
-    <t>{'同济大学': 2.35, '四平路': 2.37, '国权路': 2.55, '曲阳路': 1.62, '江湾镇': 1.8, '虹口足球场': 2.04, '赤峰路': 0.91, '邮电新村': 2.55}</t>
-  </si>
-  <si>
-    <t>{'中山公园': 2.54, '北新泾': 2.59, '威宁路': 2.0, '娄山关路': 2.47, '曹杨路': 2.37, '枫桥路': 1.97, '梅岭北路': 1.27, '真北路': 1.19, '真如': 2.44, '祁连山南路': 2.66, '金沙江路': 1.78, '铜川路': 2.13, '长风公园': 0.63, '隆德路': 2.77}</t>
-  </si>
-  <si>
-    <t>{'东昌路': 2.75, '临平路': 1.22, '同济大学': 2.76, '四川北路': 2.82, '四平路': 2.18, '国际客运中心': 1.66, '宁国路': 2.18, '提篮桥': 0.77, '曲阳路': 2.94, '杨树浦路': 0.77, '江浦公园': 1.25, '江浦路': 1.96, '浦东大道': 2.09, '海伦路': 2.32, '邮电新村': 2.13, '陆家嘴': 2.42, '鞍山新村': 1.73, '黄兴路': 2.74}</t>
-  </si>
-  <si>
-    <t>{'上海火车站': 2.42, '东宝兴路': 1.8, '中兴路': 1.65, '中山北路': 2.77, '临平路': 2.57, '人民广场': 1.41, '南京东路': 0.67, '南京西路': 2.64, '四川北路': 0.93, '国际客运中心': 1.65, '大世界': 1.88, '宝山路': 1.04, '提篮桥': 2.55, '新闸路': 1.49, '曲阜路': 1.05, '汉中路': 2.27, '海伦路': 1.82, '老西门': 2.76, '自然博物馆': 2.08, '西藏北路': 2.55, '豫园': 1.84, '邮电新村': 2.97, '陆家嘴': 1.98, '黄陂南路': 2.5}</t>
+    <t>{'一大会址·新天地': 2.73, '上海体育场': 2.1, '上海体育馆': 2.76, '上海图书馆': 2.37, '上海游泳馆': 2.66, '世博会博物馆': 1.79, '世博大道': 2.36, '东安路': 0.87, '交通大学': 2.82, '后滩': 2.66, '嘉善路': 1.0, '常熟路': 2.55, '徐家汇': 2.52, '打浦桥': 1.46, '淮海中路': 2.92, '肇嘉浜路': 1.38, '衡山路': 1.98, '西藏南路': 2.65, '陆家浜路': 2.93, '陕西南路': 2.38, '马当路': 2.17, '鲁班路': 1.27, '龙华': 2.57, '龙华中路': 1.28}</t>
+  </si>
+  <si>
+    <t>{'上海财经大学': 2.38, '同济大学': 2.35, '四平路': 2.37, '国权路': 2.55, '复旦大学': 1.72, '曲阳路': 1.62, '江湾镇': 1.8, '虹口足球场': 2.04, '赤峰路': 0.91, '邮电新村': 2.55}</t>
+  </si>
+  <si>
+    <t>{'中宁路': 2.42, '中山公园': 2.54, '北新泾': 2.59, '威宁路': 2.0, '娄山关路': 2.47, '曹杨路': 2.37, '枫桥路': 1.97, '梅岭北路': 1.27, '真光路': 2.59, '真北路': 1.19, '真如': 2.44, '祁连山南路': 2.66, '金沙江路': 1.78, '铜川路': 2.13, '长风公园': 0.63, '隆德路': 2.77}</t>
+  </si>
+  <si>
+    <t>{'东昌路': 2.75, '临平路': 1.22, '丹阳路': 1.78, '同济大学': 2.76, '四川北路': 2.82, '四平路': 2.18, '国际客运中心': 1.66, '宁国路': 2.18, '平凉路': 1.3, '抚顺路': 2.87, '提篮桥': 0.77, '昌邑路': 3.0, '曲阳路': 2.94, '杨树浦路': 0.77, '江浦公园': 1.25, '江浦路': 1.96, '浦东南路': 2.16, '浦东大道': 2.05, '海伦路': 2.32, '源深路': 2.51, '邮电新村': 2.13, '陆家嘴': 2.42, '鞍山新村': 1.73, '黄兴路': 2.74}</t>
+  </si>
+  <si>
+    <t>{'一大会址·黄陂南路': 2.4, '上海火车站': 2.42, '东宝兴路': 1.8, '中兴路': 1.65, '中山北路': 2.77, '临平路': 2.57, '人民广场': 1.41, '南京东路': 0.67, '南京西路': 2.64, '四川北路': 0.93, '国际客运中心': 1.65, '大世界': 1.85, '宝山路': 1.04, '提篮桥': 2.55, '新闸路': 1.49, '曲阜路': 1.05, '汉中路': 2.27, '浦东南路': 2.91, '海伦路': 1.82, '老西门': 2.76, '自然博物馆': 2.08, '西藏北路': 2.55, '豫园': 1.84, '邮电新村': 2.97, '陆家嘴': 1.97}</t>
   </si>
   <si>
     <t>{'环城东路': 1.82, '萧塘': 2.74}</t>
@@ -2131,7 +2305,7 @@
     <t>{'中科路': 1.24, '张江路': 1.54, '金科路': 2.59}</t>
   </si>
   <si>
-    <t>{'同济大学': 2.89, '大连路': 2.18, '延吉中路': 2.23, '提篮桥': 2.95, '杨树浦路': 2.34, '江浦公园': 0.94, '江浦路': 1.51, '爱国路': 2.3, '隆昌路': 1.39, '鞍山新村': 2.22, '黄兴公园': 2.98, '黄兴路': 1.2}</t>
+    <t>{'丹阳路': 1.65, '同济大学': 2.89, '大连路': 2.18, '平凉路': 1.19, '延吉中路': 2.23, '抚顺路': 2.3, '提篮桥': 2.95, '昌邑路': 2.84, '杨树浦路': 2.34, '歇浦路': 2.7, '江浦公园': 0.94, '江浦路': 1.51, '爱国路': 2.3, '隆昌路': 1.39, '鞍山新村': 2.22, '黄兴公园': 2.98, '黄兴路': 1.2}</t>
   </si>
   <si>
     <t>{'上海汽车城': 1.82, '兆丰路': 1.11}</t>
@@ -2140,13 +2314,16 @@
     <t>{'上海体育馆': 2.85, '中山公园': 2.41, '交通大学': 2.29, '伊犁路': 0.82, '吴中路': 1.09, '姚虹路': 0.76, '娄山关路': 1.8, '宜山路': 1.81, '延安西路': 1.53, '徐家汇': 2.36, '桂林路': 2.48, '水城路': 1.91, '红宝石路': 1.33, '虹桥路': 0.84}</t>
   </si>
   <si>
+    <t>{'丰庄': 1.69, '嘉怡路': 1.62, '李子园': 2.97, '武威路': 2.26, '真光路': 2.1, '真新新村': 0.95, '祁连山南路': 2.14, '祁连山路': 2.14}</t>
+  </si>
+  <si>
     <t>{'上海体育场': 1.56, '上海体育馆': 1.07, '上海图书馆': 2.87, '上海游泳馆': 1.6, '东安路': 2.67, '交通大学': 1.89, '伊犁路': 2.6, '吴中路': 1.31, '姚虹路': 2.02, '宋园路': 1.81, '延安西路': 2.72, '徐家汇': 1.33, '桂林公园': 2.31, '桂林路': 1.59, '漕宝路': 2.12, '漕溪路': 1.54, '肇嘉浜路': 2.61, '虹桥路': 1.35, '虹漕路': 2.98, '衡山路': 2.7, '龙华': 2.91, '龙华中路': 2.86, '龙漕路': 2.52}</t>
   </si>
   <si>
     <t>{'共富新村': 1.64, '友谊西路': 1.34, '富锦路': 2.59}</t>
   </si>
   <si>
-    <t>{'上海火车站': 1.76, '东宝兴路': 1.0, '中兴路': 0.72, '中山北路': 1.82, '临平路': 2.54, '人民广场': 2.09, '南京东路': 1.69, '南京西路': 2.87, '四川北路': 0.75, '国际客运中心': 2.08, '大世界': 2.72, '天潼路': 1.04, '延长路': 3.0, '提篮桥': 2.91, '新闸路': 1.65, '曲阜路': 1.12, '汉中路': 1.99, '海伦路': 1.46, '自然博物馆': 2.14, '虹口足球场': 2.23, '西藏北路': 1.51, '豫园': 2.84, '邮电新村': 2.55, '陆家嘴': 2.88}</t>
+    <t>{'上海火车站': 1.76, '东宝兴路': 1.0, '中兴路': 0.72, '中山北路': 1.82, '临平路': 2.54, '人民广场': 2.09, '南京东路': 1.69, '南京西路': 2.87, '四川北路': 0.75, '国际客运中心': 2.08, '大世界': 2.7, '天潼路': 1.04, '延长路': 3.0, '提篮桥': 2.91, '新闸路': 1.65, '曲阜路': 1.12, '汉中路': 1.99, '海伦路': 1.46, '自然博物馆': 2.14, '虹口足球场': 2.23, '西藏北路': 1.51, '豫园': 2.84, '邮电新村': 2.55, '陆家嘴': 2.86}</t>
   </si>
   <si>
     <t>{'友谊路': 1.03, '水产路': 1.76, '淞滨路': 2.99, '铁力路': 2.26}</t>
@@ -2155,10 +2332,13 @@
     <t>{'友谊西路': 1.26, '宝安公路': 2.59, '江杨北路': 2.25}</t>
   </si>
   <si>
-    <t>{'上海儿童医学中心': 2.82, '世博会博物馆': 2.68, '东昌路': 2.45, '人民广场': 2.83, '南京东路': 2.7, '南浦大桥': 0.94, '商城路': 2.26, '塘桥': 2.09, '大世界': 2.15, '新天地': 2.21, '浦电路(6号线)': 2.94, '老西门': 1.41, '蓝村路': 2.84, '西藏南路': 1.86, '豫园': 1.6, '陆家嘴': 2.4, '陆家浜路': 1.3, '马当路': 2.17, '鲁班路': 2.96, '黄陂南路': 2.47}</t>
-  </si>
-  <si>
-    <t>{'上海西站': 2.12, '中潭路': 1.82, '大华三路': 1.99, '新村路': 0.87, '曹杨路': 1.92, '枫桥路': 1.88, '梅岭北路': 2.79, '武宁路': 2.56, '江宁路': 2.55, '真如': 1.52, '金沙江路': 2.82, '铜川路': 2.44, '镇坪路': 1.32, '长寿路': 2.31, '隆德路': 2.86}</t>
+    <t>{'乐秀路': 1.64}</t>
+  </si>
+  <si>
+    <t>{'一大会址·新天地': 2.21, '一大会址·黄陂南路': 2.55, '上海儿童医学中心': 2.82, '世博会博物馆': 2.68, '东昌路': 2.45, '人民广场': 2.83, '南京东路': 2.7, '南浦大桥': 0.94, '商城路': 2.26, '塘桥': 2.09, '大世界': 2.17, '浦东南路': 2.75, '浦电路(6号线)': 2.94, '老西门': 1.41, '蓝村路': 2.84, '西藏南路': 1.86, '豫园': 1.6, '陆家嘴': 2.41, '陆家浜路': 1.3, '马当路': 2.17, '鲁班路': 2.96}</t>
+  </si>
+  <si>
+    <t>{'上海西站': 2.12, '中宁路': 1.42, '中潭路': 1.82, '大华三路': 1.99, '新村路': 0.87, '曹杨路': 1.92, '枫桥路': 1.88, '梅岭北路': 2.79, '武宁路': 2.56, '江宁路': 2.55, '真如': 1.52, '金沙江路': 2.82, '铜川路': 2.44, '镇坪路': 1.32, '长寿路': 2.31, '隆德路': 2.86}</t>
   </si>
   <si>
     <t>{'凌空路': 2.55, '华夏东路': 1.97}</t>
@@ -2170,7 +2350,10 @@
     <t>{'三门路': 2.48, '国帆路': 2.6, '嫩江路': 0.88, '新江湾城': 2.46, '殷高东路': 2.39, '江湾体育场': 2.71, '翔殷路': 1.97}</t>
   </si>
   <si>
-    <t>{'上海图书馆': 0.77, '东安路': 2.58, '交通大学': 1.82, '南京西路': 2.09, '嘉善路': 1.62, '大木桥路': 2.55, '徐家汇': 2.34, '打浦桥': 2.02, '新天地': 2.5, '昌平路': 2.33, '武宁路': 2.92, '江苏路': 1.92, '淮海中路': 1.64, '肇嘉浜路': 1.57, '自然博物馆': 2.84, '衡山路': 1.03, '陕西南路': 0.93, '静安寺': 1.1, '马当路': 2.71, '鲁班路': 2.94, '黄陂南路': 2.52}</t>
+    <t>{'一大会址·新天地': 2.5, '一大会址·黄陂南路': 2.54, '上海图书馆': 0.77, '东安路': 2.58, '交通大学': 1.82, '南京西路': 2.09, '嘉善路': 1.62, '大木桥路': 2.55, '徐家汇': 2.34, '打浦桥': 2.02, '昌平路': 2.33, '武宁路': 2.92, '武定路': 1.92, '江苏路': 1.92, '淮海中路': 1.64, '肇嘉浜路': 1.57, '自然博物馆': 2.84, '衡山路': 1.03, '陕西南路': 0.93, '静安寺': 1.1, '马当路': 2.71, '鲁班路': 2.94}</t>
+  </si>
+  <si>
+    <t>{'临平路': 2.48, '丹阳路': 0.72, '四平路': 2.97, '国际客运中心': 2.89, '大连路': 1.3, '宁国路': 1.19, '抚顺路': 2.93, '提篮桥': 1.99, '昌邑路': 2.11, '杨树浦路': 1.2, '歇浦路': 2.53, '江浦公园': 0.68, '江浦路': 1.94, '浦东南路': 2.65, '浦东大道': 2.2, '源深体育中心': 2.99, '源深路': 2.01, '隆昌路': 2.48, '鞍山新村': 2.26, '黄兴路': 2.2}</t>
   </si>
   <si>
     <t>{'张江路': 2.56, '金科路': 1.97}</t>
@@ -2182,10 +2365,10 @@
     <t>{'周浦': 2.34, '御桥': 2.65, '秀沿路': 2.98}</t>
   </si>
   <si>
-    <t>{'五角场': 2.2, '同济大学': 2.81, '国权路': 2.37, '复兴岛': 2.65, '嫩江路': 2.93, '宁国路': 2.23, '江浦公园': 2.87, '江浦路': 2.18, '江湾体育场': 2.7, '爱国路': 1.94, '翔殷路': 1.85, '隆昌路': 1.75, '鞍山新村': 2.94, '黄兴公园': 0.78, '黄兴路': 1.25}</t>
-  </si>
-  <si>
-    <t>{'上海图书馆': 2.6, '中山公园': 0.93, '交通大学': 1.92, '伊犁路': 1.73, '吴中路': 2.56, '姚虹路': 2.24, '威宁路': 2.89, '娄山关路': 1.25, '宋园路': 1.53, '宜山路': 2.72, '徐家汇': 2.46, '水城路': 2.61, '江苏路': 1.76, '红宝石路': 2.16, '虹桥路': 1.39, '衡山路': 2.85, '金沙江路': 2.52, '长风公园': 2.71, '隆德路': 2.4}</t>
+    <t>{'五角场': 2.2, '同济大学': 2.81, '国权路': 2.37, '复兴岛': 2.65, '嫩江路': 2.93, '宁国路': 2.23, '抚顺路': 1.9, '江浦公园': 2.87, '江浦路': 2.18, '江湾体育场': 2.7, '爱国路': 1.94, '翔殷路': 1.85, '隆昌路': 1.75, '鞍山新村': 2.94, '黄兴公园': 0.78, '黄兴路': 1.25}</t>
+  </si>
+  <si>
+    <t>{'上海图书馆': 2.6, '中山公园': 0.93, '交通大学': 1.92, '伊犁路': 1.73, '吴中路': 2.56, '姚虹路': 2.24, '威宁路': 2.89, '娄山关路': 1.25, '宋园路': 1.53, '宜山路': 2.72, '徐家汇': 2.46, '武定路': 2.67, '水城路': 2.61, '江苏路': 1.76, '红宝石路': 2.16, '虹桥路': 1.39, '衡山路': 2.85, '金沙江路': 2.52, '长风公园': 2.71, '隆德路': 2.4}</t>
   </si>
   <si>
     <t>{'上海火车站': 2.46, '上海马戏城': 0.97, '东宝兴路': 2.7, '中兴路': 2.43, '中山北路': 1.47, '中潭路': 2.34, '宝山路': 3.0, '汶水路': 2.37, '虹口足球场': 2.26, '西藏北路': 1.57, '赤峰路': 2.79}</t>
@@ -2197,7 +2380,7 @@
     <t>{'中科路': 2.79, '学林路': 1.54, '广兰路': 2.56}</t>
   </si>
   <si>
-    <t>{'中科路': 2.92, '华夏中路': 2.93, '花木路': 2.59, '金科路': 1.39, '龙阳路': 2.86}</t>
+    <t>{'中科路': 2.92, '华夏中路': 2.93, '花木路': 2.59, '芳芯路': 2.96, '金科路': 1.39, '龙阳路': 2.86}</t>
   </si>
   <si>
     <t>{'上海马戏城': 2.99, '共康路': 1.38, '汶水路': 1.57, '通河新村': 2.81}</t>
@@ -2215,40 +2398,43 @@
     <t>{'徐泾北城': 1.21, '蟠龙路': 2.52}</t>
   </si>
   <si>
-    <t>{'华夏中路': 2.28, '康桥': 2.65, '罗山路': 2.18, '莲溪路': 1.29, '陈春路': 2.24}</t>
-  </si>
-  <si>
-    <t>{'云山路': 0.98, '北洋泾路': 1.33, '博兴路': 2.94, '杨高中路': 2.48, '民生路': 2.24, '芳甸路': 1.61, '蓝天路': 1.39, '金桥路': 2.12}</t>
+    <t>{'北中路': 2.89, '华夏中路': 2.28, '康桥': 2.65, '罗山路': 2.18, '莲溪路': 1.29, '陈春路': 2.24}</t>
+  </si>
+  <si>
+    <t>{'云山路': 0.9, '北洋泾路': 1.33, '博兴路': 2.94, '昌邑路': 2.3, '杨高中路': 2.48, '歇浦路': 1.35, '民生路': 2.24, '芳甸路': 1.61, '蓝天路': 1.39, '迎春路': 2.99, '金桥路': 2.12, '黄杨路': 2.84}</t>
   </si>
   <si>
     <t>{'上南路': 2.59, '世博大道': 1.75, '东方体育中心': 2.45, '东明路': 1.41, '中华艺术宫': 1.63, '云台路': 1.34, '华夏西路': 2.9, '华鹏路': 2.95, '后滩': 2.14, '杨思': 1.11, '灵岩南路': 2.46, '耀华路': 0.88, '长清路': 0.9, '高科西路': 2.11, '高青路': 2.22}</t>
   </si>
   <si>
-    <t>{'上海图书馆': 2.32, '世博会博物馆': 1.57, '东安路': 2.16, '南京西路': 2.75, '南浦大桥': 2.96, '嘉善路': 0.85, '大世界': 2.53, '大木桥路': 1.46, '常熟路': 2.02, '新天地': 1.28, '淮海中路': 1.6, '老西门': 2.02, '肇嘉浜路': 1.92, '衡山路': 2.13, '西藏南路': 2.04, '豫园': 2.98, '陆家浜路': 1.77, '陕西南路': 1.36, '静安寺': 2.84, '马当路': 0.89, '鲁班路': 1.0, '黄陂南路': 1.88, '龙华中路': 2.73}</t>
-  </si>
-  <si>
-    <t>{'东宝兴路': 2.63, '东昌路': 2.4, '临平路': 1.0, '南京东路': 2.72, '商城路': 2.74, '四川北路': 2.15, '四平路': 2.43, '国际客运中心': 0.9, '大连路': 0.77, '天潼路': 2.55, '宁国路': 2.95, '宝山路': 2.91, '曲阳路': 2.96, '杨树浦路': 1.01, '江浦公园': 2.02, '江浦路': 2.62, '浦东大道': 1.92, '海伦路': 1.84, '邮电新村': 2.05, '陆家嘴': 1.76, '鞍山新村': 2.21}</t>
+    <t>{'一大会址·新天地': 1.28, '一大会址·黄陂南路': 2.0, '上海图书馆': 2.32, '世博会博物馆': 1.57, '东安路': 2.16, '南京西路': 2.75, '南浦大桥': 2.96, '嘉善路': 0.85, '大世界': 2.55, '大木桥路': 1.46, '常熟路': 2.02, '淮海中路': 1.6, '老西门': 2.02, '肇嘉浜路': 1.92, '衡山路': 2.13, '西藏南路': 2.04, '豫园': 2.98, '陆家浜路': 1.77, '陕西南路': 1.36, '静安寺': 2.84, '马当路': 0.89, '鲁班路': 1.0, '龙华中路': 2.73}</t>
+  </si>
+  <si>
+    <t>{'临平路': 2.91, '五角场': 1.6, '同济大学': 0.91, '四平路': 1.67, '国权路': 0.83, '复旦大学': 2.05, '大连路': 2.87, '宁国路': 2.3, '平凉路': 2.93, '延吉中路': 1.9, '曲阳路': 2.47, '江浦公园': 2.25, '江浦路': 1.0, '江湾体育场': 2.31, '翔殷路': 2.83, '邮电新村': 2.64, '隆昌路': 2.9, '鞍山新村': 1.3, '黄兴公园': 2.12, '黄兴路': 1.31}</t>
+  </si>
+  <si>
+    <t>{'东宝兴路': 2.63, '东昌路': 2.4, '临平路': 1.0, '丹阳路': 2.32, '南京东路': 2.72, '商城路': 2.74, '四川北路': 2.15, '四平路': 2.43, '国际客运中心': 0.9, '大连路': 0.77, '天潼路': 2.55, '宁国路': 2.95, '宝山路': 2.91, '平凉路': 1.99, '曲阳路': 2.96, '杨树浦路': 1.01, '江浦公园': 2.02, '江浦路': 2.62, '浦东南路': 1.75, '浦东大道': 1.89, '海伦路': 1.84, '源深路': 2.67, '邮电新村': 2.05, '陆家嘴': 1.75, '鞍山新村': 2.21}</t>
   </si>
   <si>
     <t>{'华宁路': 1.45, '金平路': 2.93, '闵行开发区': 1.1}</t>
   </si>
   <si>
-    <t>{'世博会博物馆': 2.18, '人民广场': 1.83, '南京东路': 2.58, '南京西路': 2.08, '南浦大桥': 2.49, '嘉善路': 2.04, '大世界': 1.27, '大木桥路': 2.73, '小南门': 2.21, '常熟路': 2.5, '打浦桥': 1.28, '新闸路': 2.54, '曲阜路': 2.91, '淮海中路': 1.1, '老西门': 0.87, '自然博物馆': 2.54, '西藏南路': 2.11, '豫园': 1.73, '陆家浜路': 1.16, '陕西南路': 1.57, '静安寺': 2.85, '马当路': 0.79, '鲁班路': 1.91, '黄陂南路': 0.73}</t>
-  </si>
-  <si>
-    <t>{'上海西站': 2.07, '中潭路': 2.03, '大华三路': 1.12, '岚皋路': 0.87, '曹杨路': 2.78, '枫桥路': 2.68, '真如': 2.08, '行知路': 2.34, '铜川路': 2.84, '镇坪路': 2.07, '长寿路': 2.96}</t>
-  </si>
-  <si>
-    <t>{'三门路': 1.7, '国帆路': 1.39, '嫩江路': 2.82, '市光路': 2.46, '殷高东路': 0.75, '殷高西路': 2.3, '江湾体育场': 2.76, '淞发路': 1.95, '长江南路': 1.52}</t>
-  </si>
-  <si>
-    <t>{'上海火车站': 1.58, '东宝兴路': 2.65, '中兴路': 1.65, '中山北路': 2.43, '人民广场': 0.91, '南京东路': 1.57, '南京西路': 1.23, '四川北路': 2.15, '大世界': 1.64, '天潼路': 1.49, '宝山路': 1.65, '新天地': 2.54, '昌平路': 2.48, '曲阜路': 0.54, '汉中路': 0.98, '江宁路': 2.31, '淮海中路': 2.04, '老西门': 2.62, '自然博物馆': 0.59, '西藏北路': 2.8, '豫园': 2.18, '长寿路': 2.85, '陕西南路': 2.73, '静安寺': 2.69, '黄陂南路': 1.81}</t>
+    <t>{'上海西站': 2.07, '中宁路': 2.24, '中潭路': 2.03, '大华三路': 1.12, '岚皋路': 0.87, '曹杨路': 2.78, '枫桥路': 2.68, '真如': 2.08, '行知路': 2.34, '铜川路': 2.85, '镇坪路': 2.07, '长寿路': 2.96}</t>
+  </si>
+  <si>
+    <t>{'三门路': 1.7, '上海财经大学': 2.53, '国帆路': 1.39, '嫩江路': 2.82, '市光路': 2.46, '殷高东路': 0.75, '殷高西路': 2.3, '殷高路': 1.32, '江湾体育场': 2.76, '淞发路': 1.95, '长江南路': 1.52}</t>
+  </si>
+  <si>
+    <t>{'一大会址·新天地': 2.54, '一大会址·黄陂南路': 1.67, '上海火车站': 1.58, '东宝兴路': 2.65, '中兴路': 1.65, '中山北路': 2.43, '人民广场': 0.91, '南京东路': 1.57, '南京西路': 1.23, '四川北路': 2.15, '大世界': 1.61, '天潼路': 1.49, '宝山路': 1.65, '昌平路': 2.48, '曲阜路': 0.54, '汉中路': 0.98, '江宁路': 2.31, '淮海中路': 2.04, '老西门': 2.62, '自然博物馆': 0.59, '西藏北路': 2.8, '豫园': 2.18, '长寿路': 2.85, '陕西南路': 2.73, '静安寺': 2.69}</t>
   </si>
   <si>
     <t>{'上海汽车城': 2.08}</t>
   </si>
   <si>
-    <t>{'上海图书馆': 2.87, '上海火车站': 2.29, '中潭路': 2.32, '南京西路': 1.71, '常熟路': 2.33, '新闸路': 2.48, '曲阜路': 2.91, '曹杨路': 2.45, '武宁路': 1.15, '汉中路': 1.78, '江宁路': 1.19, '江苏路': 1.87, '淮海中路': 2.56, '自然博物馆': 1.9, '金沙江路': 2.81, '镇坪路': 1.86, '长寿路': 0.89, '陕西南路': 2.57, '隆德路': 1.85, '静安寺': 1.23}</t>
+    <t>{'上海图书馆': 2.87, '上海火车站': 2.29, '中宁路': 2.95, '中潭路': 2.32, '南京西路': 1.71, '常熟路': 2.33, '新闸路': 2.48, '曲阜路': 2.91, '曹杨路': 2.45, '武宁路': 1.15, '武定路': 0.95, '汉中路': 1.78, '江宁路': 1.19, '江苏路': 1.87, '淮海中路': 2.56, '自然博物馆': 1.9, '金沙江路': 2.81, '镇坪路': 1.86, '长寿路': 0.89, '陕西南路': 2.57, '隆德路': 1.85, '静安寺': 1.23}</t>
+  </si>
+  <si>
+    <t>{'上海科技馆': 2.82, '世纪大道': 2.09, '东昌路': 2.62, '丹阳路': 1.39, '北洋泾路': 1.28, '商城路': 2.73, '大连路': 3.0, '宁国路': 2.84, '平凉路': 2.11, '德平路': 2.3, '杨树浦路': 2.35, '杨高中路': 2.0, '歇浦路': 1.3, '民生路': 0.96, '江浦公园': 2.77, '浦东南路': 2.7, '浦东大道': 2.02, '浦电路(4号线)': 2.53, '浦电路(6号线)': 2.85, '源深体育中心': 1.32, '源深路': 0.91, '芳甸路': 2.2, '迎春路': 2.75}</t>
   </si>
   <si>
     <t>{'七宝': 1.9, '东兰路': 2.2, '合川路': 1.78, '紫藤路': 1.34, '航中路': 1.53, '虹梅路': 2.71, '虹莘路': 2.54, '顾戴路': 2.9, '龙柏新村': 2.09}</t>
@@ -2263,13 +2449,13 @@
     <t>{'双柏路': 0.9, '景西路': 1.02, '虹梅南路': 2.06, '银都路': 2.64}</t>
   </si>
   <si>
-    <t>{'上海火车站': 1.53, '东宝兴路': 2.12, '中兴路': 1.24, '中山北路': 2.19, '人民广场': 1.11, '南京东路': 1.33, '南京西路': 1.77, '四川北路': 1.62, '国际客运中心': 2.68, '大世界': 1.84, '天潼路': 1.05, '宝山路': 1.12, '新天地': 2.91, '新闸路': 0.54, '昌平路': 2.91, '汉中路': 1.22, '江宁路': 2.55, '海伦路': 2.5, '淮海中路': 2.54, '老西门': 2.84, '自然博物馆': 1.09, '西藏北路': 2.37, '豫园': 2.21, '陆家嘴': 2.96, '黄陂南路': 2.18}</t>
-  </si>
-  <si>
-    <t>{'东宝兴路': 2.12, '临平路': 1.96, '同济大学': 1.57, '四川北路': 2.8, '四平路': 1.0, '国权路': 2.29, '大柏树': 1.62, '大连路': 2.94, '提篮桥': 2.96, '江浦路': 2.59, '海伦路': 1.93, '虹口足球场': 1.27, '西藏北路': 2.57, '赤峰路': 0.98, '邮电新村': 0.94, '鞍山新村': 1.8}</t>
-  </si>
-  <si>
-    <t>{'中山公园': 2.38, '中潭路': 2.79, '大渡河路': 2.37, '岚皋路': 1.92, '新村路': 2.78, '昌平路': 2.45, '枫桥路': 0.66, '梅岭北路': 2.01, '武宁路': 1.34, '江宁路': 2.64, '江苏路': 2.43, '真如': 1.62, '金沙江路': 0.92, '铜川路': 2.34, '镇坪路': 1.39, '长寿路': 1.96, '长风公园': 2.51, '隆德路': 1.13}</t>
+    <t>{'一大会址·新天地': 2.91, '一大会址·黄陂南路': 2.05, '上海火车站': 1.53, '东宝兴路': 2.12, '中兴路': 1.24, '中山北路': 2.19, '人民广场': 1.11, '南京东路': 1.33, '南京西路': 1.77, '四川北路': 1.62, '国际客运中心': 2.68, '大世界': 1.81, '天潼路': 1.05, '宝山路': 1.12, '新闸路': 0.54, '昌平路': 2.91, '汉中路': 1.22, '江宁路': 2.55, '海伦路': 2.5, '淮海中路': 2.54, '老西门': 2.84, '自然博物馆': 1.09, '西藏北路': 2.37, '豫园': 2.21, '陆家嘴': 2.94}</t>
+  </si>
+  <si>
+    <t>{'东宝兴路': 2.12, '临平路': 1.96, '同济大学': 1.57, '四川北路': 2.8, '四平路': 1.0, '国权路': 2.29, '复旦大学': 2.3, '大柏树': 1.62, '大连路': 2.94, '抚顺路': 2.47, '提篮桥': 2.96, '江浦路': 2.59, '海伦路': 1.93, '虹口足球场': 1.27, '西藏北路': 2.57, '赤峰路': 0.98, '邮电新村': 0.94, '鞍山新村': 1.8}</t>
+  </si>
+  <si>
+    <t>{'中宁路': 0.71, '中山公园': 2.38, '中潭路': 2.79, '大渡河路': 2.37, '岚皋路': 1.92, '新村路': 2.78, '昌平路': 2.45, '枫桥路': 0.66, '梅岭北路': 2.01, '武宁路': 1.34, '武定路': 2.26, '江宁路': 2.64, '江苏路': 2.43, '真如': 1.62, '金沙江路': 0.92, '铜川路': 2.34, '镇坪路': 1.39, '长寿路': 1.96, '长风公园': 2.51, '隆德路': 1.13}</t>
   </si>
   <si>
     <t>{'民雷路': 1.46, '顾唐路': 2.59}</t>
@@ -2284,16 +2470,16 @@
     <t>{'华东理工大学': 2.2, '华泾西': 1.24, '罗秀路': 0.82, '虹梅南路': 2.31, '锦江乐园': 3.0}</t>
   </si>
   <si>
-    <t>{'上海西站': 1.26, '古浪路': 1.77, '梅岭北路': 2.97, '武威东路': 0.75, '武威路': 2.55, '真如': 2.61, '祁安路': 2.55, '祁连山路': 1.36, '铜川路': 2.14}</t>
+    <t>{'上海西站': 1.26, '古浪路': 1.77, '定边路': 2.97, '梅岭北路': 2.97, '武威东路': 0.75, '武威路': 2.55, '真光路': 1.84, '真如': 2.61, '真新新村': 2.25, '祁安路': 2.55, '祁连山路': 1.36, '铜川路': 2.14}</t>
   </si>
   <si>
     <t>{'三林': 2.63, '上南路': 1.8, '世博大道': 2.57, '东方体育中心': 1.51, '东明路': 2.1, '中华艺术宫': 2.69, '云台路': 2.45, '凌兆新村': 2.23, '华夏西路': 2.36, '后滩': 2.23, '成山路': 1.11, '灵岩南路': 1.39, '耀华路': 1.94, '长清路': 1.58, '高青路': 2.13}</t>
   </si>
   <si>
-    <t>{'世纪大道': 2.75, '东昌路': 2.08, '临平路': 1.86, '商城路': 2.41, '四平路': 2.96, '国际客运中心': 1.82, '大连路': 0.77, '宁国路': 2.34, '提篮桥': 1.01, '江浦公园': 1.53, '江浦路': 2.56, '浦东大道': 1.35, '海伦路': 2.83, '源深体育中心': 2.68, '邮电新村': 2.85, '陆家嘴': 2.09, '鞍山新村': 2.47}</t>
-  </si>
-  <si>
-    <t>{'上海科技馆': 1.05, '世纪公园': 2.02, '世纪大道': 2.04, '北洋泾路': 1.34, '德平路': 2.48, '民生路': 1.05, '浦电路(4号线)': 1.68, '浦电路(6号线)': 2.03, '源深体育中心': 1.47, '花木路': 2.25, '芳甸路': 1.05, '蓝村路': 2.67, '龙阳路': 2.79}</t>
+    <t>{'世纪大道': 2.75, '东昌路': 2.08, '临平路': 1.86, '丹阳路': 1.34, '商城路': 2.41, '四平路': 2.96, '国际客运中心': 1.82, '大连路': 0.77, '宁国路': 2.34, '平凉路': 1.2, '提篮桥': 1.01, '昌邑路': 2.35, '江浦公园': 1.53, '江浦路': 2.56, '浦东南路': 1.56, '浦东大道': 1.31, '海伦路': 2.83, '源深体育中心': 2.68, '源深路': 1.77, '邮电新村': 2.85, '陆家嘴': 2.09, '鞍山新村': 2.47}</t>
+  </si>
+  <si>
+    <t>{'上海科技馆': 1.05, '世纪公园': 2.02, '世纪大道': 2.04, '北洋泾路': 1.34, '德平路': 2.48, '昌邑路': 2.0, '歇浦路': 2.58, '民生路': 1.05, '浦电路(4号线)': 1.68, '浦电路(6号线)': 2.03, '源深体育中心': 1.47, '源深路': 2.27, '花木路': 2.25, '芳甸路': 1.05, '蓝村路': 2.67, '迎春路': 0.76, '龙阳路': 2.79}</t>
   </si>
   <si>
     <t>{'东陆路': 2.28, '东靖路': 1.79, '五洲大道': 2.82, '五莲路': 1.69, '博兴路': 2.41, '巨峰路': 1.39, '申江路': 2.27, '金京路': 1.19, '金吉路': 2.99, '金桥': 2.28}</t>
@@ -2314,7 +2500,7 @@
     <t>{'松江体育中心': 1.59, '松江大学城': 2.64}</t>
   </si>
   <si>
-    <t>{'上海西站': 2.52, '中山公园': 2.69, '大渡河路': 1.97, '岚皋路': 1.88, '新村路': 2.68, '曹杨路': 0.66, '梅岭北路': 1.38, '武宁路': 2.0, '江苏路': 3.0, '真北路': 3.0, '真如': 1.07, '金沙江路': 1.11, '铜川路': 1.68, '镇坪路': 1.82, '长寿路': 2.56, '长风公园': 2.26, '隆德路': 1.71}</t>
+    <t>{'上海西站': 2.52, '中宁路': 0.47, '中山公园': 2.69, '大渡河路': 1.97, '岚皋路': 1.88, '新村路': 2.68, '曹杨路': 0.66, '梅岭北路': 1.38, '武宁路': 2.0, '武定路': 2.91, '江苏路': 3.0, '真光路': 2.88, '真北路': 3.0, '真如': 1.07, '金沙江路': 1.11, '铜川路': 1.69, '镇坪路': 1.82, '长寿路': 2.56, '长风公园': 2.26, '隆德路': 1.71}</t>
   </si>
   <si>
     <t>{'上海体育馆': 2.44, '上海南站': 1.7, '上海游泳馆': 2.47, '东兰路': 2.92, '华东理工大学': 2.84, '吴中路': 2.28, '姚虹路': 3.0, '宜山路': 2.31, '桂林路': 0.88, '漕宝路': 1.29, '漕河泾开发区': 2.12, '漕溪路': 2.09, '石龙路': 2.46, '虹梅路': 2.26, '虹漕路': 0.93, '锦江乐园': 2.8, '龙漕路': 2.37}</t>
@@ -2323,28 +2509,40 @@
     <t>{'上海体育场': 2.7, '上海体育馆': 2.05, '上海南站': 2.52, '上海游泳馆': 2.27, '伊犁路': 3.0, '吴中路': 1.4, '姚虹路': 2.15, '宋园路': 2.48, '宜山路': 1.59, '徐家汇': 2.9, '桂林公园': 0.88, '漕宝路': 1.6, '漕河泾开发区': 1.99, '漕溪路': 1.95, '虹桥路': 2.54, '虹梅路': 2.55, '虹漕路': 1.39, '龙漕路': 2.57}</t>
   </si>
   <si>
-    <t>{'武威路': 1.53, '祁连山路': 2.74}</t>
-  </si>
-  <si>
-    <t>{'上海西站': 2.23, '大渡河路': 1.27, '岚皋路': 2.79, '曹杨路': 2.01, '李子园': 2.97, '枫桥路': 1.38, '真北路': 1.86, '真如': 1.31, '祁连山南路': 2.88, '金沙江路': 1.96, '铜川路': 0.87, '长风公园': 1.86, '隆德路': 2.88}</t>
-  </si>
-  <si>
-    <t>{'上海西站': 1.71, '南大路': 2.81, '古浪路': 1.02, '李子园': 0.75, '武威路': 2.53, '祁安路': 1.86, '祁连山路': 1.52, '铜川路': 2.83}</t>
-  </si>
-  <si>
-    <t>{'南大路': 2.9, '古浪路': 2.78, '李子园': 2.55, '桃浦新村': 1.53, '武威东路': 2.53, '祁安路': 2.53, '祁连山路': 1.21}</t>
-  </si>
-  <si>
-    <t>{'中山公园': 2.3, '中潭路': 2.46, '南京西路': 2.85, '岚皋路': 2.56, '常熟路': 2.92, '昌平路': 1.15, '曹杨路': 1.34, '枫桥路': 2.0, '汉中路': 2.81, '江宁路': 1.75, '江苏路': 1.55, '真如': 2.87, '金沙江路': 1.67, '镇坪路': 1.34, '长寿路': 1.03, '隆德路': 0.78, '静安寺': 1.95}</t>
-  </si>
-  <si>
-    <t>{'三门路': 0.96, '五角场': 2.74, '国帆路': 2.09, '嫩江路': 2.51, '市光路': 2.39, '新江湾城': 0.75, '殷高西路': 2.09, '江湾体育场': 2.04, '江湾镇': 2.74, '淞发路': 2.67, '长江南路': 1.85}</t>
-  </si>
-  <si>
-    <t>{'三门路': 2.36, '新江湾城': 2.3, '殷高东路': 2.09, '江湾镇': 1.61, '长江南路': 1.48}</t>
-  </si>
-  <si>
-    <t>{'上海科技馆': 1.9, '世纪大道': 1.74, '东昌路': 2.67, '北洋泾路': 0.91, '商城路': 2.66, '德平路': 2.24, '杨高中路': 1.05, '浦东大道': 2.34, '浦电路(4号线)': 1.86, '浦电路(6号线)': 2.22, '源深体育中心': 0.9, '芳甸路': 1.49}</t>
+    <t>{'浦东足球场': 2.08, '金吉路': 1.71, '金桥': 2.56, '金海路': 1.5, '金粤路': 1.05, '顾唐路': 2.71}</t>
+  </si>
+  <si>
+    <t>{'临洮路': 2.73, '嘉怡路': 2.52, '武威路': 1.53, '祁连山路': 2.74}</t>
+  </si>
+  <si>
+    <t>{'上海西站': 2.23, '中宁路': 1.69, '大渡河路': 1.27, '岚皋路': 2.79, '曹杨路': 2.01, '李子园': 2.97, '枫桥路': 1.38, '真光路': 1.67, '真北路': 1.86, '真如': 1.31, '真新新村': 2.73, '祁连山南路': 2.88, '金沙江路': 1.96, '铜川路': 0.87, '长风公园': 1.86, '隆德路': 2.88}</t>
+  </si>
+  <si>
+    <t>{'丹阳路': 1.95, '云山路': 1.88, '北洋泾路': 1.27, '宁国路': 2.7, '平凉路': 2.53, '德平路': 1.35, '昌邑路': 1.3, '杨高中路': 2.58, '民生路': 1.8, '源深体育中心': 2.52, '源深路': 2.19, '芳甸路': 2.19, '蓝天路': 2.74, '金桥路': 2.98, '隆昌路': 2.81}</t>
+  </si>
+  <si>
+    <t>{'上海西站': 1.71, '南大路': 2.81, '古浪路': 1.02, '李子园': 0.75, '武威路': 2.53, '真光路': 2.58, '真新新村': 2.88, '祁安路': 1.86, '祁连山路': 1.52, '铜川路': 2.83}</t>
+  </si>
+  <si>
+    <t>{'南大路': 2.9, '古浪路': 2.78, '嘉怡路': 2.65, '定边路': 2.26, '李子园': 2.55, '桃浦新村': 1.53, '武威东路': 2.53, '真新新村': 2.46, '祁安路': 2.53, '祁连山路': 1.21}</t>
+  </si>
+  <si>
+    <t>{'中宁路': 1.93, '中山公园': 2.3, '中潭路': 2.46, '南京西路': 2.85, '岚皋路': 2.56, '常熟路': 2.92, '昌平路': 1.15, '曹杨路': 1.34, '枫桥路': 2.0, '武定路': 1.0, '汉中路': 2.81, '江宁路': 1.75, '江苏路': 1.55, '真如': 2.87, '金沙江路': 1.67, '镇坪路': 1.34, '长寿路': 1.03, '隆德路': 0.78, '静安寺': 1.95}</t>
+  </si>
+  <si>
+    <t>{'上海图书馆': 2.24, '中宁路': 2.9, '中山公园': 2.21, '交通大学': 2.76, '南京西路': 2.25, '常熟路': 1.92, '延安西路': 2.67, '昌平路': 0.95, '曹杨路': 2.26, '枫桥路': 2.91, '武宁路': 1.0, '汉中路': 2.68, '江宁路': 2.08, '江苏路': 0.92, '淮海中路': 2.76, '自然博物馆': 2.67, '衡山路': 2.67, '金沙江路': 2.29, '镇坪路': 2.25, '长寿路': 1.55, '陕西南路': 2.49, '隆德路': 1.29, '静安寺': 1.02}</t>
+  </si>
+  <si>
+    <t>{'三门路': 0.96, '上海财经大学': 1.86, '五角场': 2.74, '国帆路': 2.09, '复旦大学': 2.95, '嫩江路': 2.51, '市光路': 2.39, '新江湾城': 0.75, '殷高西路': 2.09, '殷高路': 1.07, '江湾体育场': 2.04, '江湾镇': 2.74, '淞发路': 2.67, '长江南路': 1.85}</t>
+  </si>
+  <si>
+    <t>{'三门路': 2.36, '上海财经大学': 1.75, '新江湾城': 2.3, '殷高东路': 2.09, '殷高路': 1.03, '江湾镇': 1.61, '长江南路': 1.48}</t>
+  </si>
+  <si>
+    <t>{'三门路': 1.54, '上海财经大学': 1.56, '国帆路': 2.62, '复旦大学': 2.9, '新江湾城': 1.32, '殷高东路': 1.07, '殷高西路': 1.03, '江湾体育场': 2.57, '江湾镇': 2.05, '淞发路': 2.65, '长江南路': 1.22}</t>
+  </si>
+  <si>
+    <t>{'上海科技馆': 1.9, '世纪大道': 1.74, '东昌路': 2.67, '丹阳路': 2.32, '北洋泾路': 0.91, '商城路': 2.66, '德平路': 2.24, '昌邑路': 0.96, '杨高中路': 1.05, '歇浦路': 1.8, '浦东南路': 2.97, '浦东大道': 2.36, '浦电路(4号线)': 1.86, '浦电路(6号线)': 2.22, '源深体育中心': 0.9, '源深路': 1.34, '芳甸路': 1.49, '迎春路': 1.8}</t>
   </si>
   <si>
     <t>{'曹路': 1.46, '金海路': 2.86, '顾唐路': 1.14}</t>
@@ -2365,10 +2563,10 @@
     <t>{'青浦新城': 2.49}</t>
   </si>
   <si>
-    <t>{'上海火车站': 0.86, '东宝兴路': 2.86, '中兴路': 1.6, '中山北路': 1.89, '中潭路': 2.2, '人民广场': 1.86, '南京东路': 2.5, '南京西路': 1.34, '四川北路': 2.67, '大世界': 2.55, '天潼路': 2.27, '宝山路': 1.99, '新闸路': 0.98, '昌平路': 1.78, '曲阜路': 1.22, '武宁路': 2.81, '江宁路': 1.35, '淮海中路': 2.46, '自然博物馆': 0.7, '西藏北路': 2.59, '镇坪路': 2.79, '长寿路': 1.95, '陕西南路': 2.97, '静安寺': 2.4, '黄陂南路': 2.54}</t>
-  </si>
-  <si>
-    <t>{'上海火车站': 1.38, '中兴路': 2.51, '中山北路': 2.12, '中潭路': 1.2, '南京西路': 2.16, '岚皋路': 2.55, '新闸路': 2.31, '昌平路': 1.19, '曲阜路': 2.55, '曹杨路': 2.64, '武宁路': 1.75, '汉中路': 1.35, '江苏路': 2.98, '自然博物馆': 1.88, '镇坪路': 1.45, '长寿路': 0.73, '隆德路': 2.54, '静安寺': 2.36}</t>
+    <t>{'一大会址·黄陂南路': 2.41, '上海火车站': 0.86, '东宝兴路': 2.86, '中兴路': 1.6, '中山北路': 1.89, '中潭路': 2.2, '人民广场': 1.86, '南京东路': 2.5, '南京西路': 1.34, '四川北路': 2.67, '大世界': 2.53, '天潼路': 2.27, '宝山路': 1.99, '新闸路': 0.98, '昌平路': 1.78, '曲阜路': 1.22, '武宁路': 2.81, '武定路': 2.68, '江宁路': 1.35, '淮海中路': 2.46, '自然博物馆': 0.7, '西藏北路': 2.59, '镇坪路': 2.79, '长寿路': 1.95, '陕西南路': 2.97, '静安寺': 2.4}</t>
+  </si>
+  <si>
+    <t>{'上海火车站': 1.38, '中兴路': 2.51, '中宁路': 2.88, '中山北路': 2.12, '中潭路': 1.2, '南京西路': 2.16, '岚皋路': 2.55, '新闸路': 2.31, '昌平路': 1.19, '曲阜路': 2.55, '曹杨路': 2.64, '武宁路': 1.75, '武定路': 2.08, '汉中路': 1.35, '江苏路': 2.98, '自然博物馆': 1.88, '镇坪路': 1.45, '长寿路': 0.73, '隆德路': 2.54, '静安寺': 2.36}</t>
   </si>
   <si>
     <t>{'东川路': 1.46, '剑川路': 2.43, '华宁路': 2.7, '西渡': 1.98, '金平路': 1.42}</t>
@@ -2380,19 +2578,19 @@
     <t>{'富锦路': 2.25, '铁力路': 2.02}</t>
   </si>
   <si>
-    <t>{'临平路': 2.22, '同济大学': 2.55, '四平路': 2.4, '国际客运中心': 2.91, '大连路': 1.25, '宁国路': 0.94, '延吉中路': 2.87, '提篮桥': 2.02, '杨树浦路': 1.53, '江浦路': 1.26, '浦东大道': 2.77, '邮电新村': 2.82, '隆昌路': 2.32, '鞍山新村': 1.64, '黄兴路': 1.65}</t>
-  </si>
-  <si>
-    <t>{'临平路': 2.3, '五角场': 2.59, '同济大学': 1.39, '四平路': 1.61, '国权路': 1.78, '大连路': 1.96, '宁国路': 1.51, '延吉中路': 2.18, '提篮桥': 2.62, '曲阳路': 2.59, '杨树浦路': 2.56, '江浦公园': 1.26, '邮电新村': 2.39, '隆昌路': 2.5, '鞍山新村': 0.85, '黄兴公园': 2.68, '黄兴路': 1.05}</t>
-  </si>
-  <si>
-    <t>{'三门路': 1.1, '五角场': 0.71, '同济大学': 2.56, '国权路': 1.7, '嫩江路': 2.12, '市光路': 2.71, '延吉中路': 2.7, '新江湾城': 2.76, '殷高东路': 2.04, '江湾镇': 2.69, '翔殷路': 1.77, '黄兴公园': 2.15}</t>
-  </si>
-  <si>
-    <t>{'三门路': 2.37, '五角场': 2.93, '国权路': 2.98, '大柏树': 1.8, '殷高东路': 2.74, '殷高西路': 1.61, '江湾体育场': 2.69, '赤峰路': 2.72}</t>
-  </si>
-  <si>
-    <t>{'上海图书馆': 1.9, '中山公园': 1.44, '交通大学': 2.07, '南京西路': 2.98, '娄山关路': 2.73, '常熟路': 1.92, '延安西路': 1.76, '徐家汇': 2.85, '昌平路': 1.87, '曹杨路': 2.43, '枫桥路': 3.0, '武宁路': 1.55, '江宁路': 2.98, '肇嘉浜路': 2.98, '虹桥路': 2.71, '衡山路': 2.32, '金沙江路': 2.1, '镇坪路': 2.89, '长寿路': 2.39, '陕西南路': 2.74, '隆德路': 1.31, '静安寺': 1.51}</t>
+    <t>{'临平路': 2.22, '丹阳路': 1.39, '同济大学': 2.55, '四平路': 2.4, '国际客运中心': 2.91, '大连路': 1.25, '宁国路': 0.94, '平凉路': 0.68, '延吉中路': 2.87, '抚顺路': 2.25, '提篮桥': 2.02, '昌邑路': 2.77, '杨树浦路': 1.53, '江浦路': 1.26, '浦东大道': 2.73, '源深路': 2.68, '邮电新村': 2.82, '隆昌路': 2.32, '鞍山新村': 1.64, '黄兴路': 1.65}</t>
+  </si>
+  <si>
+    <t>{'临平路': 2.3, '丹阳路': 2.65, '五角场': 2.59, '同济大学': 1.39, '四平路': 1.61, '国权路': 1.78, '复旦大学': 2.93, '大连路': 1.96, '宁国路': 1.51, '平凉路': 1.94, '延吉中路': 2.18, '抚顺路': 1.0, '提篮桥': 2.62, '曲阳路': 2.59, '杨树浦路': 2.56, '江浦公园': 1.26, '邮电新村': 2.39, '隆昌路': 2.5, '鞍山新村': 0.85, '黄兴公园': 2.68, '黄兴路': 1.05}</t>
+  </si>
+  <si>
+    <t>{'三门路': 1.1, '上海财经大学': 1.66, '五角场': 0.71, '同济大学': 2.56, '国权路': 1.7, '复旦大学': 1.59, '嫩江路': 2.12, '市光路': 2.71, '延吉中路': 2.7, '抚顺路': 2.31, '新江湾城': 2.76, '殷高东路': 2.04, '殷高路': 2.57, '江湾镇': 2.69, '翔殷路': 1.77, '黄兴公园': 2.15}</t>
+  </si>
+  <si>
+    <t>{'三门路': 2.37, '上海财经大学': 1.1, '五角场': 2.93, '国权路': 2.98, '复旦大学': 1.76, '大柏树': 1.8, '殷高东路': 2.74, '殷高西路': 1.61, '殷高路': 2.05, '江湾体育场': 2.69, '赤峰路': 2.72}</t>
+  </si>
+  <si>
+    <t>{'上海图书馆': 1.9, '中山公园': 1.44, '交通大学': 2.07, '南京西路': 2.98, '娄山关路': 2.73, '常熟路': 1.92, '延安西路': 1.76, '徐家汇': 2.85, '昌平路': 1.87, '曹杨路': 2.43, '枫桥路': 3.0, '武宁路': 1.55, '武定路': 0.92, '江宁路': 2.98, '肇嘉浜路': 2.98, '虹桥路': 2.71, '衡山路': 2.32, '金沙江路': 2.1, '镇坪路': 2.89, '长寿路': 2.39, '陕西南路': 2.74, '隆德路': 1.31, '静安寺': 1.51}</t>
   </si>
   <si>
     <t>{'上海马戏城': 1.42, '共康路': 2.95, '延长路': 2.37, '彭浦新村': 1.57, '行知路': 2.86}</t>
@@ -2413,31 +2611,37 @@
     <t>{'三林': 2.75, '三林东': 1.6, '华夏西路': 2.33, '高青路': 2.43}</t>
   </si>
   <si>
+    <t>{'世纪大道': 1.78, '东昌路': 0.66, '临平路': 2.72, '丹阳路': 2.46, '南京东路': 2.64, '商城路': 0.99, '国际客运中心': 1.87, '大连路': 2.16, '天潼路': 2.91, '小南门': 2.75, '平凉路': 2.65, '提篮桥': 1.75, '昌邑路': 2.7, '杨树浦路': 1.56, '民生路': 2.97, '浦东大道': 0.68, '浦电路(4号线)': 2.6, '浦电路(6号线)': 2.59, '源深体育中心': 2.2, '源深路': 1.8, '豫园': 2.65, '陆家嘴': 0.98}</t>
+  </si>
+  <si>
     <t>{'海天三路': 2.12}</t>
   </si>
   <si>
-    <t>{'世纪大道': 1.46, '东昌路': 0.83, '临平路': 2.93, '商城路': 1.12, '国际客运中心': 2.31, '大连路': 2.09, '提篮桥': 1.92, '杨树浦路': 1.35, '民生路': 2.34, '江浦公园': 2.77, '浦电路(4号线)': 2.31, '浦电路(6号线)': 2.4, '源深体育中心': 1.64, '陆家嘴': 1.64}</t>
+    <t>{'世纪大道': 1.5, '东昌路': 0.86, '临平路': 2.89, '丹阳路': 1.88, '商城路': 1.15, '国际客运中心': 2.29, '大连路': 2.05, '平凉路': 2.2, '提篮桥': 1.89, '昌邑路': 2.02, '杨树浦路': 1.31, '民生路': 2.36, '江浦公园': 2.73, '浦东南路': 0.68, '浦电路(4号线)': 2.34, '浦电路(6号线)': 2.43, '源深体育中心': 1.67, '源深路': 1.12, '陆家嘴': 1.65}</t>
+  </si>
+  <si>
+    <t>{'云顺路': 1.52, '台儿庄路': 2.11, '桂桥路': 2.08, '金吉路': 2.81, '金桥': 2.17, '金粤路': 1.29, '黄杨路': 2.47}</t>
   </si>
   <si>
     <t>{'江月路': 1.39, '联航路': 2.59, '芦恒路': 2.62}</t>
   </si>
   <si>
-    <t>{'上海儿童医学中心': 2.27, '上海科技馆': 1.24, '世纪公园': 2.29, '世纪大道': 0.85, '东昌路': 1.99, '北洋泾路': 2.69, '商城路': 1.74, '塘桥': 1.89, '杨高中路': 1.68, '民生路': 1.86, '浦东大道': 2.31, '浦电路(6号线)': 0.37, '源深体育中心': 1.22, '芳甸路': 2.72, '蓝村路': 1.25}</t>
-  </si>
-  <si>
-    <t>{'上海儿童医学中心': 1.95, '上海科技馆': 1.46, '世纪公园': 2.39, '世纪大道': 0.97, '东昌路': 1.95, '商城路': 1.66, '塘桥': 1.52, '小南门': 2.94, '杨高中路': 2.03, '民生路': 2.22, '浦东大道': 2.4, '浦电路(4号线)': 0.37, '源深体育中心': 1.53, '蓝村路': 0.95}</t>
+    <t>{'上海儿童医学中心': 2.27, '上海科技馆': 1.24, '世纪公园': 2.29, '世纪大道': 0.85, '东昌路': 1.99, '北洋泾路': 2.69, '商城路': 1.74, '塘桥': 1.89, '昌邑路': 2.53, '杨高中路': 1.68, '民生路': 1.86, '浦东南路': 2.6, '浦东大道': 2.34, '浦电路(6号线)': 0.37, '源深体育中心': 1.22, '源深路': 2.12, '芳甸路': 2.72, '蓝村路': 1.25, '迎春路': 1.8}</t>
+  </si>
+  <si>
+    <t>{'上海儿童医学中心': 1.95, '上海科技馆': 1.46, '世纪公园': 2.39, '世纪大道': 0.97, '东昌路': 1.95, '商城路': 1.66, '塘桥': 1.52, '小南门': 2.94, '昌邑路': 2.85, '杨高中路': 2.03, '民生路': 2.22, '浦东南路': 2.59, '浦东大道': 2.43, '浦电路(4号线)': 0.37, '源深体育中心': 1.53, '源深路': 2.37, '蓝村路': 0.95, '迎春路': 2.08}</t>
   </si>
   <si>
     <t>{'三鲁公路': 1.71, '东城一路': 1.19, '汇臻路': 1.84, '沈杜公路': 2.86, '闵瑞路': 0.77}</t>
   </si>
   <si>
-    <t>{'东宝兴路': 0.81, '中兴路': 1.99, '中山北路': 2.8, '临平路': 1.15, '南京东路': 2.39, '四川北路': 0.91, '四平路': 2.12, '国际客运中心': 1.36, '大连路': 2.32, '天潼路': 1.82, '宝山路': 1.46, '提篮桥': 1.84, '曲阜路': 2.5, '曲阳路': 1.93, '杨树浦路': 2.83, '虹口足球场': 1.62, '西藏北路': 1.95, '赤峰路': 2.51, '邮电新村': 1.16, '陆家嘴': 2.68, '鞍山新村': 2.53}</t>
+    <t>{'东宝兴路': 0.81, '中兴路': 1.99, '中山北路': 2.8, '临平路': 1.15, '南京东路': 2.39, '四川北路': 0.91, '四平路': 2.12, '国际客运中心': 1.36, '大连路': 2.32, '天潼路': 1.82, '宝山路': 1.46, '提篮桥': 1.84, '曲阜路': 2.5, '曲阳路': 1.93, '杨树浦路': 2.83, '虹口足球场': 1.62, '西藏北路': 1.95, '赤峰路': 2.51, '邮电新村': 1.16, '陆家嘴': 2.67, '鞍山新村': 2.53}</t>
   </si>
   <si>
     <t>{'浦东国际机场': 2.12}</t>
   </si>
   <si>
-    <t>{'国帆路': 1.36, '张华浜': 1.44, '新江湾城': 1.95, '殷高东路': 2.67, '淞滨路': 2.96, '长江南路': 1.68}</t>
+    <t>{'国帆路': 1.36, '张华浜': 1.44, '新江湾城': 1.95, '殷高东路': 2.67, '殷高路': 2.65, '淞滨路': 2.96, '长江南路': 1.68}</t>
   </si>
   <si>
     <t>{'宝杨路': 2.99, '张华浜': 1.54, '水产路': 1.23, '淞发路': 2.96}</t>
@@ -2446,13 +2650,16 @@
     <t>{'丰庄': 2.74, '北新泾': 1.39, '威宁路': 2.66, '真北路': 2.64, '祁连山南路': 2.28}</t>
   </si>
   <si>
-    <t>{'上海图书馆': 2.36, '世博会博物馆': 3.0, '人民广场': 1.72, '南京东路': 2.75, '南京西路': 1.15, '嘉善路': 1.97, '大世界': 1.6, '大木桥路': 2.92, '常熟路': 1.64, '打浦桥': 1.6, '新天地': 1.1, '新闸路': 2.04, '昌平路': 2.56, '曲阜路': 2.54, '汉中路': 2.46, '老西门': 1.84, '肇嘉浜路': 2.69, '自然博物馆': 1.81, '衡山路': 2.46, '豫园': 2.34, '陆家浜路': 2.26, '陕西南路': 0.79, '静安寺': 1.77, '马当路': 1.7, '鲁班路': 2.55, '黄陂南路': 0.88}</t>
+    <t>{'一大会址·新天地': 1.1, '一大会址·黄陂南路': 0.89, '上海图书馆': 2.36, '世博会博物馆': 3.0, '人民广场': 1.72, '南京东路': 2.75, '南京西路': 1.15, '嘉善路': 1.97, '大世界': 1.6, '大木桥路': 2.92, '常熟路': 1.64, '打浦桥': 1.6, '新闸路': 2.04, '昌平路': 2.56, '曲阜路': 2.54, '武定路': 2.76, '汉中路': 2.46, '老西门': 1.84, '肇嘉浜路': 2.69, '自然博物馆': 1.81, '衡山路': 2.46, '豫园': 2.34, '陆家浜路': 2.26, '陕西南路': 0.79, '静安寺': 1.77, '马当路': 1.7, '鲁班路': 2.55}</t>
   </si>
   <si>
     <t>{'基隆路': 1.5, '外高桥保税区北': 1.29, '航津路': 2.68, '高桥': 1.12, '高桥西': 2.42}</t>
   </si>
   <si>
-    <t>{'上海科技馆': 1.83, '世纪大道': 0.85, '东昌路': 1.81, '北洋泾路': 1.81, '商城路': 1.77, '塘桥': 3.0, '杨树浦路': 2.68, '杨高中路': 1.47, '民生路': 0.9, '浦东大道': 1.64, '浦电路(4号线)': 1.22, '浦电路(6号线)': 1.53, '芳甸路': 2.27, '蓝村路': 2.46}</t>
+    <t>{'上海科技馆': 1.83, '世纪大道': 0.85, '东昌路': 1.81, '丹阳路': 2.34, '北洋泾路': 1.81, '商城路': 1.77, '塘桥': 3.0, '平凉路': 2.99, '昌邑路': 1.32, '杨树浦路': 2.68, '杨高中路': 1.47, '歇浦路': 2.52, '民生路': 0.9, '浦东南路': 2.2, '浦东大道': 1.67, '浦电路(4号线)': 1.22, '浦电路(6号线)': 1.53, '源深路': 0.99, '芳甸路': 2.27, '蓝村路': 2.46, '迎春路': 2.05}</t>
+  </si>
+  <si>
+    <t>{'上海科技馆': 2.81, '世纪大道': 1.45, '东昌路': 1.72, '丹阳路': 1.39, '北洋泾路': 2.04, '商城路': 1.86, '大连路': 2.51, '平凉路': 2.01, '提篮桥': 2.67, '昌邑路': 0.91, '杨树浦路': 1.77, '杨高中路': 2.27, '歇浦路': 2.19, '民生路': 1.34, '江浦公园': 2.68, '浦东南路': 1.8, '浦东大道': 1.12, '浦电路(4号线)': 2.12, '浦电路(6号线)': 2.37, '源深体育中心': 0.99, '芳甸路': 2.81, '迎春路': 2.95, '陆家嘴': 2.77}</t>
   </si>
   <si>
     <t>{'临港大道': 2.54}</t>
@@ -2488,10 +2695,16 @@
     <t>{'上海赛车场': 2.36, '嘉定新城': 1.9}</t>
   </si>
   <si>
-    <t>{'丰庄': 2.79, '北新泾': 1.92, '大渡河路': 1.19, '威宁路': 2.0, '枫桥路': 3.0, '梅岭北路': 1.86, '淞虹路': 2.64, '祁连山南路': 1.52, '金沙江路': 2.97, '铜川路': 2.51, '长风公园': 1.51}</t>
-  </si>
-  <si>
-    <t>{'上海西站': 1.45, '大华三路': 2.99, '大渡河路': 2.44, '岚皋路': 1.52, '新村路': 2.08, '曹杨路': 1.62, '李子园': 2.61, '枫桥路': 1.07, '梅岭北路': 1.31, '武宁路': 2.87, '金沙江路': 2.16, '铜川路': 0.96, '镇坪路': 2.2, '长风公园': 2.92, '隆德路': 2.74}</t>
+    <t>{'上海西站': 1.91, '大渡河路': 2.59, '定边路': 2.1, '李子园': 1.84, '枫桥路': 2.88, '梅岭北路': 1.67, '武威东路': 2.58, '真北路': 2.35, '真如': 2.21, '真新新村': 1.16, '祁连山南路': 2.37, '祁连山路': 2.18, '铜川路': 1.26}</t>
+  </si>
+  <si>
+    <t>{'丰庄': 2.79, '北新泾': 1.92, '大渡河路': 1.19, '威宁路': 2.0, '枫桥路': 3.0, '梅岭北路': 1.86, '淞虹路': 2.64, '真光路': 2.35, '真新新村': 2.74, '祁连山南路': 1.52, '金沙江路': 2.97, '铜川路': 2.51, '长风公园': 1.51}</t>
+  </si>
+  <si>
+    <t>{'上海西站': 1.45, '中宁路': 0.94, '大华三路': 2.99, '大渡河路': 2.44, '岚皋路': 1.52, '新村路': 2.08, '曹杨路': 1.62, '李子园': 2.61, '枫桥路': 1.07, '梅岭北路': 1.31, '武宁路': 2.87, '真光路': 2.21, '金沙江路': 2.16, '铜川路': 0.97, '镇坪路': 2.2, '长风公园': 2.92, '隆德路': 2.74}</t>
+  </si>
+  <si>
+    <t>{'上海西站': 2.84, '丰庄': 2.17, '嘉怡路': 2.56, '定边路': 0.95, '李子园': 2.25, '梅岭北路': 2.73, '武威东路': 2.88, '武威路': 2.46, '真光路': 1.16, '真北路': 2.74, '祁连山南路': 2.04, '祁连山路': 1.83, '铜川路': 2.41}</t>
   </si>
   <si>
     <t>{'上海体育馆': 2.82, '上海南站': 1.31, '上海游泳馆': 2.36, '云锦路': 1.74, '华东理工大学': 2.16, '桂林公园': 2.46, '漕宝路': 1.5, '漕溪路': 2.14, '龙华': 1.88, '龙漕路': 1.28, '龙耀路': 1.58}</t>
@@ -2503,10 +2716,10 @@
     <t>{'丰翔路': 1.89, '南大路': 0.96, '古浪路': 1.02, '李子园': 2.55, '武威东路': 1.86, '武威路': 2.53, '祁连山路': 2.36}</t>
   </si>
   <si>
-    <t>{'丰庄': 1.28, '北新泾': 2.45, '大渡河路': 2.66, '梅岭北路': 2.88, '淞虹路': 2.28, '真北路': 1.52}</t>
-  </si>
-  <si>
-    <t>{'上海西站': 2.57, '古浪路': 2.13, '李子园': 1.36, '桃浦新村': 2.74, '武威东路': 1.52, '武威路': 1.21, '祁安路': 2.36}</t>
+    <t>{'丰庄': 1.28, '北新泾': 2.45, '大渡河路': 2.66, '定边路': 2.14, '梅岭北路': 2.88, '淞虹路': 2.28, '真光路': 2.37, '真北路': 1.52, '真新新村': 2.04}</t>
+  </si>
+  <si>
+    <t>{'上海西站': 2.57, '古浪路': 2.13, '定边路': 2.14, '李子园': 1.36, '桃浦新村': 2.74, '武威东路': 1.52, '武威路': 1.21, '真光路': 2.18, '真新新村': 1.83, '祁安路': 2.36}</t>
   </si>
   <si>
     <t>{'康新公路': 1.98, '康桥': 2.98, '罗山路': 1.75}</t>
@@ -2536,13 +2749,13 @@
     <t>{'罗南新村': 1.62}</t>
   </si>
   <si>
-    <t>{'三门路': 2.42, '五角场': 1.82, '国权路': 2.72, '嫩江路': 1.09, '市光路': 1.97, '延吉中路': 1.85, '江湾体育场': 1.77, '黄兴公园': 1.08, '黄兴路': 2.93}</t>
+    <t>{'三门路': 2.42, '五角场': 1.82, '国权路': 2.72, '嫩江路': 1.09, '市光路': 1.97, '延吉中路': 1.85, '抚顺路': 2.83, '江湾体育场': 1.77, '黄兴公园': 1.08, '黄兴路': 2.93}</t>
   </si>
   <si>
     <t>{'世博会博物馆': 2.45, '世博大道': 1.09, '东明路': 1.68, '中华艺术宫': 0.75, '临沂新村': 2.66, '云台路': 0.69, '后滩': 2.12, '成山路': 0.88, '杨思': 1.94, '西藏南路': 2.65, '长清路': 0.79, '高科西路': 1.66, '高青路': 2.89, '鲁班路': 2.95}</t>
   </si>
   <si>
-    <t>{'世博会博物馆': 2.39, '人民广场': 1.74, '南京东路': 2.12, '南京西路': 2.57, '南浦大桥': 1.91, '嘉善路': 2.84, '大世界': 1.0, '天潼路': 2.76, '小南门': 1.41, '打浦桥': 2.02, '新天地': 0.87, '新闸路': 2.62, '曲阜路': 2.84, '淮海中路': 1.84, '自然博物馆': 2.81, '西藏南路': 1.97, '豫园': 1.04, '陆家嘴': 2.76, '陆家浜路': 0.83, '陕西南路': 2.42, '马当路': 1.23, '鲁班路': 2.35, '黄陂南路': 1.08}</t>
+    <t>{'一大会址·新天地': 0.87, '一大会址·黄陂南路': 1.17, '世博会博物馆': 2.39, '人民广场': 1.74, '南京东路': 2.12, '南京西路': 2.57, '南浦大桥': 1.91, '嘉善路': 2.84, '大世界': 1.03, '天潼路': 2.76, '小南门': 1.41, '打浦桥': 2.02, '新闸路': 2.62, '曲阜路': 2.84, '淮海中路': 1.84, '自然博物馆': 2.81, '西藏南路': 1.97, '豫园': 1.04, '陆家嘴': 2.76, '陆家浜路': 0.83, '陕西南路': 2.42, '马当路': 1.23, '鲁班路': 2.35}</t>
   </si>
   <si>
     <t>{'三鲁公路': 2.52, '江月路': 1.2, '沈杜公路': 1.36, '浦江镇': 2.59}</t>
@@ -2551,7 +2764,7 @@
     <t>{'上海体育场': 1.66, '上海体育馆': 2.21, '上海图书馆': 1.1, '上海游泳馆': 2.41, '世博会博物馆': 2.99, '东安路': 1.06, '交通大学': 1.46, '嘉善路': 1.07, '大木桥路': 1.38, '宜山路': 2.61, '常熟路': 1.57, '徐家汇': 1.35, '打浦桥': 1.92, '江苏路': 2.98, '淮海中路': 2.69, '漕溪路': 2.76, '虹桥路': 2.8, '衡山路': 0.67, '陕西南路': 1.93, '静安寺': 2.66, '马当路': 2.81, '鲁班路': 2.37, '龙华': 2.99, '龙华中路': 1.85}</t>
   </si>
   <si>
-    <t>{'上海火车站': 1.52, '中兴路': 1.97, '中山北路': 2.51, '中潭路': 2.86, '人民广场': 1.28, '南京东路': 2.12, '南京西路': 0.77, '四川北路': 2.7, '大世界': 1.91, '天潼路': 2.08, '宝山路': 2.14, '常熟路': 2.84, '新天地': 2.54, '新闸路': 0.59, '昌平路': 1.9, '曲阜路': 1.09, '汉中路': 0.7, '江宁路': 1.88, '淮海中路': 1.81, '老西门': 2.81, '豫园': 2.57, '长寿路': 2.34, '陕西南路': 2.39, '静安寺': 2.14, '黄陂南路': 1.85}</t>
+    <t>{'一大会址·新天地': 2.54, '一大会址·黄陂南路': 1.72, '上海火车站': 1.52, '中兴路': 1.97, '中山北路': 2.51, '中潭路': 2.86, '人民广场': 1.28, '南京东路': 2.12, '南京西路': 0.77, '四川北路': 2.7, '大世界': 1.89, '天潼路': 2.08, '宝山路': 2.14, '常熟路': 2.84, '新闸路': 0.59, '昌平路': 1.9, '曲阜路': 1.09, '武定路': 2.67, '汉中路': 0.7, '江宁路': 1.88, '淮海中路': 1.81, '老西门': 2.81, '豫园': 2.57, '长寿路': 2.34, '陕西南路': 2.39, '静安寺': 2.14}</t>
   </si>
   <si>
     <t>{'七宝': 1.27, '中春路': 2.45, '合川路': 2.8, '星中路': 1.53, '紫藤路': 1.02, '虹桥1号航站楼': 2.98, '龙柏新村': 1.92}</t>
@@ -2569,22 +2782,25 @@
     <t>{'三林': 2.99, '凌兆新村': 2.6, '浦江镇': 2.62}</t>
   </si>
   <si>
-    <t>{'上海科技馆': 1.94, '世纪公园': 1.14, '张江高科': 2.59, '杨高中路': 2.25, '芳华路': 2.34, '芳甸路': 2.33, '龙阳路': 0.98}</t>
+    <t>{'上海科技馆': 1.94, '世纪公园': 1.14, '张江高科': 2.59, '杨高中路': 2.25, '芳华路': 2.34, '芳甸路': 2.33, '芳芯路': 2.26, '迎春路': 1.56, '龙阳路': 0.98}</t>
   </si>
   <si>
     <t>{'光明路': 1.25}</t>
   </si>
   <si>
-    <t>{'上海儿童医学中心': 2.77, '上海科技馆': 2.91, '下南路': 1.8, '世纪公园': 1.82, '北蔡': 1.45, '华鹏路': 2.92, '杨高南路': 2.46, '花木路': 2.34, '蓝村路': 2.97, '锦绣路': 1.14, '陈春路': 2.16, '龙阳路': 1.37}</t>
-  </si>
-  <si>
-    <t>{'上海科技馆': 1.97, '世纪公园': 2.59, '世纪大道': 2.99, '云山路': 2.47, '北洋泾路': 1.0, '德平路': 1.61, '杨高中路': 1.05, '民生路': 1.49, '浦电路(4号线)': 2.72, '源深体育中心': 2.27, '花木路': 2.33, '蓝天路': 2.12}</t>
+    <t>{'上海儿童医学中心': 2.77, '上海科技馆': 2.91, '下南路': 1.8, '世纪公园': 1.82, '北中路': 1.57, '北蔡': 1.45, '华鹏路': 2.92, '杨高南路': 2.46, '花木路': 2.34, '芳芯路': 0.89, '蓝村路': 2.97, '锦绣路': 1.14, '陈春路': 2.16, '龙阳路': 1.37}</t>
+  </si>
+  <si>
+    <t>{'上海科技馆': 1.97, '世纪公园': 2.59, '世纪大道': 2.99, '云山路': 2.45, '北洋泾路': 1.0, '德平路': 1.61, '昌邑路': 2.2, '杨高中路': 1.05, '歇浦路': 2.19, '民生路': 1.49, '浦电路(4号线)': 2.72, '源深体育中心': 2.27, '源深路': 2.81, '花木路': 2.33, '蓝天路': 2.12, '迎春路': 1.4}</t>
+  </si>
+  <si>
+    <t>{'下南路': 2.24, '世纪公园': 2.18, '北中路': 0.96, '北蔡': 1.4, '华夏中路': 2.84, '张江高科': 2.96, '花木路': 2.26, '芳华路': 0.89, '莲溪路': 2.55, '锦绣路': 1.87, '陈春路': 1.83, '龙阳路': 1.39}</t>
   </si>
   <si>
     <t>{'外环路': 1.31, '春申路': 1.44, '莲花路': 2.76, '虹莘路': 2.96, '银都路': 2.47}</t>
   </si>
   <si>
-    <t>{'下南路': 2.74, '北蔡': 1.84, '华夏中路': 1.75, '御桥': 1.29, '陈春路': 1.04}</t>
+    <t>{'下南路': 2.74, '北中路': 1.59, '北蔡': 1.84, '华夏中路': 1.75, '御桥': 1.29, '芳芯路': 2.55, '陈春路': 1.04}</t>
   </si>
   <si>
     <t>{'东兰路': 2.96, '华东理工大学': 2.82, '外环路': 1.46, '莘庄': 2.76, '虹莘路': 2.27, '锦江乐园': 1.65, '顾戴路': 1.53}</t>
@@ -2593,10 +2809,10 @@
     <t>{'奉浦大道': 2.74, '西渡': 2.76}</t>
   </si>
   <si>
-    <t>{'云山路': 1.16, '北洋泾路': 2.45, '博兴路': 2.64, '台儿庄路': 2.27, '德平路': 1.39, '芳甸路': 2.12, '金桥路': 1.82}</t>
-  </si>
-  <si>
-    <t>{'上海儿童医学中心': 1.01, '上海科技馆': 1.79, '世纪公园': 2.23, '世纪大道': 1.89, '东昌路': 2.66, '临沂新村': 2.3, '南浦大桥': 2.68, '商城路': 2.33, '塘桥': 0.88, '小南门': 2.84, '杨高中路': 2.67, '杨高南路': 2.69, '浦电路(4号线)': 1.25, '浦电路(6号线)': 0.95, '源深体育中心': 2.46, '芳华路': 2.97, '锦绣路': 2.93, '龙阳路': 2.99}</t>
+    <t>{'云山路': 1.28, '云顺路': 2.17, '北洋泾路': 2.45, '博兴路': 2.64, '台儿庄路': 2.27, '德平路': 1.39, '歇浦路': 2.74, '芳甸路': 2.12, '金桥路': 1.82, '黄杨路': 1.46}</t>
+  </si>
+  <si>
+    <t>{'上海儿童医学中心': 1.01, '上海科技馆': 1.79, '世纪公园': 2.23, '世纪大道': 1.89, '东昌路': 2.66, '临沂新村': 2.3, '南浦大桥': 2.68, '商城路': 2.33, '塘桥': 0.88, '小南门': 2.84, '杨高中路': 2.67, '杨高南路': 2.69, '浦电路(4号线)': 1.25, '浦电路(6号线)': 0.95, '源深体育中心': 2.46, '芳华路': 2.97, '迎春路': 2.45, '锦绣路': 2.93, '龙阳路': 2.99}</t>
   </si>
   <si>
     <t>{'上海马戏城': 2.75, '东宝兴路': 1.28, '中兴路': 2.24, '中山北路': 2.35, '临平路': 2.36, '同济大学': 2.85, '四川北路': 2.21, '四平路': 2.16, '国际客运中心': 2.97, '大柏树': 2.04, '宝山路': 2.23, '延长路': 2.26, '曲阳路': 1.27, '海伦路': 1.62, '西藏北路': 1.32, '赤峰路': 1.14, '邮电新村': 1.48, '鞍山新村': 2.91}</t>
@@ -2632,7 +2848,7 @@
     <t>{'上海马戏城': 2.96, '古浪路': 2.78, '场中路': 2.21, '大华三路': 1.22, '大场镇': 1.04, '新村路': 2.34, '汶水路': 2.86}</t>
   </si>
   <si>
-    <t>{'上海体育场': 2.12, '上海体育馆': 2.56, '上海图书馆': 0.43, '上海游泳馆': 2.86, '东安路': 1.72, '交通大学': 1.09, '嘉善路': 1.37, '大木桥路': 1.98, '宜山路': 2.7, '常熟路': 1.03, '延安西路': 2.85, '徐家汇': 1.37, '打浦桥': 2.13, '江苏路': 2.32, '淮海中路': 2.46, '肇嘉浜路': 0.67, '虹桥路': 2.56, '陕西南路': 1.66, '静安寺': 2.06, '马当路': 2.98, '鲁班路': 2.79, '龙华中路': 2.51}</t>
+    <t>{'上海体育场': 2.12, '上海体育馆': 2.56, '上海图书馆': 0.43, '上海游泳馆': 2.86, '东安路': 1.72, '交通大学': 1.09, '嘉善路': 1.37, '大木桥路': 1.98, '宜山路': 2.7, '常熟路': 1.03, '延安西路': 2.85, '徐家汇': 1.37, '打浦桥': 2.13, '武定路': 2.67, '江苏路': 2.32, '淮海中路': 2.46, '肇嘉浜路': 0.67, '虹桥路': 2.56, '陕西南路': 1.66, '静安寺': 2.06, '马当路': 2.98, '鲁班路': 2.79, '龙华中路': 2.51}</t>
   </si>
   <si>
     <t>{'江川路': 1.98, '萧塘': 2.76}</t>
@@ -2641,22 +2857,25 @@
     <t>{'上海火车站': 1.85, '上海马戏城': 2.42, '东宝兴路': 1.16, '中兴路': 1.14, '中山北路': 1.04, '中潭路': 2.82, '四川北路': 1.94, '天潼路': 2.55, '宝山路': 1.51, '延长路': 1.57, '新闸路': 2.8, '曲阜路': 2.37, '曲阳路': 2.57, '汉中路': 2.59, '海伦路': 1.95, '虹口足球场': 1.32, '赤峰路': 2.36, '邮电新村': 2.5}</t>
   </si>
   <si>
-    <t>{'世博会博物馆': 0.9, '世博大道': 2.19, '中华艺术宫': 1.9, '临沂新村': 2.76, '云台路': 2.43, '南浦大桥': 1.21, '嘉善路': 2.75, '塘桥': 2.9, '大世界': 2.97, '大木桥路': 2.65, '小南门': 1.86, '打浦桥': 2.04, '新天地': 2.11, '耀华路': 2.65, '老西门': 1.97, '豫园': 2.88, '陆家浜路': 1.14, '马当路': 1.44, '高科西路': 2.64, '鲁班路': 1.4, '黄陂南路': 2.78}</t>
+    <t>{'一大会址·新天地': 2.11, '一大会址·黄陂南路': 2.91, '世博会博物馆': 0.9, '世博大道': 2.19, '中华艺术宫': 1.9, '临沂新村': 2.76, '云台路': 2.43, '南浦大桥': 1.21, '嘉善路': 2.75, '塘桥': 2.9, '大世界': 2.99, '大木桥路': 2.65, '小南门': 1.86, '打浦桥': 2.04, '耀华路': 2.65, '老西门': 1.97, '豫园': 2.88, '陆家浜路': 1.14, '马当路': 1.44, '高科西路': 2.64, '鲁班路': 1.4}</t>
   </si>
   <si>
     <t>{'徐泾东': 0.69, '虹桥火车站': 2.48, '蟠龙路': 1.49}</t>
   </si>
   <si>
-    <t>{'东昌路': 2.74, '人民广场': 1.3, '南京东路': 1.18, '南京西路': 2.62, '南浦大桥': 2.44, '商城路': 2.75, '四川北路': 2.71, '国际客运中心': 2.69, '大世界': 0.78, '天潼路': 1.84, '宝山路': 2.84, '小南门': 1.6, '打浦桥': 2.98, '新天地': 1.73, '新闸路': 2.18, '曲阜路': 2.21, '淮海中路': 2.34, '老西门': 1.04, '自然博物馆': 2.57, '西藏南路': 2.88, '陆家嘴': 1.82, '陆家浜路': 1.79, '马当路': 2.25, '黄陂南路': 1.46}</t>
-  </si>
-  <si>
-    <t>{'上海马戏城': 2.89, '东宝兴路': 2.38, '临平路': 2.85, '同济大学': 2.28, '四平路': 1.94, '国权路': 2.77, '大柏树': 0.91, '延长路': 2.79, '曲阳路': 0.98, '江湾镇': 2.72, '海伦路': 2.51, '虹口足球场': 1.14, '西藏北路': 2.36, '邮电新村': 1.81, '鞍山新村': 2.74}</t>
+    <t>{'一大会址·新天地': 1.73, '一大会址·黄陂南路': 1.45, '东昌路': 2.74, '人民广场': 1.3, '南京东路': 1.18, '南京西路': 2.62, '南浦大桥': 2.44, '商城路': 2.75, '四川北路': 2.71, '国际客运中心': 2.69, '大世界': 0.79, '天潼路': 1.84, '宝山路': 2.84, '小南门': 1.6, '打浦桥': 2.98, '新闸路': 2.18, '曲阜路': 2.21, '浦东南路': 2.65, '淮海中路': 2.34, '老西门': 1.04, '自然博物馆': 2.57, '西藏南路': 2.88, '陆家嘴': 1.81, '陆家浜路': 1.79, '马当路': 2.25}</t>
+  </si>
+  <si>
+    <t>{'上海马戏城': 2.89, '东宝兴路': 2.38, '临平路': 2.85, '同济大学': 2.28, '四平路': 1.94, '国权路': 2.77, '复旦大学': 2.31, '大柏树': 0.91, '延长路': 2.79, '曲阳路': 0.98, '江湾镇': 2.72, '海伦路': 2.51, '虹口足球场': 1.14, '西藏北路': 2.36, '邮电新村': 1.81, '鞍山新村': 2.74}</t>
+  </si>
+  <si>
+    <t>{'上海科技馆': 0.67, '世纪公园': 1.29, '世纪大道': 2.42, '北洋泾路': 2.02, '德平路': 2.99, '昌邑路': 2.75, '杨高中路': 0.76, '民生路': 1.8, '浦电路(4号线)': 1.8, '浦电路(6号线)': 2.08, '源深体育中心': 2.05, '源深路': 2.95, '花木路': 1.56, '芳甸路': 1.4, '蓝村路': 2.45, '龙阳路': 2.04}</t>
   </si>
   <si>
     <t>{'共富新村': 2.76, '共康路': 1.45, '呼兰路': 1.02, '彭浦新村': 2.81}</t>
   </si>
   <si>
-    <t>{'东宝兴路': 1.65, '中兴路': 2.95, '临平路': 1.04, '同济大学': 1.89, '四川北路': 2.07, '四平路': 0.98, '国权路': 2.75, '国际客运中心': 2.07, '大柏树': 2.55, '大连路': 2.13, '天潼路': 2.97, '宝山路': 2.55, '提篮桥': 2.05, '曲阳路': 0.94, '杨树浦路': 2.85, '江浦公园': 2.82, '江浦路': 2.39, '海伦路': 1.16, '虹口足球场': 1.48, '西藏北路': 2.5, '赤峰路': 1.81, '鞍山新村': 1.55}</t>
+    <t>{'东宝兴路': 1.65, '中兴路': 2.95, '临平路': 1.04, '同济大学': 1.89, '四川北路': 2.07, '四平路': 0.98, '国权路': 2.75, '国际客运中心': 2.07, '大柏树': 2.55, '大连路': 2.13, '天潼路': 2.97, '宝山路': 2.55, '抚顺路': 2.64, '提篮桥': 2.05, '曲阳路': 0.94, '杨树浦路': 2.85, '江浦公园': 2.82, '江浦路': 2.39, '海伦路': 1.16, '虹口足球场': 1.48, '西藏北路': 2.5, '赤峰路': 1.81, '鞍山新村': 1.55}</t>
   </si>
   <si>
     <t>{'松江体育中心': 1.66, '松江南站': 1.82}</t>
@@ -2665,40 +2884,43 @@
     <t>{'东靖路': 2.81, '五莲路': 2.76, '巨峰路': 2.58, '杨高北路': 1.19, '申江路': 1.08, '金吉路': 2.12, '金桥': 2.15, '金海路': 2.88}</t>
   </si>
   <si>
-    <t>{'杨高北路': 2.99, '申江路': 1.78, '金京路': 2.12, '金桥': 1.67, '金海路': 0.97, '顾唐路': 2.67}</t>
+    <t>{'杨高北路': 2.99, '桂桥路': 1.71, '浦东足球场': 2.81, '申江路': 1.78, '金京路': 2.12, '金桥': 1.67, '金海路': 0.97, '金粤路': 2.47, '顾唐路': 2.67}</t>
   </si>
   <si>
     <t>{'东川路': 1.2, '剑川路': 1.8, '华宁路': 1.48, '文井路': 2.93, '江川路': 1.42}</t>
   </si>
   <si>
-    <t>{'五莲路': 2.55, '博兴路': 2.36, '台儿庄路': 1.59, '杨高北路': 2.28, '申江路': 2.61, '金京路': 2.15, '金吉路': 1.67, '金桥路': 2.84, '金海路': 2.61}</t>
-  </si>
-  <si>
-    <t>{'东陆路': 2.84, '云山路': 1.14, '五莲路': 1.76, '博兴路': 0.85, '台儿庄路': 1.56, '巨峰路': 2.7, '德平路': 2.12, '蓝天路': 1.82, '金桥': 2.84}</t>
-  </si>
-  <si>
-    <t>{'丰庄': 1.91, '金运路': 1.51}</t>
-  </si>
-  <si>
-    <t>{'中山公园': 1.58, '大渡河路': 1.78, '娄山关路': 2.47, '岚皋路': 2.82, '延安西路': 2.52, '昌平路': 2.81, '曹杨路': 0.92, '枫桥路': 1.11, '梅岭北路': 1.96, '武宁路': 1.67, '江苏路': 2.1, '真北路': 2.97, '真如': 2.16, '铜川路': 2.58, '镇坪路': 2.25, '长寿路': 2.58, '长风公园': 1.74, '隆德路': 1.01}</t>
+    <t>{'云顺路': 2.84, '五莲路': 2.55, '博兴路': 2.36, '台儿庄路': 1.59, '杨高北路': 2.28, '桂桥路': 2.56, '浦东足球场': 2.17, '申江路': 2.61, '金京路': 2.15, '金吉路': 1.67, '金桥路': 2.84, '金海路': 2.61, '金粤路': 2.68}</t>
+  </si>
+  <si>
+    <t>{'东陆路': 2.84, '云山路': 1.22, '云顺路': 2.84, '五莲路': 1.76, '博兴路': 0.85, '台儿庄路': 1.56, '巨峰路': 2.7, '德平路': 2.12, '歇浦路': 2.98, '蓝天路': 1.82, '金桥': 2.84, '黄杨路': 2.71}</t>
+  </si>
+  <si>
+    <t>{'丰庄': 1.91, '临洮路': 2.47, '嘉怡路': 2.24, '金运路': 1.51}</t>
+  </si>
+  <si>
+    <t>{'中宁路': 1.46, '中山公园': 1.58, '大渡河路': 1.78, '娄山关路': 2.47, '岚皋路': 2.82, '延安西路': 2.52, '昌平路': 2.81, '曹杨路': 0.92, '枫桥路': 1.11, '梅岭北路': 1.96, '武宁路': 1.67, '武定路': 2.29, '江苏路': 2.1, '真北路': 2.97, '真如': 2.16, '铜川路': 2.59, '镇坪路': 2.25, '长寿路': 2.58, '长风公园': 1.74, '隆德路': 1.01}</t>
   </si>
   <si>
     <t>{'奉贤新城': 1.69, '望园路': 0.92, '环城东路': 2.81}</t>
   </si>
   <si>
-    <t>{'民雷路': 2.86, '申江路': 2.2, '金京路': 2.88, '金吉路': 0.97, '金桥': 2.61, '顾唐路': 1.73}</t>
+    <t>{'桂桥路': 1.5, '民雷路': 2.86, '申江路': 2.2, '金京路': 2.88, '金吉路': 0.97, '金桥': 2.61, '金粤路': 2.51, '顾唐路': 1.73}</t>
   </si>
   <si>
     <t>{'中科路': 2.82, '学林路': 2.59, '广兰路': 1.97, '张江高科': 1.39}</t>
   </si>
   <si>
-    <t>{'金沙江西路': 1.51}</t>
+    <t>{'云顺路': 2.78, '桂桥路': 1.05, '浦东足球场': 1.29, '金吉路': 2.47, '金桥': 2.68, '金海路': 2.51}</t>
+  </si>
+  <si>
+    <t>{'临洮路': 2.69, '乐秀路': 2.76, '金沙江西路': 1.51}</t>
   </si>
   <si>
     <t>{'友谊路': 1.48, '宝杨路': 2.26, '江杨北路': 2.02}</t>
   </si>
   <si>
-    <t>{'上海西站': 1.38, '大渡河路': 2.13, '岚皋路': 2.44, '新村路': 2.84, '曹杨路': 2.34, '李子园': 2.14, '枫桥路': 1.68, '梅岭北路': 0.87, '武威东路': 2.83, '真北路': 2.51, '真如': 0.96, '金沙江路': 2.58, '长风公园': 2.72}</t>
+    <t>{'上海西站': 1.38, '中宁路': 1.78, '大渡河路': 2.13, '岚皋路': 2.44, '新村路': 2.85, '曹杨路': 2.34, '李子园': 2.14, '枫桥路': 1.69, '梅岭北路': 0.87, '武威东路': 2.83, '真光路': 1.26, '真北路': 2.51, '真如': 0.97, '真新新村': 2.41, '金沙江路': 2.59, '长风公园': 2.72}</t>
   </si>
   <si>
     <t>{'春申路': 1.08, '景西路': 2.95, '曙建路': 2.64, '莘庄': 2.47, '颛桥': 2.72}</t>
@@ -2710,22 +2932,22 @@
     <t>{'上大路': 2.61, '上海大学': 0.68, '丰翔路': 1.33, '南大路': 2.35, '南陈路': 1.63, '祁华路': 0.81, '顾村公园': 2.84}</t>
   </si>
   <si>
-    <t>{'上海儿童医学中心': 2.35, '下南路': 0.92, '世纪公园': 2.64, '临沂新村': 2.31, '北蔡': 1.41, '华鹏路': 1.8, '杨高南路': 1.42, '芳华路': 1.14, '蓝村路': 2.93, '陈春路': 2.2, '高科西路': 2.88, '龙阳路': 2.44}</t>
-  </si>
-  <si>
-    <t>{'上海火车站': 2.7, '中潭路': 1.4, '岚皋路': 1.32, '新村路': 2.07, '昌平路': 1.86, '曹杨路': 1.39, '枫桥路': 1.82, '武宁路': 1.34, '汉中路': 2.79, '江宁路': 1.45, '江苏路': 2.89, '真如': 2.2, '金沙江路': 2.25, '长寿路': 1.01, '隆德路': 1.86}</t>
-  </si>
-  <si>
-    <t>{'上海火车站': 2.11, '中山北路': 2.82, '中潭路': 1.55, '南京西路': 2.4, '岚皋路': 2.31, '新村路': 2.96, '新闸路': 2.85, '昌平路': 0.89, '曹杨路': 1.96, '枫桥路': 2.56, '武宁路': 1.03, '汉中路': 1.95, '江宁路': 0.73, '江苏路': 2.39, '自然博物馆': 2.34, '金沙江路': 2.58, '镇坪路': 1.01, '隆德路': 1.81, '静安寺': 2.12}</t>
-  </si>
-  <si>
-    <t>{'三门路': 2.64, '国帆路': 2.24, '张华浜': 2.97, '新江湾城': 1.52, '殷高东路': 1.85, '殷高西路': 1.48, '淞发路': 1.68}</t>
+    <t>{'上海儿童医学中心': 2.35, '下南路': 0.92, '世纪公园': 2.64, '临沂新村': 2.31, '北中路': 2.1, '北蔡': 1.41, '华鹏路': 1.8, '杨高南路': 1.42, '芳华路': 1.14, '芳芯路': 1.87, '蓝村路': 2.93, '陈春路': 2.2, '高科西路': 2.88, '龙阳路': 2.44}</t>
+  </si>
+  <si>
+    <t>{'上海火车站': 2.7, '中宁路': 1.46, '中潭路': 1.4, '岚皋路': 1.32, '新村路': 2.07, '昌平路': 1.86, '曹杨路': 1.39, '枫桥路': 1.82, '武宁路': 1.34, '武定路': 2.25, '汉中路': 2.79, '江宁路': 1.45, '江苏路': 2.89, '真如': 2.2, '金沙江路': 2.25, '长寿路': 1.01, '隆德路': 1.86}</t>
+  </si>
+  <si>
+    <t>{'上海火车站': 2.11, '中宁路': 2.3, '中山北路': 2.82, '中潭路': 1.55, '南京西路': 2.4, '岚皋路': 2.31, '新村路': 2.96, '新闸路': 2.85, '昌平路': 0.89, '曹杨路': 1.96, '枫桥路': 2.56, '武宁路': 1.03, '武定路': 1.55, '汉中路': 1.95, '江宁路': 0.73, '江苏路': 2.39, '自然博物馆': 2.34, '金沙江路': 2.58, '镇坪路': 1.01, '隆德路': 1.81, '静安寺': 2.12}</t>
+  </si>
+  <si>
+    <t>{'三门路': 2.64, '上海财经大学': 2.75, '国帆路': 2.24, '张华浜': 2.97, '新江湾城': 1.52, '殷高东路': 1.85, '殷高西路': 1.48, '殷高路': 1.22, '淞发路': 1.68}</t>
   </si>
   <si>
     <t>{'世博会博物馆': 2.64, '世博大道': 0.98, '东方体育中心': 2.45, '东明路': 2.21, '中华艺术宫': 1.32, '云台路': 1.48, '云锦路': 2.92, '后滩': 1.36, '成山路': 0.9, '杨思': 1.58, '灵岩南路': 2.96, '耀华路': 0.79, '高科西路': 2.45, '鲁班路': 3.0}</t>
   </si>
   <si>
-    <t>{'中山公园': 2.08, '北新泾': 2.38, '大渡河路': 0.63, '威宁路': 1.52, '娄山关路': 1.84, '延安西路': 2.71, '曹杨路': 2.51, '枫桥路': 2.26, '梅岭北路': 1.86, '水城路': 3.0, '真北路': 1.51, '真如': 2.92, '金沙江路': 1.74, '铜川路': 2.72, '隆德路': 2.65}</t>
+    <t>{'中宁路': 2.72, '中山公园': 2.08, '北新泾': 2.38, '大渡河路': 0.63, '威宁路': 1.52, '娄山关路': 1.84, '延安西路': 2.71, '曹杨路': 2.51, '枫桥路': 2.26, '梅岭北路': 1.86, '水城路': 3.0, '真北路': 1.51, '真如': 2.92, '金沙江路': 1.74, '铜川路': 2.72, '隆德路': 2.65}</t>
   </si>
   <si>
     <t>{'三鲁公路': 0.95, '东城一路': 1.96, '汇臻路': 2.58, '沈杜公路': 2.28, '浦航路': 0.77}</t>
@@ -2734,37 +2956,37 @@
     <t>{'华宁路': 2.55, '文井路': 1.1}</t>
   </si>
   <si>
-    <t>{'世纪大道': 2.6, '东昌路': 1.38, '临平路': 2.53, '人民广场': 2.65, '南京东路': 1.68, '商城路': 1.6, '四川北路': 2.31, '国际客运中心': 1.39, '大世界': 2.5, '大连路': 2.42, '天潼路': 1.98, '宝山路': 2.88, '小南门': 2.4, '提篮桥': 1.76, '曲阜路': 2.96, '杨树浦路': 2.09, '浦东大道': 1.64, '海伦路': 2.68, '老西门': 2.76, '豫园': 1.82}</t>
-  </si>
-  <si>
-    <t>{'世博会博物馆': 1.64, '人民广场': 2.56, '南京东路': 2.93, '南浦大桥': 1.34, '嘉善路': 2.61, '大世界': 1.83, '大木桥路': 2.93, '小南门': 1.3, '打浦桥': 1.77, '新天地': 1.16, '淮海中路': 2.26, '老西门': 0.83, '西藏南路': 1.14, '豫园': 1.79, '陕西南路': 2.63, '马当路': 0.88, '鲁班路': 1.74, '黄陂南路': 1.72}</t>
-  </si>
-  <si>
-    <t>{'下南路': 1.74, '北蔡': 0.81, '华夏中路': 2.42, '华鹏路': 2.97, '御桥': 2.24, '芳华路': 2.16, '莲溪路': 1.04, '锦绣路': 2.2}</t>
+    <t>{'世纪大道': 2.61, '东昌路': 1.39, '临平路': 2.52, '人民广场': 2.64, '南京东路': 1.66, '商城路': 1.61, '四川北路': 2.29, '国际客运中心': 1.38, '大世界': 2.49, '大连路': 2.42, '天潼路': 1.97, '宝山路': 2.86, '小南门': 2.41, '提篮桥': 1.75, '曲阜路': 2.94, '杨树浦路': 2.09, '浦东南路': 0.98, '浦东大道': 1.65, '海伦路': 2.67, '源深路': 2.77, '老西门': 2.76, '豫园': 1.81}</t>
+  </si>
+  <si>
+    <t>{'一大会址·新天地': 1.16, '一大会址·黄陂南路': 1.84, '世博会博物馆': 1.64, '人民广场': 2.56, '南京东路': 2.93, '南浦大桥': 1.34, '嘉善路': 2.61, '大世界': 1.86, '大木桥路': 2.93, '小南门': 1.3, '打浦桥': 1.77, '淮海中路': 2.26, '老西门': 0.83, '西藏南路': 1.14, '豫园': 1.79, '陕西南路': 2.63, '马当路': 0.88, '鲁班路': 1.74}</t>
+  </si>
+  <si>
+    <t>{'下南路': 1.74, '北中路': 0.96, '北蔡': 0.81, '华夏中路': 2.42, '华鹏路': 2.97, '御桥': 2.24, '芳华路': 2.16, '芳芯路': 1.83, '莲溪路': 1.04, '锦绣路': 2.2}</t>
   </si>
   <si>
     <t>{'南翔': 1.89}</t>
   </si>
   <si>
-    <t>{'上海图书馆': 1.58, '世博会博物馆': 2.92, '东安路': 2.73, '交通大学': 2.66, '人民广场': 2.5, '南京西路': 1.64, '嘉善路': 1.38, '大世界': 2.37, '大木桥路': 2.38, '常熟路': 0.93, '打浦桥': 1.36, '新天地': 1.57, '新闸路': 2.73, '昌平路': 2.57, '汉中路': 2.97, '江苏路': 2.74, '淮海中路': 0.79, '老西门': 2.42, '肇嘉浜路': 1.93, '自然博物馆': 2.39, '衡山路': 1.66, '陆家浜路': 2.63, '静安寺': 1.48, '马当路': 1.87, '鲁班路': 2.36, '黄陂南路': 1.62}</t>
-  </si>
-  <si>
-    <t>{'中山公园': 1.58, '大渡河路': 2.77, '娄山关路': 2.84, '岚皋路': 2.86, '延安西路': 2.4, '昌平路': 1.85, '曹杨路': 1.13, '枫桥路': 1.71, '梅岭北路': 2.88, '武宁路': 0.78, '江宁路': 2.54, '江苏路': 1.31, '真如': 2.74, '金沙江路': 1.01, '镇坪路': 1.86, '长寿路': 1.81, '长风公园': 2.65, '静安寺': 2.31}</t>
-  </si>
-  <si>
-    <t>{'复兴岛': 1.7, '宁国路': 1.39, '延吉中路': 1.75, '江浦公园': 2.32, '江浦路': 2.5, '爱国路': 0.91, '黄兴公园': 2.49, '黄兴路': 1.6}</t>
+    <t>{'一大会址·新天地': 1.57, '一大会址·黄陂南路': 1.66, '上海图书馆': 1.58, '世博会博物馆': 2.92, '东安路': 2.73, '交通大学': 2.66, '人民广场': 2.5, '南京西路': 1.64, '嘉善路': 1.38, '大世界': 2.37, '大木桥路': 2.38, '常熟路': 0.93, '打浦桥': 1.36, '新闸路': 2.73, '昌平路': 2.57, '武定路': 2.49, '汉中路': 2.97, '江苏路': 2.74, '淮海中路': 0.79, '老西门': 2.42, '肇嘉浜路': 1.93, '自然博物馆': 2.39, '衡山路': 1.66, '陆家浜路': 2.63, '静安寺': 1.48, '马当路': 1.87, '鲁班路': 2.36}</t>
+  </si>
+  <si>
+    <t>{'中宁路': 1.83, '中山公园': 1.58, '大渡河路': 2.77, '娄山关路': 2.84, '岚皋路': 2.86, '延安西路': 2.4, '昌平路': 1.85, '曹杨路': 1.13, '枫桥路': 1.71, '梅岭北路': 2.88, '武宁路': 0.78, '武定路': 1.29, '江宁路': 2.54, '江苏路': 1.31, '真如': 2.74, '金沙江路': 1.01, '镇坪路': 1.86, '长寿路': 1.81, '长风公园': 2.65, '静安寺': 2.31}</t>
+  </si>
+  <si>
+    <t>{'丹阳路': 2.7, '复兴岛': 1.7, '宁国路': 1.39, '平凉路': 2.48, '延吉中路': 1.75, '抚顺路': 2.9, '歇浦路': 2.81, '江浦公园': 2.32, '江浦路': 2.5, '爱国路': 0.91, '黄兴公园': 2.49, '黄兴路': 1.6}</t>
   </si>
   <si>
     <t>{'汇金路': 2.49, '漕盈路': 2.74}</t>
   </si>
   <si>
-    <t>{'上海图书馆': 1.69, '中山公园': 2.95, '交通大学': 2.54, '人民广场': 2.95, '南京西路': 1.51, '嘉善路': 2.64, '常熟路': 1.1, '打浦桥': 2.84, '新天地': 2.85, '新闸路': 2.69, '昌平路': 1.23, '武宁路': 1.95, '汉中路': 2.4, '江宁路': 2.36, '江苏路': 1.51, '淮海中路': 1.77, '肇嘉浜路': 2.66, '自然博物馆': 2.14, '衡山路': 2.06, '长寿路': 2.12, '陕西南路': 1.48, '隆德路': 2.31, '黄陂南路': 2.58}</t>
-  </si>
-  <si>
-    <t>{'临平路': 1.62, '五角场': 2.8, '同济大学': 1.03, '四平路': 0.8, '国权路': 1.78, '国际客运中心': 2.79, '大连路': 1.73, '宁国路': 2.22, '延吉中路': 2.94, '提篮桥': 2.21, '曲阳路': 1.8, '杨树浦路': 2.47, '江浦公园': 1.64, '江浦路': 0.85, '海伦路': 2.53, '虹口足球场': 2.91, '赤峰路': 2.74, '邮电新村': 1.55, '黄兴路': 1.88}</t>
-  </si>
-  <si>
-    <t>{'曹路': 2.59, '民雷路': 1.14, '金吉路': 2.67, '金海路': 1.73}</t>
+    <t>{'一大会址·新天地': 2.85, '一大会址·黄陂南路': 2.54, '上海图书馆': 1.69, '中山公园': 2.95, '交通大学': 2.54, '人民广场': 2.95, '南京西路': 1.51, '嘉善路': 2.64, '常熟路': 1.1, '打浦桥': 2.84, '新闸路': 2.69, '昌平路': 1.23, '武宁路': 1.95, '武定路': 1.02, '汉中路': 2.4, '江宁路': 2.36, '江苏路': 1.51, '淮海中路': 1.77, '肇嘉浜路': 2.66, '自然博物馆': 2.14, '衡山路': 2.06, '长寿路': 2.12, '陕西南路': 1.48, '隆德路': 2.31}</t>
+  </si>
+  <si>
+    <t>{'临平路': 1.62, '丹阳路': 2.97, '五角场': 2.8, '同济大学': 1.03, '四平路': 0.8, '国权路': 1.78, '国际客运中心': 2.79, '复旦大学': 2.69, '大连路': 1.73, '宁国路': 2.22, '平凉路': 2.26, '延吉中路': 2.94, '抚顺路': 1.3, '提篮桥': 2.21, '曲阳路': 1.8, '杨树浦路': 2.47, '江浦公园': 1.64, '江浦路': 0.85, '海伦路': 2.53, '虹口足球场': 2.91, '赤峰路': 2.74, '邮电新村': 1.55, '黄兴路': 1.88}</t>
+  </si>
+  <si>
+    <t>{'曹路': 2.59, '桂桥路': 2.71, '民雷路': 1.14, '金吉路': 2.67, '金海路': 1.73}</t>
   </si>
   <si>
     <t>{'七莘路': 2.98, '东兰路': 1.66, '合川路': 2.93, '外环路': 2.23, '星中路': 2.9, '莲花路': 1.53, '虹梅路': 2.22, '虹莘路': 1.16, '锦江乐园': 2.12}</t>
@@ -2776,7 +2998,7 @@
     <t>{'元江路': 2.9, '北桥': 2.56, '双柏路': 2.61, '银都路': 2.72}</t>
   </si>
   <si>
-    <t>{'世博会博物馆': 1.39, '东安路': 2.97, '人民广场': 2.59, '南京西路': 2.8, '南浦大桥': 2.14, '嘉善路': 1.74, '大世界': 1.97, '大木桥路': 2.17, '小南门': 2.17, '常熟路': 2.71, '打浦桥': 0.89, '新天地': 0.79, '淮海中路': 1.7, '老西门': 1.23, '肇嘉浜路': 2.81, '衡山路': 2.98, '西藏南路': 1.44, '豫园': 2.25, '陆家浜路': 0.88, '陕西南路': 1.87, '鲁班路': 1.16, '黄陂南路': 1.52}</t>
+    <t>{'一大会址·新天地': 0.79, '一大会址·黄陂南路': 1.65, '世博会博物馆': 1.39, '东安路': 2.97, '人民广场': 2.59, '南京西路': 2.8, '南浦大桥': 2.14, '嘉善路': 1.74, '大世界': 2.0, '大木桥路': 2.17, '小南门': 2.17, '常熟路': 2.71, '打浦桥': 0.89, '淮海中路': 1.7, '老西门': 1.23, '肇嘉浜路': 2.81, '衡山路': 2.98, '西藏南路': 1.44, '豫园': 2.25, '陆家浜路': 0.88, '陕西南路': 1.87, '鲁班路': 1.16}</t>
   </si>
   <si>
     <t>{'嘉定新城': 2.44}</t>
@@ -2794,7 +3016,7 @@
     <t>{'三林': 1.9, '三林东': 1.65, '上南路': 1.52, '东明路': 1.49, '云台路': 2.88, '华夏西路': 1.12, '华鹏路': 2.09, '成山路': 2.22, '杨思': 2.13, '浦三路': 2.43, '灵岩南路': 2.32, '耀华路': 2.89, '高科西路': 2.93}</t>
   </si>
   <si>
-    <t>{'世博会博物馆': 0.64, '世博大道': 2.02, '东安路': 2.14, '中华艺术宫': 2.35, '南浦大桥': 2.56, '嘉善路': 1.43, '大木桥路': 1.27, '小南门': 2.96, '常熟路': 2.94, '打浦桥': 1.0, '新天地': 1.91, '淮海中路': 2.55, '耀华路': 2.95, '老西门': 2.35, '肇嘉浜路': 2.37, '衡山路': 2.79, '西藏南路': 1.4, '长清路': 3.0, '陆家浜路': 1.74, '陕西南路': 2.36, '马当路': 1.16, '黄陂南路': 2.62, '龙华中路': 2.43}</t>
+    <t>{'一大会址·新天地': 1.91, '一大会址·黄陂南路': 2.75, '世博会博物馆': 0.64, '世博大道': 2.02, '东安路': 2.14, '中华艺术宫': 2.35, '南浦大桥': 2.56, '嘉善路': 1.43, '大木桥路': 1.27, '小南门': 2.96, '常熟路': 2.94, '打浦桥': 1.0, '淮海中路': 2.55, '耀华路': 2.95, '老西门': 2.35, '肇嘉浜路': 2.37, '衡山路': 2.79, '西藏南路': 1.4, '长清路': 3.0, '陆家浜路': 1.74, '陕西南路': 2.36, '马当路': 1.16, '龙华中路': 2.43}</t>
   </si>
   <si>
     <t>{'航头东': 2.61, '鹤涛路': 2.5}</t>
@@ -2803,13 +3025,13 @@
     <t>{'下沙': 1.96, '沈梅路': 2.25, '鹤沙航城': 2.5}</t>
   </si>
   <si>
-    <t>{'五角场': 1.81, '同济大学': 2.96, '国权路': 2.32, '嫩江路': 2.16, '宁国路': 2.98, '延吉中路': 0.78, '江浦路': 2.68, '江湾体育场': 2.15, '爱国路': 2.52, '翔殷路': 1.08, '隆昌路': 2.49, '黄兴路': 1.9}</t>
-  </si>
-  <si>
-    <t>{'五角场': 2.51, '同济大学': 2.13, '四平路': 2.59, '国权路': 2.1, '大连路': 2.74, '宁国路': 1.2, '延吉中路': 1.25, '江浦公园': 1.65, '江浦路': 1.05, '爱国路': 2.31, '翔殷路': 2.93, '隆昌路': 1.6, '鞍山新村': 1.88, '黄兴公园': 1.9}</t>
-  </si>
-  <si>
-    <t>{'世博会博物馆': 2.91, '人民广场': 1.13, '南京东路': 2.02, '南京西路': 1.49, '南浦大桥': 2.97, '嘉善路': 2.52, '大世界': 0.76, '天潼路': 2.5, '小南门': 2.47, '常熟路': 2.52, '打浦桥': 1.88, '新天地': 0.73, '新闸路': 1.81, '曲阜路': 2.18, '汉中路': 2.54, '淮海中路': 0.88, '老西门': 1.08, '自然博物馆': 1.85, '西藏南路': 2.78, '豫园': 1.46, '陆家浜路': 1.72, '陕西南路': 1.62, '静安寺': 2.58, '马当路': 1.52, '鲁班路': 2.62}</t>
+    <t>{'五角场': 1.81, '同济大学': 2.96, '国权路': 2.32, '嫩江路': 2.16, '宁国路': 2.98, '延吉中路': 0.78, '抚顺路': 2.12, '江浦路': 2.68, '江湾体育场': 2.15, '爱国路': 2.52, '翔殷路': 1.08, '隆昌路': 2.49, '黄兴路': 1.9}</t>
+  </si>
+  <si>
+    <t>{'丹阳路': 2.79, '五角场': 2.51, '同济大学': 2.13, '四平路': 2.59, '国权路': 2.1, '大连路': 2.74, '宁国路': 1.2, '平凉路': 2.2, '延吉中路': 1.25, '抚顺路': 1.31, '江浦公园': 1.65, '江浦路': 1.05, '爱国路': 2.31, '翔殷路': 2.93, '隆昌路': 1.6, '鞍山新村': 1.88, '黄兴公园': 1.9}</t>
+  </si>
+  <si>
+    <t>{'云山路': 2.67, '云顺路': 0.95, '台儿庄路': 2.18, '德平路': 2.84, '浦东足球场': 2.47, '蓝天路': 1.46, '金桥路': 2.71}</t>
   </si>
   <si>
     <t>{'上海体育场': 1.69, '上海体育馆': 1.86, '上海南站': 2.97, '上海游泳馆': 1.31, '东安路': 2.03, '云锦路': 0.87, '后滩': 1.98, '大木桥路': 2.57, '宜山路': 2.91, '徐家汇': 2.95, '漕宝路': 1.95, '漕溪路': 1.46, '石龙路': 1.88, '肇嘉浜路': 2.99, '龙华中路': 1.3, '龙漕路': 0.89, '龙耀路': 1.58}</t>
@@ -2830,7 +3052,7 @@
     <t>{'上海南站': 2.88, '上海游泳馆': 2.77, '东方体育中心': 2.08, '云锦路': 0.76, '后滩': 1.9, '漕宝路': 2.7, '漕溪路': 2.77, '石龙路': 1.58, '龙华': 1.58, '龙华中路': 2.69, '龙漕路': 1.82}</t>
   </si>
   <si>
-    <t>{'上海科技馆': 2.11, '世纪公园': 0.91, '北蔡': 2.66, '张江高科': 2.86, '杨高中路': 2.79, '花木路': 0.98, '芳华路': 1.37, '蓝村路': 2.99, '锦绣路': 2.44}</t>
+    <t>{'上海科技馆': 2.11, '世纪公园': 0.91, '北中路': 2.34, '北蔡': 2.66, '张江高科': 2.86, '杨高中路': 2.79, '花木路': 0.98, '芳华路': 1.37, '芳芯路': 1.39, '蓝村路': 2.99, '迎春路': 2.04, '锦绣路': 2.44}</t>
   </si>
 </sst>
 </file>
@@ -3188,7 +3410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E382"/>
+  <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3216,16 +3438,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>568</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3233,16 +3455,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>569</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3250,16 +3472,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>570</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3267,16 +3489,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>571</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3284,16 +3506,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>572</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3304,13 +3526,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>573</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3318,16 +3540,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>574</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3335,16 +3557,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>575</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3355,13 +3577,13 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3369,16 +3591,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>577</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3386,16 +3608,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>578</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3403,16 +3625,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>579</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3420,16 +3642,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>580</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3437,16 +3659,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>581</v>
+        <v>628</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3454,16 +3676,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>582</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3471,16 +3693,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>583</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3488,16 +3710,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>584</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3505,16 +3727,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>585</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3522,16 +3744,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>586</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3539,16 +3761,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>587</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3556,16 +3778,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>588</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3573,16 +3795,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>589</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3590,16 +3812,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>590</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3610,13 +3832,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>591</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3624,16 +3846,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>592</v>
+        <v>639</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3641,16 +3863,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>593</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3658,16 +3880,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>594</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3675,16 +3897,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>595</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3692,16 +3914,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>596</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3712,13 +3934,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>597</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3726,16 +3948,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>598</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3743,16 +3965,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>599</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3763,13 +3985,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>600</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3777,16 +3999,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>601</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3794,16 +4016,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>602</v>
+        <v>649</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3811,16 +4033,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>603</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3831,13 +4053,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>604</v>
+        <v>651</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3845,16 +4067,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>605</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3862,16 +4084,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>606</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3879,16 +4101,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D41">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>607</v>
+        <v>654</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3896,16 +4118,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>608</v>
+        <v>655</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3913,16 +4135,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D43">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>609</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3930,16 +4152,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>610</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3947,16 +4169,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>611</v>
+        <v>658</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3964,16 +4186,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>612</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3981,16 +4203,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>613</v>
+        <v>660</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4001,13 +4223,13 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>614</v>
+        <v>661</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4018,13 +4240,13 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>615</v>
+        <v>662</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4032,16 +4254,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
         <v>415</v>
       </c>
       <c r="D50">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>616</v>
+        <v>663</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4052,13 +4274,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>617</v>
+        <v>664</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4069,13 +4291,13 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>618</v>
+        <v>665</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4086,13 +4308,13 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>619</v>
+        <v>666</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4100,16 +4322,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>386</v>
+        <v>667</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4117,16 +4339,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>620</v>
+        <v>668</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4134,16 +4356,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4151,16 +4373,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D57">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4168,16 +4390,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>623</v>
+        <v>671</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4185,16 +4407,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>624</v>
+        <v>672</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4202,16 +4424,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D60">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>625</v>
+        <v>673</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4219,16 +4441,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>626</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4236,16 +4458,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D62">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>627</v>
+        <v>674</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4253,16 +4475,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="D63">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>628</v>
+        <v>675</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4270,16 +4492,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>629</v>
+        <v>676</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4287,16 +4509,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>630</v>
+        <v>677</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4307,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>631</v>
+        <v>678</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4321,16 +4543,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>632</v>
+        <v>679</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4338,16 +4560,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>386</v>
+        <v>453</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>633</v>
+        <v>680</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4355,16 +4577,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>634</v>
+        <v>681</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4372,16 +4594,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="D70">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>635</v>
+        <v>682</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4389,16 +4611,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>636</v>
+        <v>683</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4406,16 +4628,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>637</v>
+        <v>684</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4426,13 +4648,13 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>638</v>
+        <v>685</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4440,16 +4662,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>639</v>
+        <v>686</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4460,13 +4682,13 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>640</v>
+        <v>687</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4477,13 +4699,13 @@
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>641</v>
+        <v>688</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4491,16 +4713,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>642</v>
+        <v>689</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4511,13 +4733,13 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="D78">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>643</v>
+        <v>690</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4528,13 +4750,13 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>644</v>
+        <v>691</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4542,16 +4764,16 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>386</v>
+        <v>458</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>645</v>
+        <v>692</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4562,13 +4784,13 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D81">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>646</v>
+        <v>693</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4576,16 +4798,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>647</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4593,16 +4815,16 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>386</v>
+        <v>460</v>
       </c>
       <c r="D83">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>648</v>
+        <v>695</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4613,13 +4835,13 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>649</v>
+        <v>696</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4630,13 +4852,13 @@
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D85">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>650</v>
+        <v>697</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4644,16 +4866,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="D86">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>651</v>
+        <v>698</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4661,16 +4883,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="D87">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>652</v>
+        <v>699</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4678,16 +4900,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>653</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4695,16 +4917,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>654</v>
+        <v>701</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4715,13 +4937,13 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>655</v>
+        <v>702</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4729,16 +4951,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>656</v>
+        <v>703</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4746,16 +4968,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>657</v>
+        <v>704</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4766,13 +4988,13 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>658</v>
+        <v>705</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4783,13 +5005,13 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>659</v>
+        <v>706</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4800,13 +5022,13 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="D95">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E95" t="s">
-        <v>660</v>
+        <v>707</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4817,13 +5039,13 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>661</v>
+        <v>708</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4831,16 +5053,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>386</v>
+        <v>466</v>
       </c>
       <c r="D97">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>662</v>
+        <v>709</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4848,16 +5070,16 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>386</v>
+        <v>467</v>
       </c>
       <c r="D98">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>663</v>
+        <v>710</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4868,13 +5090,13 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>664</v>
+        <v>711</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4882,16 +5104,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="D100">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E100" t="s">
-        <v>665</v>
+        <v>712</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4899,16 +5121,16 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="D101">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>666</v>
+        <v>713</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4916,16 +5138,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>667</v>
+        <v>714</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4936,13 +5158,13 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>668</v>
+        <v>715</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4950,16 +5172,16 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>386</v>
+        <v>470</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>669</v>
+        <v>716</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4967,16 +5189,16 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>386</v>
+        <v>471</v>
       </c>
       <c r="D105">
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>670</v>
+        <v>717</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4987,13 +5209,13 @@
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>671</v>
+        <v>718</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5001,16 +5223,16 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="D107">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>672</v>
+        <v>719</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5018,16 +5240,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="D108">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>673</v>
+        <v>720</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5035,16 +5257,16 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>386</v>
+        <v>472</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E109" t="s">
-        <v>674</v>
+        <v>721</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5055,13 +5277,13 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>675</v>
+        <v>722</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5069,16 +5291,16 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>386</v>
+        <v>473</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E111" t="s">
-        <v>676</v>
+        <v>723</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5089,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>677</v>
+        <v>724</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5103,16 +5325,16 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="D113">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>678</v>
+        <v>725</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5120,16 +5342,16 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="D114">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>679</v>
+        <v>726</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5140,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>680</v>
+        <v>727</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5154,16 +5376,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="D116">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E116" t="s">
-        <v>681</v>
+        <v>728</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5171,16 +5393,16 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="D117">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E117" t="s">
-        <v>682</v>
+        <v>729</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5191,13 +5413,13 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>683</v>
+        <v>730</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5205,16 +5427,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>684</v>
+        <v>731</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5222,16 +5444,16 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="D120">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>685</v>
+        <v>732</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5239,16 +5461,16 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="D121">
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>686</v>
+        <v>733</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5259,13 +5481,13 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D122">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>687</v>
+        <v>734</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5273,16 +5495,16 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E123" t="s">
-        <v>688</v>
+        <v>735</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5290,16 +5512,16 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>386</v>
+        <v>477</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E124" t="s">
-        <v>689</v>
+        <v>736</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5307,16 +5529,16 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D125">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>690</v>
+        <v>737</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5324,16 +5546,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="D126">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>691</v>
+        <v>738</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5341,16 +5563,16 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>386</v>
+        <v>479</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E127" t="s">
-        <v>692</v>
+        <v>739</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5358,16 +5580,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="D128">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>693</v>
+        <v>740</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5378,13 +5600,13 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="D129">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>694</v>
+        <v>741</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5392,16 +5614,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="D130">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>695</v>
+        <v>742</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5409,16 +5631,16 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="D131">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E131" t="s">
-        <v>696</v>
+        <v>743</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5426,16 +5648,16 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="D132">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>697</v>
+        <v>744</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5446,13 +5668,13 @@
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>698</v>
+        <v>745</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5460,16 +5682,16 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>386</v>
+        <v>483</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>699</v>
+        <v>746</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5477,16 +5699,16 @@
         <v>138</v>
       </c>
       <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>415</v>
+      </c>
+      <c r="D135">
         <v>3</v>
       </c>
-      <c r="C135" t="s">
-        <v>456</v>
-      </c>
-      <c r="D135">
-        <v>15</v>
-      </c>
       <c r="E135" t="s">
-        <v>700</v>
+        <v>747</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5494,16 +5716,16 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>386</v>
+        <v>484</v>
       </c>
       <c r="D136">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E136" t="s">
-        <v>701</v>
+        <v>748</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5514,13 +5736,13 @@
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D137">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E137" t="s">
-        <v>702</v>
+        <v>749</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5528,16 +5750,16 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="D138">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>703</v>
+        <v>750</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5545,16 +5767,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>386</v>
+        <v>485</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E139" t="s">
-        <v>704</v>
+        <v>751</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5565,13 +5787,13 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="D140">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>705</v>
+        <v>752</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5579,16 +5801,16 @@
         <v>144</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>386</v>
+        <v>487</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E141" t="s">
-        <v>706</v>
+        <v>753</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5596,16 +5818,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="D142">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>707</v>
+        <v>754</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5613,16 +5835,16 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>386</v>
+        <v>489</v>
       </c>
       <c r="D143">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E143" t="s">
-        <v>708</v>
+        <v>755</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5633,13 +5855,13 @@
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>709</v>
+        <v>756</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5647,16 +5869,16 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="D145">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>710</v>
+        <v>757</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5664,16 +5886,16 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>386</v>
+        <v>490</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E146" t="s">
-        <v>711</v>
+        <v>758</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5684,13 +5906,13 @@
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>712</v>
+        <v>759</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5698,16 +5920,16 @@
         <v>151</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="D148">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E148" t="s">
-        <v>713</v>
+        <v>760</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5718,13 +5940,13 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="D149">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>714</v>
+        <v>761</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5735,13 +5957,13 @@
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>715</v>
+        <v>762</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5749,16 +5971,16 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="D151">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E151" t="s">
-        <v>716</v>
+        <v>763</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5766,16 +5988,16 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="D152">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>717</v>
+        <v>764</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5783,16 +6005,16 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="D153">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E153" t="s">
-        <v>718</v>
+        <v>765</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5800,16 +6022,16 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>386</v>
+        <v>494</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E154" t="s">
-        <v>719</v>
+        <v>766</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5820,13 +6042,13 @@
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E155" t="s">
-        <v>720</v>
+        <v>767</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5837,13 +6059,13 @@
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D156">
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>721</v>
+        <v>768</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5851,16 +6073,16 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="D157">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E157" t="s">
-        <v>722</v>
+        <v>769</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5868,16 +6090,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="D158">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E158" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5885,16 +6107,16 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="D159">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>724</v>
+        <v>771</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5905,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5919,16 +6141,16 @@
         <v>164</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>386</v>
+        <v>496</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E161" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5936,16 +6158,16 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>386</v>
+        <v>497</v>
       </c>
       <c r="D162">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5956,13 +6178,13 @@
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>728</v>
+        <v>775</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5970,16 +6192,16 @@
         <v>167</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="D164">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E164" t="s">
-        <v>729</v>
+        <v>776</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5990,13 +6212,13 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>730</v>
+        <v>777</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6004,16 +6226,16 @@
         <v>169</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>386</v>
+        <v>500</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E166" t="s">
-        <v>731</v>
+        <v>778</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6021,16 +6243,16 @@
         <v>170</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>386</v>
+        <v>501</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E167" t="s">
-        <v>732</v>
+        <v>779</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6041,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E168" t="s">
-        <v>733</v>
+        <v>780</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6055,16 +6277,16 @@
         <v>172</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="D169">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E169" t="s">
-        <v>734</v>
+        <v>781</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6075,13 +6297,13 @@
         <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>386</v>
+        <v>782</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6089,16 +6311,16 @@
         <v>174</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>386</v>
+        <v>502</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E171" t="s">
-        <v>386</v>
+        <v>783</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6106,16 +6328,16 @@
         <v>175</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="D172">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>735</v>
+        <v>784</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6123,16 +6345,16 @@
         <v>176</v>
       </c>
       <c r="B173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="D173">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>736</v>
+        <v>785</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6140,16 +6362,16 @@
         <v>177</v>
       </c>
       <c r="B174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="D174">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>737</v>
+        <v>786</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6160,13 +6382,13 @@
         <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D175">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>738</v>
+        <v>787</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6177,13 +6399,13 @@
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E176" t="s">
-        <v>386</v>
+        <v>788</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6191,16 +6413,16 @@
         <v>180</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="D177">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>739</v>
+        <v>789</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6211,13 +6433,13 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="D178">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E178" t="s">
-        <v>740</v>
+        <v>790</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6228,13 +6450,13 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="D179">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>741</v>
+        <v>791</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6242,16 +6464,16 @@
         <v>183</v>
       </c>
       <c r="B180">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>478</v>
+        <v>415</v>
       </c>
       <c r="D180">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>742</v>
+        <v>792</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6262,13 +6484,13 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>743</v>
+        <v>793</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6276,16 +6498,16 @@
         <v>185</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="D182">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E182" t="s">
-        <v>744</v>
+        <v>794</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6293,16 +6515,16 @@
         <v>186</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="D183">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>745</v>
+        <v>795</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6313,13 +6535,13 @@
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>746</v>
+        <v>415</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6330,13 +6552,13 @@
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D185">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>747</v>
+        <v>415</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6344,16 +6566,16 @@
         <v>189</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E186" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6361,16 +6583,16 @@
         <v>190</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C187" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="D187">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E187" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6381,13 +6603,13 @@
         <v>3</v>
       </c>
       <c r="C188" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="D188">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E188" t="s">
-        <v>750</v>
+        <v>798</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6395,16 +6617,16 @@
         <v>192</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="D189">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E189" t="s">
-        <v>751</v>
+        <v>799</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6415,13 +6637,13 @@
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>752</v>
+        <v>800</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6429,16 +6651,16 @@
         <v>194</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>753</v>
+        <v>415</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6446,16 +6668,16 @@
         <v>195</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>386</v>
+        <v>512</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E192" t="s">
-        <v>754</v>
+        <v>801</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6466,13 +6688,13 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>755</v>
+        <v>802</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6480,16 +6702,16 @@
         <v>197</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="D194">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E194" t="s">
-        <v>756</v>
+        <v>803</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6500,13 +6722,13 @@
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D195">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>757</v>
+        <v>804</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6514,16 +6736,16 @@
         <v>199</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="D196">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E196" t="s">
-        <v>758</v>
+        <v>805</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6531,16 +6753,16 @@
         <v>200</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>386</v>
+        <v>516</v>
       </c>
       <c r="D197">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E197" t="s">
-        <v>759</v>
+        <v>806</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6551,13 +6773,13 @@
         <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>760</v>
+        <v>807</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6568,13 +6790,13 @@
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D199">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>761</v>
+        <v>808</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6585,13 +6807,13 @@
         <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E200" t="s">
-        <v>762</v>
+        <v>809</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6599,16 +6821,16 @@
         <v>204</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>386</v>
+        <v>517</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>763</v>
+        <v>810</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6616,16 +6838,16 @@
         <v>205</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>386</v>
+        <v>518</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E202" t="s">
-        <v>764</v>
+        <v>811</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6633,16 +6855,16 @@
         <v>206</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>386</v>
+        <v>519</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E203" t="s">
-        <v>765</v>
+        <v>812</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6650,16 +6872,16 @@
         <v>207</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="D204">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E204" t="s">
-        <v>766</v>
+        <v>813</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6667,16 +6889,16 @@
         <v>208</v>
       </c>
       <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>415</v>
+      </c>
+      <c r="D205">
         <v>2</v>
       </c>
-      <c r="C205" t="s">
-        <v>489</v>
-      </c>
-      <c r="D205">
-        <v>17</v>
-      </c>
       <c r="E205" t="s">
-        <v>767</v>
+        <v>814</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6687,13 +6909,13 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="D206">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>768</v>
+        <v>815</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6704,13 +6926,13 @@
         <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>769</v>
+        <v>816</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6721,13 +6943,13 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="D208">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E208" t="s">
-        <v>770</v>
+        <v>817</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6738,13 +6960,13 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="D209">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E209" t="s">
-        <v>771</v>
+        <v>818</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6755,13 +6977,13 @@
         <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D210">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E210" t="s">
-        <v>772</v>
+        <v>819</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6772,13 +6994,13 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="D211">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E211" t="s">
-        <v>773</v>
+        <v>820</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6786,16 +7008,16 @@
         <v>215</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="D212">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E212" t="s">
-        <v>774</v>
+        <v>821</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6806,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>775</v>
+        <v>822</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6820,16 +7042,16 @@
         <v>217</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>495</v>
+        <v>415</v>
       </c>
       <c r="D214">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E214" t="s">
-        <v>776</v>
+        <v>823</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6840,13 +7062,13 @@
         <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E215" t="s">
-        <v>777</v>
+        <v>824</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6857,13 +7079,13 @@
         <v>0</v>
       </c>
       <c r="C216" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>778</v>
+        <v>825</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6871,16 +7093,16 @@
         <v>220</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="s">
-        <v>496</v>
+        <v>415</v>
       </c>
       <c r="D217">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E217" t="s">
-        <v>779</v>
+        <v>826</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6891,13 +7113,13 @@
         <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E218" t="s">
-        <v>780</v>
+        <v>827</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6905,16 +7127,16 @@
         <v>222</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E219" t="s">
-        <v>781</v>
+        <v>828</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6922,16 +7144,16 @@
         <v>223</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>386</v>
+        <v>527</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E220" t="s">
-        <v>782</v>
+        <v>829</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6939,16 +7161,16 @@
         <v>224</v>
       </c>
       <c r="B221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="D221">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E221" t="s">
-        <v>783</v>
+        <v>830</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6956,16 +7178,16 @@
         <v>225</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="s">
-        <v>499</v>
+        <v>415</v>
       </c>
       <c r="D222">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E222" t="s">
-        <v>784</v>
+        <v>831</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6976,13 +7198,13 @@
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D223">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E223" t="s">
-        <v>785</v>
+        <v>832</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6990,16 +7212,16 @@
         <v>227</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>386</v>
+        <v>529</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E224" t="s">
-        <v>786</v>
+        <v>833</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -7010,13 +7232,13 @@
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E225" t="s">
-        <v>787</v>
+        <v>834</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7027,13 +7249,13 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="D226">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>788</v>
+        <v>835</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7041,16 +7263,16 @@
         <v>230</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="s">
-        <v>501</v>
+        <v>415</v>
       </c>
       <c r="D227">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>789</v>
+        <v>836</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7058,16 +7280,16 @@
         <v>231</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="D228">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E228" t="s">
-        <v>790</v>
+        <v>837</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7075,16 +7297,16 @@
         <v>232</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C229" t="s">
-        <v>386</v>
+        <v>532</v>
       </c>
       <c r="D229">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E229" t="s">
-        <v>791</v>
+        <v>838</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7092,16 +7314,16 @@
         <v>233</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>386</v>
+        <v>533</v>
       </c>
       <c r="D230">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E230" t="s">
-        <v>792</v>
+        <v>839</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7112,13 +7334,13 @@
         <v>0</v>
       </c>
       <c r="C231" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D231">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E231" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7129,13 +7351,13 @@
         <v>0</v>
       </c>
       <c r="C232" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D232">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E232" t="s">
-        <v>794</v>
+        <v>841</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7143,16 +7365,16 @@
         <v>236</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C233" t="s">
-        <v>386</v>
+        <v>534</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E233" t="s">
-        <v>795</v>
+        <v>842</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7163,13 +7385,13 @@
         <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>386</v>
+        <v>843</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7180,13 +7402,13 @@
         <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E235" t="s">
-        <v>796</v>
+        <v>844</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7194,16 +7416,16 @@
         <v>239</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>386</v>
+        <v>535</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E236" t="s">
-        <v>797</v>
+        <v>845</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7214,13 +7436,13 @@
         <v>0</v>
       </c>
       <c r="C237" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E237" t="s">
-        <v>798</v>
+        <v>846</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7228,16 +7450,16 @@
         <v>241</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>386</v>
+        <v>536</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>799</v>
+        <v>847</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7245,16 +7467,16 @@
         <v>242</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="D239">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E239" t="s">
-        <v>800</v>
+        <v>848</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7262,16 +7484,16 @@
         <v>243</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C240" t="s">
-        <v>386</v>
+        <v>537</v>
       </c>
       <c r="D240">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E240" t="s">
-        <v>801</v>
+        <v>849</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7279,16 +7501,16 @@
         <v>244</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="D241">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E241" t="s">
-        <v>802</v>
+        <v>850</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7296,16 +7518,16 @@
         <v>245</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C242" t="s">
-        <v>505</v>
+        <v>415</v>
       </c>
       <c r="D242">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E242" t="s">
-        <v>803</v>
+        <v>851</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7313,16 +7535,16 @@
         <v>246</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="D243">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>804</v>
+        <v>852</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7330,16 +7552,16 @@
         <v>247</v>
       </c>
       <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244" t="s">
+        <v>415</v>
+      </c>
+      <c r="D244">
         <v>2</v>
       </c>
-      <c r="C244" t="s">
-        <v>507</v>
-      </c>
-      <c r="D244">
-        <v>21</v>
-      </c>
       <c r="E244" t="s">
-        <v>805</v>
+        <v>853</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7347,16 +7569,16 @@
         <v>248</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>386</v>
+        <v>539</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E245" t="s">
-        <v>806</v>
+        <v>854</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7364,16 +7586,16 @@
         <v>249</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C246" t="s">
-        <v>386</v>
+        <v>540</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E246" t="s">
-        <v>386</v>
+        <v>855</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7381,16 +7603,16 @@
         <v>250</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>386</v>
+        <v>541</v>
       </c>
       <c r="D247">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E247" t="s">
-        <v>807</v>
+        <v>856</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7401,13 +7623,13 @@
         <v>0</v>
       </c>
       <c r="C248" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D248">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E248" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7415,16 +7637,16 @@
         <v>252</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>386</v>
+        <v>542</v>
       </c>
       <c r="D249">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E249" t="s">
-        <v>809</v>
+        <v>858</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7432,16 +7654,16 @@
         <v>253</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C250" t="s">
-        <v>508</v>
+        <v>415</v>
       </c>
       <c r="D250">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E250" t="s">
-        <v>810</v>
+        <v>859</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7452,13 +7674,13 @@
         <v>0</v>
       </c>
       <c r="C251" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D251">
         <v>5</v>
       </c>
       <c r="E251" t="s">
-        <v>811</v>
+        <v>860</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7466,16 +7688,16 @@
         <v>255</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C252" t="s">
-        <v>509</v>
+        <v>415</v>
       </c>
       <c r="D252">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E252" t="s">
-        <v>812</v>
+        <v>861</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7486,13 +7708,13 @@
         <v>0</v>
       </c>
       <c r="C253" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253" t="s">
-        <v>813</v>
+        <v>415</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7503,13 +7725,13 @@
         <v>0</v>
       </c>
       <c r="C254" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D254">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>814</v>
+        <v>862</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7520,13 +7742,13 @@
         <v>0</v>
       </c>
       <c r="C255" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D255">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E255" t="s">
-        <v>815</v>
+        <v>863</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7534,16 +7756,16 @@
         <v>259</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C256" t="s">
-        <v>510</v>
+        <v>415</v>
       </c>
       <c r="D256">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E256" t="s">
-        <v>816</v>
+        <v>864</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7551,16 +7773,16 @@
         <v>260</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>386</v>
+        <v>543</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E257" t="s">
-        <v>817</v>
+        <v>865</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7568,16 +7790,16 @@
         <v>261</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="s">
-        <v>511</v>
+        <v>415</v>
       </c>
       <c r="D258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E258" t="s">
-        <v>818</v>
+        <v>866</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7585,16 +7807,16 @@
         <v>262</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="D259">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E259" t="s">
-        <v>819</v>
+        <v>867</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7602,16 +7824,16 @@
         <v>263</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C260" t="s">
-        <v>513</v>
+        <v>415</v>
       </c>
       <c r="D260">
         <v>7</v>
       </c>
       <c r="E260" t="s">
-        <v>820</v>
+        <v>868</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7622,13 +7844,13 @@
         <v>0</v>
       </c>
       <c r="C261" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D261">
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>821</v>
+        <v>869</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7636,16 +7858,16 @@
         <v>265</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C262" t="s">
-        <v>386</v>
+        <v>545</v>
       </c>
       <c r="D262">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E262" t="s">
-        <v>822</v>
+        <v>870</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7653,16 +7875,16 @@
         <v>266</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C263" t="s">
-        <v>386</v>
+        <v>546</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E263" t="s">
-        <v>823</v>
+        <v>871</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7670,16 +7892,16 @@
         <v>267</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>386</v>
+        <v>547</v>
       </c>
       <c r="D264">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E264" t="s">
-        <v>824</v>
+        <v>872</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7687,16 +7909,16 @@
         <v>268</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="D265">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E265" t="s">
-        <v>825</v>
+        <v>873</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7707,13 +7929,13 @@
         <v>0</v>
       </c>
       <c r="C266" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D266">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E266" t="s">
-        <v>826</v>
+        <v>874</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7721,16 +7943,16 @@
         <v>270</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="s">
-        <v>515</v>
+        <v>415</v>
       </c>
       <c r="D267">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E267" t="s">
-        <v>827</v>
+        <v>415</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7738,16 +7960,16 @@
         <v>271</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="s">
-        <v>516</v>
+        <v>415</v>
       </c>
       <c r="D268">
         <v>7</v>
       </c>
       <c r="E268" t="s">
-        <v>828</v>
+        <v>875</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7758,13 +7980,13 @@
         <v>0</v>
       </c>
       <c r="C269" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D269">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E269" t="s">
-        <v>829</v>
+        <v>876</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7775,13 +7997,13 @@
         <v>0</v>
       </c>
       <c r="C270" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D270">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E270" t="s">
-        <v>830</v>
+        <v>877</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7789,16 +8011,16 @@
         <v>274</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>386</v>
+        <v>549</v>
       </c>
       <c r="D271">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E271" t="s">
-        <v>831</v>
+        <v>878</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7809,13 +8031,13 @@
         <v>0</v>
       </c>
       <c r="C272" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E272" t="s">
-        <v>832</v>
+        <v>879</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7823,16 +8045,16 @@
         <v>276</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C273" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="D273">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E273" t="s">
-        <v>833</v>
+        <v>880</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7840,16 +8062,16 @@
         <v>277</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C274" t="s">
-        <v>386</v>
+        <v>551</v>
       </c>
       <c r="D274">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E274" t="s">
-        <v>834</v>
+        <v>881</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7857,16 +8079,16 @@
         <v>278</v>
       </c>
       <c r="B275">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C275" t="s">
-        <v>518</v>
+        <v>415</v>
       </c>
       <c r="D275">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E275" t="s">
-        <v>835</v>
+        <v>882</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7877,13 +8099,13 @@
         <v>0</v>
       </c>
       <c r="C276" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E276" t="s">
-        <v>836</v>
+        <v>883</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7894,13 +8116,13 @@
         <v>0</v>
       </c>
       <c r="C277" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D277">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E277" t="s">
-        <v>837</v>
+        <v>884</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7908,16 +8130,16 @@
         <v>281</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C278" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="D278">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E278" t="s">
-        <v>838</v>
+        <v>885</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7928,13 +8150,13 @@
         <v>0</v>
       </c>
       <c r="C279" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D279">
         <v>1</v>
       </c>
       <c r="E279" t="s">
-        <v>839</v>
+        <v>886</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7942,16 +8164,16 @@
         <v>283</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>386</v>
+        <v>553</v>
       </c>
       <c r="D280">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E280" t="s">
-        <v>840</v>
+        <v>887</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7959,16 +8181,16 @@
         <v>284</v>
       </c>
       <c r="B281">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="D281">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E281" t="s">
-        <v>841</v>
+        <v>888</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7976,16 +8198,16 @@
         <v>285</v>
       </c>
       <c r="B282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C282" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="D282">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E282" t="s">
-        <v>842</v>
+        <v>889</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7996,13 +8218,13 @@
         <v>0</v>
       </c>
       <c r="C283" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D283">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E283" t="s">
-        <v>843</v>
+        <v>890</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8010,16 +8232,16 @@
         <v>287</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="s">
-        <v>522</v>
+        <v>415</v>
       </c>
       <c r="D284">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E284" t="s">
-        <v>844</v>
+        <v>891</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8027,16 +8249,16 @@
         <v>288</v>
       </c>
       <c r="B285">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C285" t="s">
-        <v>523</v>
+        <v>415</v>
       </c>
       <c r="D285">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E285" t="s">
-        <v>845</v>
+        <v>892</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8047,13 +8269,13 @@
         <v>0</v>
       </c>
       <c r="C286" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D286">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E286" t="s">
-        <v>846</v>
+        <v>893</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8064,13 +8286,13 @@
         <v>0</v>
       </c>
       <c r="C287" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D287">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E287" t="s">
-        <v>847</v>
+        <v>894</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8078,16 +8300,16 @@
         <v>291</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>386</v>
+        <v>556</v>
       </c>
       <c r="D288">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E288" t="s">
-        <v>848</v>
+        <v>895</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8095,16 +8317,16 @@
         <v>292</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>386</v>
+        <v>557</v>
       </c>
       <c r="D289">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E289" t="s">
-        <v>849</v>
+        <v>896</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8115,13 +8337,13 @@
         <v>0</v>
       </c>
       <c r="C290" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D290">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E290" t="s">
-        <v>850</v>
+        <v>897</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8132,13 +8354,13 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="D291">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E291" t="s">
-        <v>851</v>
+        <v>898</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8146,16 +8368,16 @@
         <v>295</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>386</v>
+        <v>559</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E292" t="s">
-        <v>852</v>
+        <v>899</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8166,13 +8388,13 @@
         <v>0</v>
       </c>
       <c r="C293" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D293">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E293" t="s">
-        <v>853</v>
+        <v>900</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8180,16 +8402,16 @@
         <v>297</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="s">
-        <v>525</v>
+        <v>415</v>
       </c>
       <c r="D294">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E294" t="s">
-        <v>854</v>
+        <v>901</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8200,13 +8422,13 @@
         <v>0</v>
       </c>
       <c r="C295" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D295">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E295" t="s">
-        <v>855</v>
+        <v>902</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8217,13 +8439,13 @@
         <v>0</v>
       </c>
       <c r="C296" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D296">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E296" t="s">
-        <v>856</v>
+        <v>903</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8231,16 +8453,16 @@
         <v>300</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>386</v>
+        <v>560</v>
       </c>
       <c r="D297">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E297" t="s">
-        <v>857</v>
+        <v>904</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8251,13 +8473,13 @@
         <v>0</v>
       </c>
       <c r="C298" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D298">
         <v>2</v>
       </c>
       <c r="E298" t="s">
-        <v>858</v>
+        <v>905</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8265,16 +8487,16 @@
         <v>302</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C299" t="s">
-        <v>386</v>
+        <v>561</v>
       </c>
       <c r="D299">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E299" t="s">
-        <v>859</v>
+        <v>906</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8282,16 +8504,16 @@
         <v>303</v>
       </c>
       <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300" t="s">
+        <v>415</v>
+      </c>
+      <c r="D300">
         <v>2</v>
       </c>
-      <c r="C300" t="s">
-        <v>526</v>
-      </c>
-      <c r="D300">
-        <v>18</v>
-      </c>
       <c r="E300" t="s">
-        <v>860</v>
+        <v>907</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8302,13 +8524,13 @@
         <v>0</v>
       </c>
       <c r="C301" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D301">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E301" t="s">
-        <v>861</v>
+        <v>908</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8316,16 +8538,16 @@
         <v>305</v>
       </c>
       <c r="B302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>386</v>
+        <v>562</v>
       </c>
       <c r="D302">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E302" t="s">
-        <v>862</v>
+        <v>909</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8333,16 +8555,16 @@
         <v>306</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="s">
-        <v>527</v>
+        <v>415</v>
       </c>
       <c r="D303">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E303" t="s">
-        <v>863</v>
+        <v>910</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8350,16 +8572,16 @@
         <v>307</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="s">
-        <v>528</v>
+        <v>415</v>
       </c>
       <c r="D304">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E304" t="s">
-        <v>864</v>
+        <v>911</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8367,16 +8589,16 @@
         <v>308</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="D305">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E305" t="s">
-        <v>865</v>
+        <v>912</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8384,16 +8606,16 @@
         <v>309</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C306" t="s">
-        <v>386</v>
+        <v>564</v>
       </c>
       <c r="D306">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E306" t="s">
-        <v>866</v>
+        <v>913</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8401,16 +8623,16 @@
         <v>310</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="s">
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="D307">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E307" t="s">
-        <v>867</v>
+        <v>914</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8421,13 +8643,13 @@
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="D308">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E308" t="s">
-        <v>868</v>
+        <v>915</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8435,16 +8657,16 @@
         <v>312</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C309" t="s">
-        <v>386</v>
+        <v>566</v>
       </c>
       <c r="D309">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E309" t="s">
-        <v>869</v>
+        <v>916</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8455,13 +8677,13 @@
         <v>0</v>
       </c>
       <c r="C310" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D310">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E310" t="s">
-        <v>870</v>
+        <v>917</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8472,13 +8694,13 @@
         <v>0</v>
       </c>
       <c r="C311" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D311">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E311" t="s">
-        <v>871</v>
+        <v>918</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8486,16 +8708,16 @@
         <v>315</v>
       </c>
       <c r="B312">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C312" t="s">
-        <v>532</v>
+        <v>415</v>
       </c>
       <c r="D312">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E312" t="s">
-        <v>872</v>
+        <v>919</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8506,13 +8728,13 @@
         <v>0</v>
       </c>
       <c r="C313" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D313">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E313" t="s">
-        <v>873</v>
+        <v>920</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8523,13 +8745,13 @@
         <v>0</v>
       </c>
       <c r="C314" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D314">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E314" t="s">
-        <v>874</v>
+        <v>921</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8540,13 +8762,13 @@
         <v>1</v>
       </c>
       <c r="C315" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="D315">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E315" t="s">
-        <v>875</v>
+        <v>922</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8554,16 +8776,16 @@
         <v>319</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="s">
-        <v>534</v>
+        <v>415</v>
       </c>
       <c r="D316">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E316" t="s">
-        <v>876</v>
+        <v>923</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8574,13 +8796,13 @@
         <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="D317">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E317" t="s">
-        <v>877</v>
+        <v>924</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8588,16 +8810,16 @@
         <v>321</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="D318">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E318" t="s">
-        <v>878</v>
+        <v>925</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8605,16 +8827,16 @@
         <v>322</v>
       </c>
       <c r="B319">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C319" t="s">
-        <v>386</v>
+        <v>570</v>
       </c>
       <c r="D319">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E319" t="s">
-        <v>386</v>
+        <v>926</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8625,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="C320" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E320" t="s">
-        <v>386</v>
+        <v>927</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8642,13 +8864,13 @@
         <v>0</v>
       </c>
       <c r="C321" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D321">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E321" t="s">
-        <v>386</v>
+        <v>928</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8659,13 +8881,13 @@
         <v>0</v>
       </c>
       <c r="C322" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D322">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E322" t="s">
-        <v>879</v>
+        <v>929</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8673,16 +8895,16 @@
         <v>326</v>
       </c>
       <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323" t="s">
+        <v>415</v>
+      </c>
+      <c r="D323">
         <v>2</v>
       </c>
-      <c r="C323" t="s">
-        <v>537</v>
-      </c>
-      <c r="D323">
-        <v>22</v>
-      </c>
       <c r="E323" t="s">
-        <v>880</v>
+        <v>930</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8693,13 +8915,13 @@
         <v>0</v>
       </c>
       <c r="C324" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D324">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E324" t="s">
-        <v>881</v>
+        <v>931</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8707,16 +8929,16 @@
         <v>328</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C325" t="s">
-        <v>386</v>
+        <v>571</v>
       </c>
       <c r="D325">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E325" t="s">
-        <v>386</v>
+        <v>932</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8727,13 +8949,13 @@
         <v>0</v>
       </c>
       <c r="C326" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D326">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E326" t="s">
-        <v>882</v>
+        <v>933</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8741,16 +8963,16 @@
         <v>330</v>
       </c>
       <c r="B327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C327" t="s">
-        <v>538</v>
+        <v>415</v>
       </c>
       <c r="D327">
         <v>6</v>
       </c>
       <c r="E327" t="s">
-        <v>883</v>
+        <v>934</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8758,16 +8980,16 @@
         <v>331</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>386</v>
+        <v>572</v>
       </c>
       <c r="D328">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E328" t="s">
-        <v>884</v>
+        <v>935</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8775,16 +8997,16 @@
         <v>332</v>
       </c>
       <c r="B329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="s">
-        <v>386</v>
+        <v>573</v>
       </c>
       <c r="D329">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E329" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8795,13 +9017,13 @@
         <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="D330">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E330" t="s">
-        <v>886</v>
+        <v>937</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8812,13 +9034,13 @@
         <v>0</v>
       </c>
       <c r="C331" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D331">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E331" t="s">
-        <v>887</v>
+        <v>938</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8829,13 +9051,13 @@
         <v>1</v>
       </c>
       <c r="C332" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="D332">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E332" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8846,13 +9068,13 @@
         <v>1</v>
       </c>
       <c r="C333" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="D333">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E333" t="s">
-        <v>889</v>
+        <v>940</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8860,16 +9082,16 @@
         <v>337</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="s">
-        <v>542</v>
+        <v>415</v>
       </c>
       <c r="D334">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E334" t="s">
-        <v>890</v>
+        <v>941</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8880,13 +9102,13 @@
         <v>0</v>
       </c>
       <c r="C335" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D335">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E335" t="s">
-        <v>891</v>
+        <v>942</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8897,13 +9119,13 @@
         <v>0</v>
       </c>
       <c r="C336" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D336">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E336" t="s">
-        <v>892</v>
+        <v>943</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8911,16 +9133,16 @@
         <v>340</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C337" t="s">
-        <v>386</v>
+        <v>577</v>
       </c>
       <c r="D337">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E337" t="s">
-        <v>893</v>
+        <v>944</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8928,16 +9150,16 @@
         <v>341</v>
       </c>
       <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338" t="s">
+        <v>415</v>
+      </c>
+      <c r="D338">
         <v>2</v>
       </c>
-      <c r="C338" t="s">
-        <v>543</v>
-      </c>
-      <c r="D338">
-        <v>13</v>
-      </c>
       <c r="E338" t="s">
-        <v>894</v>
+        <v>945</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8948,13 +9170,13 @@
         <v>0</v>
       </c>
       <c r="C339" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D339">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E339" t="s">
-        <v>895</v>
+        <v>946</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8962,16 +9184,16 @@
         <v>343</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="s">
-        <v>386</v>
+        <v>578</v>
       </c>
       <c r="D340">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E340" t="s">
-        <v>896</v>
+        <v>947</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8979,16 +9201,16 @@
         <v>344</v>
       </c>
       <c r="B341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="D341">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E341" t="s">
-        <v>897</v>
+        <v>948</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8999,13 +9221,13 @@
         <v>1</v>
       </c>
       <c r="C342" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="D342">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E342" t="s">
-        <v>898</v>
+        <v>949</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9013,16 +9235,16 @@
         <v>346</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C343" t="s">
-        <v>386</v>
+        <v>581</v>
       </c>
       <c r="D343">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E343" t="s">
-        <v>899</v>
+        <v>950</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9030,16 +9252,16 @@
         <v>347</v>
       </c>
       <c r="B344">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C344" t="s">
-        <v>546</v>
+        <v>415</v>
       </c>
       <c r="D344">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E344" t="s">
-        <v>900</v>
+        <v>415</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9047,16 +9269,16 @@
         <v>348</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C345" t="s">
-        <v>386</v>
+        <v>582</v>
       </c>
       <c r="D345">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E345" t="s">
-        <v>901</v>
+        <v>951</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9064,16 +9286,16 @@
         <v>349</v>
       </c>
       <c r="B346">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C346" t="s">
-        <v>547</v>
+        <v>415</v>
       </c>
       <c r="D346">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E346" t="s">
-        <v>902</v>
+        <v>415</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9081,16 +9303,16 @@
         <v>350</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="s">
-        <v>548</v>
+        <v>415</v>
       </c>
       <c r="D347">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E347" t="s">
-        <v>903</v>
+        <v>415</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9098,16 +9320,16 @@
         <v>351</v>
       </c>
       <c r="B348">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C348" t="s">
-        <v>549</v>
+        <v>415</v>
       </c>
       <c r="D348">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E348" t="s">
-        <v>904</v>
+        <v>952</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9115,16 +9337,16 @@
         <v>352</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C349" t="s">
-        <v>386</v>
+        <v>583</v>
       </c>
       <c r="D349">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E349" t="s">
-        <v>905</v>
+        <v>953</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9135,13 +9357,13 @@
         <v>0</v>
       </c>
       <c r="C350" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D350">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E350" t="s">
-        <v>906</v>
+        <v>954</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9149,16 +9371,16 @@
         <v>354</v>
       </c>
       <c r="B351">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C351" t="s">
-        <v>550</v>
+        <v>415</v>
       </c>
       <c r="D351">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E351" t="s">
-        <v>907</v>
+        <v>415</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9166,16 +9388,16 @@
         <v>355</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="s">
-        <v>551</v>
+        <v>415</v>
       </c>
       <c r="D352">
         <v>8</v>
       </c>
       <c r="E352" t="s">
-        <v>908</v>
+        <v>955</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9183,16 +9405,16 @@
         <v>356</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="s">
-        <v>386</v>
+        <v>584</v>
       </c>
       <c r="D353">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E353" t="s">
-        <v>909</v>
+        <v>956</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9200,16 +9422,16 @@
         <v>357</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C354" t="s">
-        <v>552</v>
+        <v>415</v>
       </c>
       <c r="D354">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E354" t="s">
-        <v>910</v>
+        <v>957</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9217,16 +9439,16 @@
         <v>358</v>
       </c>
       <c r="B355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="s">
-        <v>553</v>
+        <v>415</v>
       </c>
       <c r="D355">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E355" t="s">
-        <v>911</v>
+        <v>958</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9237,13 +9459,13 @@
         <v>1</v>
       </c>
       <c r="C356" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="D356">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E356" t="s">
-        <v>912</v>
+        <v>959</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9254,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="C357" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D357">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E357" t="s">
-        <v>913</v>
+        <v>960</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9268,16 +9490,16 @@
         <v>361</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="s">
-        <v>386</v>
+        <v>586</v>
       </c>
       <c r="D358">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E358" t="s">
-        <v>914</v>
+        <v>961</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9285,16 +9507,16 @@
         <v>362</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C359" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="D359">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E359" t="s">
-        <v>915</v>
+        <v>962</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9302,16 +9524,16 @@
         <v>363</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" t="s">
-        <v>386</v>
+        <v>588</v>
       </c>
       <c r="D360">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E360" t="s">
-        <v>916</v>
+        <v>963</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9322,13 +9544,13 @@
         <v>0</v>
       </c>
       <c r="C361" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D361">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E361" t="s">
-        <v>917</v>
+        <v>964</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9339,13 +9561,13 @@
         <v>0</v>
       </c>
       <c r="C362" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D362">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E362" t="s">
-        <v>918</v>
+        <v>965</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9356,13 +9578,13 @@
         <v>0</v>
       </c>
       <c r="C363" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D363">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E363" t="s">
-        <v>919</v>
+        <v>966</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9370,16 +9592,16 @@
         <v>367</v>
       </c>
       <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364" t="s">
+        <v>415</v>
+      </c>
+      <c r="D364">
         <v>3</v>
       </c>
-      <c r="C364" t="s">
-        <v>556</v>
-      </c>
-      <c r="D364">
-        <v>22</v>
-      </c>
       <c r="E364" t="s">
-        <v>920</v>
+        <v>967</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9387,16 +9609,16 @@
         <v>368</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C365" t="s">
-        <v>386</v>
+        <v>589</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E365" t="s">
-        <v>921</v>
+        <v>968</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9407,13 +9629,13 @@
         <v>0</v>
       </c>
       <c r="C366" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D366">
         <v>5</v>
       </c>
       <c r="E366" t="s">
-        <v>922</v>
+        <v>969</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9421,16 +9643,16 @@
         <v>370</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" t="s">
-        <v>557</v>
+        <v>415</v>
       </c>
       <c r="D367">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E367" t="s">
-        <v>923</v>
+        <v>970</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9438,16 +9660,16 @@
         <v>371</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C368" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="D368">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E368" t="s">
-        <v>924</v>
+        <v>971</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9455,16 +9677,16 @@
         <v>372</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="s">
-        <v>386</v>
+        <v>591</v>
       </c>
       <c r="D369">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E369" t="s">
-        <v>925</v>
+        <v>972</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9472,16 +9694,16 @@
         <v>373</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C370" t="s">
-        <v>559</v>
+        <v>415</v>
       </c>
       <c r="D370">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E370" t="s">
-        <v>926</v>
+        <v>973</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9489,16 +9711,16 @@
         <v>374</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C371" t="s">
-        <v>386</v>
+        <v>592</v>
       </c>
       <c r="D371">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E371" t="s">
-        <v>927</v>
+        <v>974</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9509,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="C372" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D372">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E372" t="s">
-        <v>928</v>
+        <v>975</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9523,16 +9745,16 @@
         <v>376</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C373" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="D373">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E373" t="s">
-        <v>929</v>
+        <v>976</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9540,16 +9762,16 @@
         <v>377</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="s">
-        <v>386</v>
+        <v>594</v>
       </c>
       <c r="D374">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E374" t="s">
-        <v>930</v>
+        <v>977</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9557,16 +9779,16 @@
         <v>378</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C375" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="D375">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E375" t="s">
-        <v>931</v>
+        <v>978</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9574,16 +9796,16 @@
         <v>379</v>
       </c>
       <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376" t="s">
+        <v>415</v>
+      </c>
+      <c r="D376">
         <v>2</v>
       </c>
-      <c r="C376" t="s">
-        <v>562</v>
-      </c>
-      <c r="D376">
-        <v>17</v>
-      </c>
       <c r="E376" t="s">
-        <v>932</v>
+        <v>979</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9594,13 +9816,13 @@
         <v>1</v>
       </c>
       <c r="C377" t="s">
-        <v>563</v>
+        <v>596</v>
       </c>
       <c r="D377">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E377" t="s">
-        <v>933</v>
+        <v>980</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9608,16 +9830,16 @@
         <v>381</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C378" t="s">
-        <v>564</v>
+        <v>597</v>
       </c>
       <c r="D378">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E378" t="s">
-        <v>934</v>
+        <v>981</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9625,16 +9847,16 @@
         <v>382</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C379" t="s">
-        <v>386</v>
+        <v>598</v>
       </c>
       <c r="D379">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E379" t="s">
-        <v>935</v>
+        <v>982</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9642,16 +9864,16 @@
         <v>383</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C380" t="s">
-        <v>565</v>
+        <v>415</v>
       </c>
       <c r="D380">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E380" t="s">
-        <v>936</v>
+        <v>983</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9659,16 +9881,16 @@
         <v>384</v>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C381" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="D381">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E381" t="s">
-        <v>937</v>
+        <v>984</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9676,16 +9898,475 @@
         <v>385</v>
       </c>
       <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382" t="s">
+        <v>600</v>
+      </c>
+      <c r="D382">
+        <v>20</v>
+      </c>
+      <c r="E382" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="s">
+        <v>386</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383" t="s">
+        <v>601</v>
+      </c>
+      <c r="D383">
+        <v>12</v>
+      </c>
+      <c r="E383" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" t="s">
+        <v>387</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384" t="s">
+        <v>415</v>
+      </c>
+      <c r="D384">
         <v>2</v>
       </c>
-      <c r="C382" t="s">
-        <v>567</v>
-      </c>
-      <c r="D382">
+      <c r="E384" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" t="s">
+        <v>388</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385" t="s">
+        <v>415</v>
+      </c>
+      <c r="D385">
+        <v>24</v>
+      </c>
+      <c r="E385" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" t="s">
+        <v>389</v>
+      </c>
+      <c r="B386">
+        <v>2</v>
+      </c>
+      <c r="C386" t="s">
+        <v>602</v>
+      </c>
+      <c r="D386">
+        <v>23</v>
+      </c>
+      <c r="E386" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="s">
+        <v>390</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387" t="s">
+        <v>415</v>
+      </c>
+      <c r="D387">
+        <v>5</v>
+      </c>
+      <c r="E387" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" t="s">
+        <v>391</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388" t="s">
+        <v>415</v>
+      </c>
+      <c r="D388">
         <v>9</v>
       </c>
-      <c r="E382" t="s">
-        <v>938</v>
+      <c r="E388" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="s">
+        <v>392</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389" t="s">
+        <v>415</v>
+      </c>
+      <c r="D389">
+        <v>4</v>
+      </c>
+      <c r="E389" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="s">
+        <v>393</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390" t="s">
+        <v>415</v>
+      </c>
+      <c r="D390">
+        <v>4</v>
+      </c>
+      <c r="E390" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>394</v>
+      </c>
+      <c r="B391">
+        <v>3</v>
+      </c>
+      <c r="C391" t="s">
+        <v>603</v>
+      </c>
+      <c r="D391">
+        <v>22</v>
+      </c>
+      <c r="E391" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>395</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392" t="s">
+        <v>415</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>396</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393" t="s">
+        <v>415</v>
+      </c>
+      <c r="D393">
+        <v>5</v>
+      </c>
+      <c r="E393" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>397</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394" t="s">
+        <v>604</v>
+      </c>
+      <c r="D394">
+        <v>3</v>
+      </c>
+      <c r="E394" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>398</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395" t="s">
+        <v>605</v>
+      </c>
+      <c r="D395">
+        <v>18</v>
+      </c>
+      <c r="E395" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>399</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+      <c r="C396" t="s">
+        <v>415</v>
+      </c>
+      <c r="D396">
+        <v>13</v>
+      </c>
+      <c r="E396" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>400</v>
+      </c>
+      <c r="B397">
+        <v>2</v>
+      </c>
+      <c r="C397" t="s">
+        <v>606</v>
+      </c>
+      <c r="D397">
+        <v>23</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>401</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+      <c r="C398" t="s">
+        <v>415</v>
+      </c>
+      <c r="D398">
+        <v>2</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>402</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399" t="s">
+        <v>415</v>
+      </c>
+      <c r="D399">
+        <v>3</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>403</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400" t="s">
+        <v>607</v>
+      </c>
+      <c r="D400">
+        <v>13</v>
+      </c>
+      <c r="E400" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>404</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+      <c r="C401" t="s">
+        <v>415</v>
+      </c>
+      <c r="D401">
+        <v>17</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>405</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402" t="s">
+        <v>608</v>
+      </c>
+      <c r="D402">
+        <v>7</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>406</v>
+      </c>
+      <c r="B403">
+        <v>2</v>
+      </c>
+      <c r="C403" t="s">
+        <v>609</v>
+      </c>
+      <c r="D403">
+        <v>17</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>407</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404" t="s">
+        <v>610</v>
+      </c>
+      <c r="D404">
+        <v>23</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>408</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405" t="s">
+        <v>611</v>
+      </c>
+      <c r="D405">
+        <v>8</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>409</v>
+      </c>
+      <c r="B406">
+        <v>0</v>
+      </c>
+      <c r="C406" t="s">
+        <v>415</v>
+      </c>
+      <c r="D406">
+        <v>9</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>410</v>
+      </c>
+      <c r="B407">
+        <v>2</v>
+      </c>
+      <c r="C407" t="s">
+        <v>612</v>
+      </c>
+      <c r="D407">
+        <v>17</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>411</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408" t="s">
+        <v>613</v>
+      </c>
+      <c r="D408">
+        <v>11</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>412</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="C409" t="s">
+        <v>614</v>
+      </c>
+      <c r="D409">
+        <v>12</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
